--- a/assets/sched.xlsx
+++ b/assets/sched.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10714"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abmosca/Documents/Documents/classes/web-template/assets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abmosca/Documents/Documents/Smith/F24/SDS-CS109/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF7A67F7-4106-E840-8DCF-C54078ADD9FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BA341EA-E8FA-AC47-9114-EFFE6B5176D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="20">
   <si>
     <t>Date</t>
   </si>
@@ -81,13 +81,25 @@
   </si>
   <si>
     <t>Week</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>NO CLASS - AUTUMN RECESS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">italic </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -125,6 +137,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -232,7 +252,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -248,28 +268,48 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -485,15 +525,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E37E44A5-0A5F-414A-B4D4-809AE35C85CF}">
-  <dimension ref="A1:I46"/>
+  <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N26" sqref="N26"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="3" max="3" width="10.83203125" style="6"/>
+    <col min="3" max="3" width="7.33203125" style="6" customWidth="1"/>
+    <col min="4" max="4" width="4.1640625" style="31" customWidth="1"/>
+    <col min="6" max="6" width="26.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
@@ -506,7 +548,7 @@
       <c r="C1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="26" t="s">
         <v>4</v>
       </c>
       <c r="E1" s="1" t="s">
@@ -526,561 +568,488 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="9">
+      <c r="C2" s="19">
         <v>1</v>
       </c>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
+      <c r="D2" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="23">
+        <v>45538</v>
+      </c>
       <c r="F2" s="8"/>
       <c r="G2" s="8"/>
       <c r="H2" s="8"/>
-      <c r="I2" s="10"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A3" s="20" t="s">
+      <c r="I2" s="9"/>
+    </row>
+    <row r="3" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="13"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="14"/>
-    </row>
-    <row r="4" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="15"/>
-      <c r="B4" s="23" t="s">
+      <c r="C3" s="20"/>
+      <c r="D3" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="24">
+        <v>45540</v>
+      </c>
+      <c r="I3" s="11"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A4" s="7"/>
+      <c r="B4" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="17"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="18"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A5" s="7"/>
-      <c r="B5" s="21" t="s">
+      <c r="C4" s="19">
+        <v>2</v>
+      </c>
+      <c r="D4" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="23">
+        <v>45545</v>
+      </c>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="9"/>
+    </row>
+    <row r="5" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="10"/>
+      <c r="B5" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="9">
-        <v>2</v>
-      </c>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="10"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="24">
+        <v>45547</v>
+      </c>
+      <c r="I5" s="11"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A6" s="11"/>
-      <c r="B6" s="24" t="s">
+      <c r="A6" s="7"/>
+      <c r="B6" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="13"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="14"/>
+      <c r="C6" s="19">
+        <v>3</v>
+      </c>
+      <c r="D6" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="23">
+        <v>45551</v>
+      </c>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="9"/>
     </row>
     <row r="7" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="15"/>
-      <c r="B7" s="16"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="18"/>
+      <c r="A7" s="10"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="24">
+        <v>45554</v>
+      </c>
+      <c r="I7" s="11"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8" s="7"/>
       <c r="B8" s="8"/>
-      <c r="C8" s="9">
-        <v>3</v>
-      </c>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
+      <c r="C8" s="19">
+        <v>4</v>
+      </c>
+      <c r="D8" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="23">
+        <v>45559</v>
+      </c>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c r="H8" s="8"/>
-      <c r="I8" s="10"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A9" s="11"/>
-      <c r="B9" s="12"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="14"/>
-    </row>
-    <row r="10" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="15"/>
-      <c r="B10" s="16"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16"/>
-      <c r="I10" s="18"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A11" s="7"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="9">
-        <v>4</v>
-      </c>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="10"/>
+      <c r="I8" s="9"/>
+    </row>
+    <row r="9" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="10"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" s="24">
+        <v>45561</v>
+      </c>
+      <c r="I9" s="11"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A10" s="7"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="19">
+        <v>5</v>
+      </c>
+      <c r="D10" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="23">
+        <v>45566</v>
+      </c>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="9"/>
+    </row>
+    <row r="11" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="10"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" s="24">
+        <v>45294</v>
+      </c>
+      <c r="I11" s="11"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A12" s="11"/>
-      <c r="B12" s="12"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="14"/>
+      <c r="A12" s="7"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="19">
+        <v>6</v>
+      </c>
+      <c r="D12" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" s="23">
+        <v>45573</v>
+      </c>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="9"/>
     </row>
     <row r="13" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="15"/>
-      <c r="B13" s="16"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="16"/>
-      <c r="I13" s="18"/>
+      <c r="A13" s="10"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" s="24">
+        <v>45575</v>
+      </c>
+      <c r="I13" s="11"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A14" s="7"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="9">
-        <v>5</v>
-      </c>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
+      <c r="A14" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="19">
+        <v>7</v>
+      </c>
+      <c r="D14" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" s="23">
+        <v>45580</v>
+      </c>
+      <c r="F14" s="32" t="s">
+        <v>18</v>
+      </c>
       <c r="G14" s="8"/>
       <c r="H14" s="8"/>
-      <c r="I14" s="10"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A15" s="11"/>
-      <c r="B15" s="12"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="14"/>
-    </row>
-    <row r="16" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="15"/>
-      <c r="B16" s="16"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="16"/>
-      <c r="I16" s="18"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A17" s="7"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="9">
-        <v>6</v>
-      </c>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="10"/>
+      <c r="I14" s="9"/>
+    </row>
+    <row r="15" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="10"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15" s="24">
+        <v>45582</v>
+      </c>
+      <c r="I15" s="11"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A16" s="7"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="19">
+        <v>8</v>
+      </c>
+      <c r="D16" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="E16" s="23">
+        <v>45587</v>
+      </c>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="9"/>
+    </row>
+    <row r="17" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="10"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="E17" s="24">
+        <v>45589</v>
+      </c>
+      <c r="I17" s="11"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A18" s="11"/>
-      <c r="B18" s="12"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="12"/>
-      <c r="I18" s="14"/>
+      <c r="A18" s="7"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="19">
+        <v>9</v>
+      </c>
+      <c r="D18" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="E18" s="23">
+        <v>45594</v>
+      </c>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="9"/>
     </row>
     <row r="19" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="15"/>
-      <c r="B19" s="16"/>
-      <c r="C19" s="17"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="16"/>
-      <c r="H19" s="16"/>
-      <c r="I19" s="18"/>
+      <c r="A19" s="12"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="E19" s="25">
+        <v>45596</v>
+      </c>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="14"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A20" s="7"/>
       <c r="B20" s="8"/>
-      <c r="C20" s="9">
-        <v>7</v>
-      </c>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
+      <c r="C20" s="19">
+        <v>10</v>
+      </c>
+      <c r="D20" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="E20" s="23">
+        <v>45601</v>
+      </c>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c r="H20" s="8"/>
-      <c r="I20" s="10"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A21" s="11"/>
-      <c r="B21" s="12"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="12"/>
+      <c r="I20" s="9"/>
+    </row>
+    <row r="21" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="12"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="21"/>
+      <c r="D21" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="E21" s="25">
+        <v>45603</v>
+      </c>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
       <c r="I21" s="14"/>
     </row>
-    <row r="22" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="15"/>
-      <c r="B22" s="16"/>
-      <c r="C22" s="17"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="16"/>
-      <c r="G22" s="16"/>
-      <c r="H22" s="16"/>
-      <c r="I22" s="18"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A23" s="7"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="9">
-        <v>8</v>
-      </c>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="10"/>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A22" s="7"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="19">
+        <v>11</v>
+      </c>
+      <c r="D22" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="E22" s="23">
+        <v>45608</v>
+      </c>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="9"/>
+    </row>
+    <row r="23" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="12"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="E23" s="25">
+        <v>45610</v>
+      </c>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="14"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A24" s="11"/>
-      <c r="B24" s="12"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="12"/>
-      <c r="H24" s="12"/>
-      <c r="I24" s="14"/>
+      <c r="A24" s="7"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="19">
+        <v>12</v>
+      </c>
+      <c r="D24" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="E24" s="23">
+        <v>45615</v>
+      </c>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="9"/>
     </row>
     <row r="25" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="15"/>
-      <c r="B25" s="16"/>
-      <c r="C25" s="17"/>
-      <c r="D25" s="16"/>
-      <c r="E25" s="16"/>
-      <c r="F25" s="16"/>
-      <c r="G25" s="16"/>
-      <c r="H25" s="16"/>
-      <c r="I25" s="18"/>
+      <c r="A25" s="12"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="21"/>
+      <c r="D25" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="E25" s="25">
+        <v>45617</v>
+      </c>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="13"/>
+      <c r="I25" s="14"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A26" s="7"/>
       <c r="B26" s="8"/>
-      <c r="C26" s="9">
-        <v>9</v>
-      </c>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
+      <c r="C26" s="19">
+        <v>13</v>
+      </c>
+      <c r="D26" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="E26" s="23">
+        <v>45622</v>
+      </c>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c r="H26" s="8"/>
-      <c r="I26" s="10"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A27" s="11"/>
-      <c r="B27" s="12"/>
-      <c r="C27" s="13"/>
-      <c r="D27" s="12"/>
-      <c r="E27" s="12"/>
-      <c r="F27" s="12"/>
-      <c r="G27" s="12"/>
-      <c r="H27" s="12"/>
+      <c r="I26" s="9"/>
+    </row>
+    <row r="27" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="12"/>
+      <c r="B27" s="13"/>
+      <c r="C27" s="21"/>
+      <c r="D27" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="E27" s="25">
+        <v>45624</v>
+      </c>
+      <c r="F27" s="13"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="13"/>
       <c r="I27" s="14"/>
     </row>
-    <row r="28" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="15"/>
-      <c r="B28" s="16"/>
-      <c r="C28" s="17"/>
-      <c r="D28" s="16"/>
-      <c r="E28" s="16"/>
-      <c r="F28" s="16"/>
-      <c r="G28" s="16"/>
-      <c r="H28" s="16"/>
-      <c r="I28" s="18"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A29" s="7"/>
-      <c r="B29" s="8"/>
-      <c r="C29" s="9">
-        <v>10</v>
-      </c>
-      <c r="D29" s="8"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="8"/>
-      <c r="G29" s="8"/>
-      <c r="H29" s="8"/>
-      <c r="I29" s="10"/>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A28" s="7"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="19">
+        <v>14</v>
+      </c>
+      <c r="D28" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="E28" s="23">
+        <v>45629</v>
+      </c>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="9"/>
+    </row>
+    <row r="29" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="12"/>
+      <c r="B29" s="13"/>
+      <c r="C29" s="21"/>
+      <c r="D29" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="E29" s="25">
+        <v>45631</v>
+      </c>
+      <c r="F29" s="13"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="13"/>
+      <c r="I29" s="14"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A30" s="11"/>
-      <c r="B30" s="12"/>
-      <c r="C30" s="13"/>
-      <c r="D30" s="12"/>
-      <c r="E30" s="12"/>
-      <c r="F30" s="12"/>
-      <c r="G30" s="12"/>
-      <c r="H30" s="12"/>
-      <c r="I30" s="14"/>
+      <c r="A30" s="7"/>
+      <c r="B30" s="8"/>
+      <c r="C30" s="19">
+        <v>15</v>
+      </c>
+      <c r="D30" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="E30" s="23">
+        <v>45636</v>
+      </c>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="8"/>
+      <c r="I30" s="9"/>
     </row>
     <row r="31" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="15"/>
-      <c r="B31" s="16"/>
-      <c r="C31" s="17"/>
-      <c r="D31" s="16"/>
-      <c r="E31" s="16"/>
-      <c r="F31" s="16"/>
-      <c r="G31" s="16"/>
-      <c r="H31" s="16"/>
-      <c r="I31" s="18"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A32" s="7"/>
-      <c r="B32" s="8"/>
-      <c r="C32" s="9">
-        <v>11</v>
-      </c>
-      <c r="D32" s="8"/>
-      <c r="E32" s="8"/>
-      <c r="F32" s="8"/>
-      <c r="G32" s="8"/>
-      <c r="H32" s="8"/>
-      <c r="I32" s="10"/>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A33" s="11"/>
-      <c r="B33" s="12"/>
-      <c r="C33" s="13"/>
-      <c r="D33" s="12"/>
-      <c r="E33" s="12"/>
-      <c r="F33" s="12"/>
-      <c r="G33" s="12"/>
-      <c r="H33" s="12"/>
-      <c r="I33" s="14"/>
-    </row>
-    <row r="34" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="15"/>
-      <c r="B34" s="16"/>
-      <c r="C34" s="17"/>
-      <c r="D34" s="16"/>
-      <c r="E34" s="16"/>
-      <c r="F34" s="16"/>
-      <c r="G34" s="16"/>
-      <c r="H34" s="16"/>
-      <c r="I34" s="18"/>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A35" s="7"/>
-      <c r="B35" s="8"/>
-      <c r="C35" s="9">
-        <v>12</v>
-      </c>
-      <c r="D35" s="8"/>
-      <c r="E35" s="8"/>
-      <c r="F35" s="8"/>
-      <c r="G35" s="8"/>
-      <c r="H35" s="8"/>
-      <c r="I35" s="10"/>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A36" s="11"/>
-      <c r="B36" s="12"/>
-      <c r="C36" s="13"/>
-      <c r="D36" s="12"/>
-      <c r="E36" s="12"/>
-      <c r="F36" s="12"/>
-      <c r="G36" s="12"/>
-      <c r="H36" s="12"/>
-      <c r="I36" s="14"/>
-    </row>
-    <row r="37" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="15"/>
-      <c r="B37" s="16"/>
-      <c r="C37" s="17"/>
-      <c r="D37" s="16"/>
-      <c r="E37" s="16"/>
-      <c r="F37" s="16"/>
-      <c r="G37" s="16"/>
-      <c r="H37" s="16"/>
-      <c r="I37" s="18"/>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A38" s="7"/>
-      <c r="B38" s="8"/>
-      <c r="C38" s="9">
-        <v>13</v>
-      </c>
-      <c r="D38" s="8"/>
-      <c r="E38" s="8"/>
-      <c r="F38" s="8"/>
-      <c r="G38" s="8"/>
-      <c r="H38" s="8"/>
-      <c r="I38" s="10"/>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A39" s="11"/>
-      <c r="B39" s="12"/>
-      <c r="C39" s="13"/>
-      <c r="D39" s="12"/>
-      <c r="E39" s="12"/>
-      <c r="F39" s="12"/>
-      <c r="G39" s="12"/>
-      <c r="H39" s="12"/>
-      <c r="I39" s="14"/>
-    </row>
-    <row r="40" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="15"/>
-      <c r="B40" s="16"/>
-      <c r="C40" s="17"/>
-      <c r="D40" s="16"/>
-      <c r="E40" s="16"/>
-      <c r="F40" s="16"/>
-      <c r="G40" s="16"/>
-      <c r="H40" s="16"/>
-      <c r="I40" s="18"/>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A41" s="7"/>
-      <c r="B41" s="8"/>
-      <c r="C41" s="9">
-        <v>14</v>
-      </c>
-      <c r="D41" s="8"/>
-      <c r="E41" s="8"/>
-      <c r="F41" s="8"/>
-      <c r="G41" s="8"/>
-      <c r="H41" s="8"/>
-      <c r="I41" s="10"/>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A42" s="11"/>
-      <c r="B42" s="12"/>
-      <c r="C42" s="13"/>
-      <c r="D42" s="12"/>
-      <c r="E42" s="12"/>
-      <c r="F42" s="12"/>
-      <c r="G42" s="12"/>
-      <c r="H42" s="12"/>
-      <c r="I42" s="14"/>
-    </row>
-    <row r="43" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="15"/>
-      <c r="B43" s="16"/>
-      <c r="C43" s="17"/>
-      <c r="D43" s="16"/>
-      <c r="E43" s="16"/>
-      <c r="F43" s="16"/>
-      <c r="G43" s="16"/>
-      <c r="H43" s="16"/>
-      <c r="I43" s="18"/>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A44" s="7"/>
-      <c r="B44" s="8"/>
-      <c r="C44" s="9">
-        <v>15</v>
-      </c>
-      <c r="D44" s="8"/>
-      <c r="E44" s="8"/>
-      <c r="F44" s="8"/>
-      <c r="G44" s="8"/>
-      <c r="H44" s="8"/>
-      <c r="I44" s="10"/>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A45" s="11"/>
-      <c r="B45" s="12"/>
-      <c r="C45" s="13"/>
-      <c r="D45" s="12"/>
-      <c r="E45" s="12"/>
-      <c r="F45" s="12"/>
-      <c r="G45" s="12"/>
-      <c r="H45" s="12"/>
-      <c r="I45" s="14"/>
-    </row>
-    <row r="46" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="15"/>
-      <c r="B46" s="16"/>
-      <c r="C46" s="17"/>
-      <c r="D46" s="16"/>
-      <c r="E46" s="16"/>
-      <c r="F46" s="16"/>
-      <c r="G46" s="16"/>
-      <c r="H46" s="16"/>
-      <c r="I46" s="18"/>
+      <c r="A31" s="12"/>
+      <c r="B31" s="13"/>
+      <c r="C31" s="21"/>
+      <c r="D31" s="30"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="13"/>
+      <c r="H31" s="13"/>
+      <c r="I31" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="C38:C40"/>
-    <mergeCell ref="C41:C43"/>
-    <mergeCell ref="C44:C46"/>
-    <mergeCell ref="C20:C22"/>
-    <mergeCell ref="C23:C25"/>
-    <mergeCell ref="C26:C28"/>
-    <mergeCell ref="C29:C31"/>
-    <mergeCell ref="C32:C34"/>
-    <mergeCell ref="C35:C37"/>
-    <mergeCell ref="C2:C4"/>
-    <mergeCell ref="C5:C7"/>
-    <mergeCell ref="C8:C10"/>
-    <mergeCell ref="C11:C13"/>
-    <mergeCell ref="C14:C16"/>
-    <mergeCell ref="C17:C19"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="C24:C25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/assets/sched.xlsx
+++ b/assets/sched.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10714"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abmosca/Documents/Documents/Smith/F24/SDS-CS109/assets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amosca/Documents/teaching/SDS-CS109/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BA341EA-E8FA-AC47-9114-EFFE6B5176D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33C2A16C-9EF4-244C-9DC5-66FF3FE4DCCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10840" yWindow="760" windowWidth="30900" windowHeight="21680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sched" sheetId="2" r:id="rId1"/>
@@ -24,7 +24,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -33,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="48">
   <si>
     <t>Date</t>
   </si>
@@ -93,6 +92,90 @@
   </si>
   <si>
     <t xml:space="preserve">italic </t>
+  </si>
+  <si>
+    <t>NO CLASS - CROMWELL DAY</t>
+  </si>
+  <si>
+    <t>NO CLASS - THANKSGIVING RECESS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pumpkin Vis Release Day </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Georgia Lupi - Dear Data </t>
+  </si>
+  <si>
+    <t>Introduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Visualization Fundamentals </t>
+  </si>
+  <si>
+    <t>Basic Charts and Lab</t>
+  </si>
+  <si>
+    <t>MOUNTAIN DAY?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Perception and Color </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Visualizing Multiple Variables </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Storytelling with Visualization and Lab </t>
+  </si>
+  <si>
+    <t>Ethical and Deceptive Visualization</t>
+  </si>
+  <si>
+    <t>Interactive Visualization and Lab</t>
+  </si>
+  <si>
+    <t>Geographic Data and Lab</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adding Detail and Context and Lab </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Text as Data and Lab </t>
+  </si>
+  <si>
+    <t>FP Workshop - Personas and Paper Prototyping</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Final Project Demonstrations </t>
+  </si>
+  <si>
+    <t>FP Workshop - Getting off the Ground</t>
+  </si>
+  <si>
+    <t>FP Workshop - Peer Feedback</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Getting Started with Tableau </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data Feminism </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reading Visualizations </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pumpkin Vis Final Session </t>
+  </si>
+  <si>
+    <t>AB AT VIS2024 - Pumpkin Vis Ideation</t>
+  </si>
+  <si>
+    <t>Pumpkin Vis Finalization</t>
+  </si>
+  <si>
+    <t>Pumpkin Vis Construction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Considering Context- W.E.B. Dubois, Persuasive Vis </t>
   </si>
 </sst>
 </file>
@@ -146,7 +229,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -157,6 +240,24 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF1155CC"/>
         <bgColor rgb="FF1155CC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -252,7 +353,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -278,16 +379,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -309,7 +400,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="3" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -527,15 +648,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E37E44A5-0A5F-414A-B4D4-809AE35C85CF}">
   <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="3" max="3" width="7.33203125" style="6" customWidth="1"/>
-    <col min="4" max="4" width="4.1640625" style="31" customWidth="1"/>
-    <col min="6" max="6" width="26.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.1640625" style="27" customWidth="1"/>
+    <col min="6" max="6" width="40.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
@@ -548,7 +669,7 @@
       <c r="C1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="D1" s="22" t="s">
         <v>4</v>
       </c>
       <c r="E1" s="1" t="s">
@@ -574,16 +695,18 @@
       <c r="B2" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="19">
+      <c r="C2" s="28">
         <v>1</v>
       </c>
-      <c r="D2" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" s="23">
+      <c r="D2" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="19">
         <v>45538</v>
       </c>
-      <c r="F2" s="8"/>
+      <c r="F2" s="17" t="s">
+        <v>24</v>
+      </c>
       <c r="G2" s="8"/>
       <c r="H2" s="8"/>
       <c r="I2" s="9"/>
@@ -595,12 +718,15 @@
       <c r="B3" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="20"/>
-      <c r="D3" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" s="24">
+      <c r="C3" s="29"/>
+      <c r="D3" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="20">
         <v>45540</v>
+      </c>
+      <c r="F3" s="18" t="s">
+        <v>41</v>
       </c>
       <c r="I3" s="11"/>
     </row>
@@ -609,31 +735,36 @@
       <c r="B4" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="19">
+      <c r="C4" s="28">
         <v>2</v>
       </c>
-      <c r="D4" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="23">
+      <c r="D4" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="19">
         <v>45545</v>
       </c>
-      <c r="F4" s="8"/>
+      <c r="F4" s="17" t="s">
+        <v>42</v>
+      </c>
       <c r="G4" s="8"/>
       <c r="H4" s="8"/>
       <c r="I4" s="9"/>
     </row>
     <row r="5" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A5" s="10"/>
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="20"/>
-      <c r="D5" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" s="24">
+      <c r="C5" s="29"/>
+      <c r="D5" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="20">
         <v>45547</v>
+      </c>
+      <c r="F5" s="46" t="s">
+        <v>25</v>
       </c>
       <c r="I5" s="11"/>
     </row>
@@ -642,112 +773,132 @@
       <c r="B6" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="19">
+      <c r="C6" s="28">
         <v>3</v>
       </c>
-      <c r="D6" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" s="23">
+      <c r="D6" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="19">
         <v>45551</v>
       </c>
-      <c r="F6" s="8"/>
+      <c r="F6" s="17" t="s">
+        <v>40</v>
+      </c>
       <c r="G6" s="8"/>
       <c r="H6" s="8"/>
       <c r="I6" s="9"/>
     </row>
     <row r="7" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="10"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" s="24">
+      <c r="C7" s="29"/>
+      <c r="D7" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="20">
         <v>45554</v>
+      </c>
+      <c r="F7" s="46" t="s">
+        <v>26</v>
       </c>
       <c r="I7" s="11"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8" s="7"/>
       <c r="B8" s="8"/>
-      <c r="C8" s="19">
+      <c r="C8" s="28">
         <v>4</v>
       </c>
-      <c r="D8" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" s="23">
+      <c r="D8" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="19">
         <v>45559</v>
       </c>
-      <c r="F8" s="8"/>
+      <c r="F8" s="17" t="s">
+        <v>28</v>
+      </c>
       <c r="G8" s="8"/>
       <c r="H8" s="8"/>
       <c r="I8" s="9"/>
     </row>
     <row r="9" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A9" s="10"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="E9" s="24">
+      <c r="C9" s="29"/>
+      <c r="D9" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" s="20">
         <v>45561</v>
+      </c>
+      <c r="F9" s="46" t="s">
+        <v>29</v>
       </c>
       <c r="I9" s="11"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A10" s="7"/>
       <c r="B10" s="8"/>
-      <c r="C10" s="19">
+      <c r="C10" s="28">
         <v>5</v>
       </c>
-      <c r="D10" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="E10" s="23">
+      <c r="D10" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="34">
         <v>45566</v>
       </c>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="9"/>
+      <c r="F10" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="G10" s="36"/>
+      <c r="H10" s="36"/>
+      <c r="I10" s="37"/>
     </row>
     <row r="11" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A11" s="10"/>
-      <c r="C11" s="20"/>
-      <c r="D11" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="E11" s="24">
+      <c r="C11" s="29"/>
+      <c r="D11" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" s="20">
         <v>45294</v>
+      </c>
+      <c r="F11" s="46" t="s">
+        <v>30</v>
       </c>
       <c r="I11" s="11"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A12" s="7"/>
       <c r="B12" s="8"/>
-      <c r="C12" s="19">
+      <c r="C12" s="28">
         <v>6</v>
       </c>
-      <c r="D12" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="E12" s="23">
+      <c r="D12" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" s="19">
         <v>45573</v>
       </c>
-      <c r="F12" s="8"/>
+      <c r="F12" s="17" t="s">
+        <v>31</v>
+      </c>
       <c r="G12" s="8"/>
       <c r="H12" s="8"/>
       <c r="I12" s="9"/>
     </row>
     <row r="13" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A13" s="10"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="E13" s="24">
+      <c r="C13" s="29"/>
+      <c r="D13" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" s="20">
         <v>45575</v>
+      </c>
+      <c r="F13" s="18" t="s">
+        <v>23</v>
       </c>
       <c r="I13" s="11"/>
     </row>
@@ -758,74 +909,84 @@
       <c r="B14" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="19">
+      <c r="C14" s="28">
         <v>7</v>
       </c>
-      <c r="D14" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="E14" s="23">
+      <c r="D14" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" s="34">
         <v>45580</v>
       </c>
-      <c r="F14" s="32" t="s">
+      <c r="F14" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="9"/>
+      <c r="G14" s="36"/>
+      <c r="H14" s="36"/>
+      <c r="I14" s="37"/>
     </row>
     <row r="15" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A15" s="10"/>
-      <c r="C15" s="20"/>
-      <c r="D15" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="E15" s="24">
+      <c r="C15" s="29"/>
+      <c r="D15" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15" s="20">
         <v>45582</v>
+      </c>
+      <c r="F15" s="43" t="s">
+        <v>44</v>
       </c>
       <c r="I15" s="11"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A16" s="7"/>
       <c r="B16" s="8"/>
-      <c r="C16" s="19">
+      <c r="C16" s="28">
         <v>8</v>
       </c>
-      <c r="D16" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="E16" s="23">
+      <c r="D16" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="E16" s="19">
         <v>45587</v>
       </c>
-      <c r="F16" s="8"/>
+      <c r="F16" s="45" t="s">
+        <v>45</v>
+      </c>
       <c r="G16" s="8"/>
       <c r="H16" s="8"/>
       <c r="I16" s="9"/>
     </row>
     <row r="17" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A17" s="10"/>
-      <c r="C17" s="20"/>
-      <c r="D17" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="E17" s="24">
+      <c r="C17" s="29"/>
+      <c r="D17" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="E17" s="20">
         <v>45589</v>
+      </c>
+      <c r="F17" s="43" t="s">
+        <v>46</v>
       </c>
       <c r="I17" s="11"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A18" s="7"/>
       <c r="B18" s="8"/>
-      <c r="C18" s="19">
+      <c r="C18" s="28">
         <v>9</v>
       </c>
-      <c r="D18" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="E18" s="23">
+      <c r="D18" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="E18" s="19">
         <v>45594</v>
       </c>
-      <c r="F18" s="8"/>
+      <c r="F18" s="45" t="s">
+        <v>43</v>
+      </c>
       <c r="G18" s="8"/>
       <c r="H18" s="8"/>
       <c r="I18" s="9"/>
@@ -833,14 +994,16 @@
     <row r="19" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A19" s="12"/>
       <c r="B19" s="13"/>
-      <c r="C19" s="21"/>
-      <c r="D19" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="E19" s="25">
+      <c r="C19" s="30"/>
+      <c r="D19" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="E19" s="21">
         <v>45596</v>
       </c>
-      <c r="F19" s="13"/>
+      <c r="F19" s="44" t="s">
+        <v>22</v>
+      </c>
       <c r="G19" s="13"/>
       <c r="H19" s="13"/>
       <c r="I19" s="14"/>
@@ -848,16 +1011,18 @@
     <row r="20" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A20" s="7"/>
       <c r="B20" s="8"/>
-      <c r="C20" s="19">
+      <c r="C20" s="28">
         <v>10</v>
       </c>
-      <c r="D20" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="E20" s="23">
+      <c r="D20" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="E20" s="19">
         <v>45601</v>
       </c>
-      <c r="F20" s="8"/>
+      <c r="F20" s="17" t="s">
+        <v>47</v>
+      </c>
       <c r="G20" s="8"/>
       <c r="H20" s="8"/>
       <c r="I20" s="9"/>
@@ -865,46 +1030,56 @@
     <row r="21" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A21" s="12"/>
       <c r="B21" s="13"/>
-      <c r="C21" s="21"/>
-      <c r="D21" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="E21" s="25">
+      <c r="C21" s="30"/>
+      <c r="D21" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="E21" s="21">
         <v>45603</v>
       </c>
-      <c r="F21" s="13"/>
+      <c r="F21" s="31" t="s">
+        <v>32</v>
+      </c>
       <c r="G21" s="13"/>
       <c r="H21" s="13"/>
       <c r="I21" s="14"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A22" s="7"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="19">
+      <c r="A22" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" s="28">
         <v>11</v>
       </c>
-      <c r="D22" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="E22" s="23">
+      <c r="D22" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="E22" s="34">
         <v>45608</v>
       </c>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="9"/>
+      <c r="F22" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="G22" s="36"/>
+      <c r="H22" s="36"/>
+      <c r="I22" s="37"/>
     </row>
     <row r="23" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A23" s="12"/>
       <c r="B23" s="13"/>
-      <c r="C23" s="21"/>
-      <c r="D23" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="E23" s="25">
+      <c r="C23" s="30"/>
+      <c r="D23" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="E23" s="21">
         <v>45610</v>
       </c>
-      <c r="F23" s="13"/>
+      <c r="F23" s="31" t="s">
+        <v>33</v>
+      </c>
       <c r="G23" s="13"/>
       <c r="H23" s="13"/>
       <c r="I23" s="14"/>
@@ -912,16 +1087,18 @@
     <row r="24" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A24" s="7"/>
       <c r="B24" s="8"/>
-      <c r="C24" s="19">
+      <c r="C24" s="28">
         <v>12</v>
       </c>
-      <c r="D24" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="E24" s="23">
+      <c r="D24" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="E24" s="19">
         <v>45615</v>
       </c>
-      <c r="F24" s="8"/>
+      <c r="F24" s="17" t="s">
+        <v>34</v>
+      </c>
       <c r="G24" s="8"/>
       <c r="H24" s="8"/>
       <c r="I24" s="9"/>
@@ -929,14 +1106,16 @@
     <row r="25" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A25" s="12"/>
       <c r="B25" s="13"/>
-      <c r="C25" s="21"/>
-      <c r="D25" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="E25" s="25">
+      <c r="C25" s="30"/>
+      <c r="D25" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="E25" s="21">
         <v>45617</v>
       </c>
-      <c r="F25" s="13"/>
+      <c r="F25" s="31" t="s">
+        <v>35</v>
+      </c>
       <c r="G25" s="13"/>
       <c r="H25" s="13"/>
       <c r="I25" s="14"/>
@@ -944,48 +1123,58 @@
     <row r="26" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A26" s="7"/>
       <c r="B26" s="8"/>
-      <c r="C26" s="19">
+      <c r="C26" s="28">
         <v>13</v>
       </c>
-      <c r="D26" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="E26" s="23">
+      <c r="D26" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="E26" s="19">
         <v>45622</v>
       </c>
-      <c r="F26" s="8"/>
+      <c r="F26" s="47" t="s">
+        <v>36</v>
+      </c>
       <c r="G26" s="8"/>
       <c r="H26" s="8"/>
       <c r="I26" s="9"/>
     </row>
     <row r="27" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="12"/>
-      <c r="B27" s="13"/>
-      <c r="C27" s="21"/>
-      <c r="D27" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="E27" s="25">
+      <c r="A27" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="B27" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" s="30"/>
+      <c r="D27" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="E27" s="39">
         <v>45624</v>
       </c>
-      <c r="F27" s="13"/>
-      <c r="G27" s="13"/>
-      <c r="H27" s="13"/>
-      <c r="I27" s="14"/>
+      <c r="F27" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="G27" s="41"/>
+      <c r="H27" s="41"/>
+      <c r="I27" s="42"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A28" s="7"/>
       <c r="B28" s="8"/>
-      <c r="C28" s="19">
+      <c r="C28" s="28">
         <v>14</v>
       </c>
-      <c r="D28" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="E28" s="23">
+      <c r="D28" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="E28" s="19">
         <v>45629</v>
       </c>
-      <c r="F28" s="8"/>
+      <c r="F28" s="47" t="s">
+        <v>38</v>
+      </c>
       <c r="G28" s="8"/>
       <c r="H28" s="8"/>
       <c r="I28" s="9"/>
@@ -993,14 +1182,16 @@
     <row r="29" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A29" s="12"/>
       <c r="B29" s="13"/>
-      <c r="C29" s="21"/>
-      <c r="D29" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="E29" s="25">
+      <c r="C29" s="30"/>
+      <c r="D29" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="E29" s="21">
         <v>45631</v>
       </c>
-      <c r="F29" s="13"/>
+      <c r="F29" s="48" t="s">
+        <v>39</v>
+      </c>
       <c r="G29" s="13"/>
       <c r="H29" s="13"/>
       <c r="I29" s="14"/>
@@ -1008,16 +1199,18 @@
     <row r="30" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A30" s="7"/>
       <c r="B30" s="8"/>
-      <c r="C30" s="19">
+      <c r="C30" s="28">
         <v>15</v>
       </c>
-      <c r="D30" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="E30" s="23">
+      <c r="D30" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="E30" s="19">
         <v>45636</v>
       </c>
-      <c r="F30" s="8"/>
+      <c r="F30" s="47" t="s">
+        <v>37</v>
+      </c>
       <c r="G30" s="8"/>
       <c r="H30" s="8"/>
       <c r="I30" s="9"/>
@@ -1025,8 +1218,8 @@
     <row r="31" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A31" s="12"/>
       <c r="B31" s="13"/>
-      <c r="C31" s="21"/>
-      <c r="D31" s="30"/>
+      <c r="C31" s="30"/>
+      <c r="D31" s="26"/>
       <c r="E31" s="13"/>
       <c r="F31" s="13"/>
       <c r="G31" s="13"/>
@@ -1035,12 +1228,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="C10:C11"/>
     <mergeCell ref="C26:C27"/>
     <mergeCell ref="C28:C29"/>
     <mergeCell ref="C30:C31"/>
@@ -1050,6 +1237,12 @@
     <mergeCell ref="C20:C21"/>
     <mergeCell ref="C22:C23"/>
     <mergeCell ref="C24:C25"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="C10:C11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/assets/sched.xlsx
+++ b/assets/sched.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amosca/Documents/teaching/SDS-CS109/assets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abmosca/Documents/Documents/Smith/teaching/F24/SDS-CS109/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33C2A16C-9EF4-244C-9DC5-66FF3FE4DCCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4B6CC02-E8D9-C44E-AE19-4D0EA657C2ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10840" yWindow="760" windowWidth="30900" windowHeight="21680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="31240" yWindow="500" windowWidth="27140" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sched" sheetId="2" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="53">
   <si>
     <t>Date</t>
   </si>
@@ -40,9 +40,6 @@
     <t>Topic</t>
   </si>
   <si>
-    <t>Reading</t>
-  </si>
-  <si>
     <t xml:space="preserve">proj </t>
   </si>
   <si>
@@ -70,15 +67,6 @@
     <t>presy</t>
   </si>
   <si>
-    <t>inClass</t>
-  </si>
-  <si>
-    <t>speaker</t>
-  </si>
-  <si>
-    <t>exam</t>
-  </si>
-  <si>
     <t>Week</t>
   </si>
   <si>
@@ -100,9 +88,6 @@
     <t>NO CLASS - THANKSGIVING RECESS</t>
   </si>
   <si>
-    <t xml:space="preserve">Pumpkin Vis Release Day </t>
-  </si>
-  <si>
     <t xml:space="preserve">Georgia Lupi - Dear Data </t>
   </si>
   <si>
@@ -163,19 +148,49 @@
     <t xml:space="preserve">Reading Visualizations </t>
   </si>
   <si>
-    <t xml:space="preserve">Pumpkin Vis Final Session </t>
-  </si>
-  <si>
-    <t>AB AT VIS2024 - Pumpkin Vis Ideation</t>
-  </si>
-  <si>
-    <t>Pumpkin Vis Finalization</t>
-  </si>
-  <si>
-    <t>Pumpkin Vis Construction</t>
-  </si>
-  <si>
     <t xml:space="preserve">Considering Context- W.E.B. Dubois, Persuasive Vis </t>
+  </si>
+  <si>
+    <t>AB AT VIS2024 - Mid-Semester Project Ideation</t>
+  </si>
+  <si>
+    <t>Mid-Semester Project Finalization</t>
+  </si>
+  <si>
+    <t>Mid-Semester Project Construction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mid-Semester Project Final Session </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mid-Semester Project Release Day </t>
+  </si>
+  <si>
+    <t>hw01</t>
+  </si>
+  <si>
+    <t>hw02</t>
+  </si>
+  <si>
+    <t>hw03</t>
+  </si>
+  <si>
+    <t>hw04</t>
+  </si>
+  <si>
+    <t>fp03</t>
+  </si>
+  <si>
+    <t>fp02</t>
+  </si>
+  <si>
+    <t>fp01</t>
+  </si>
+  <si>
+    <t>mp01</t>
+  </si>
+  <si>
+    <t>mp02</t>
   </si>
 </sst>
 </file>
@@ -353,7 +368,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -400,15 +415,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -428,9 +434,22 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -649,7 +668,7 @@
   <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -659,18 +678,18 @@
     <col min="6" max="6" width="40.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>6</v>
-      </c>
       <c r="C1" s="5" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D1" s="22" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>0</v>
@@ -679,555 +698,593 @@
         <v>1</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A2" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="28">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A2" s="15"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="45">
         <v>1</v>
       </c>
       <c r="D2" s="23" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E2" s="19">
         <v>45538</v>
       </c>
       <c r="F2" s="17" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="9"/>
-    </row>
-    <row r="3" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="29"/>
+      <c r="H2" s="9"/>
+    </row>
+    <row r="3" spans="1:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="16"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="47"/>
       <c r="D3" s="24" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E3" s="20">
         <v>45540</v>
       </c>
       <c r="F3" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="I3" s="11"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+        <v>36</v>
+      </c>
+      <c r="H3" s="11"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="7"/>
-      <c r="B4" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="28">
+      <c r="B4" s="17"/>
+      <c r="C4" s="45">
         <v>2</v>
       </c>
       <c r="D4" s="23" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E4" s="19">
         <v>45545</v>
       </c>
       <c r="F4" s="17" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="9"/>
-    </row>
-    <row r="5" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="H4" s="9"/>
+    </row>
+    <row r="5" spans="1:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A5" s="10"/>
-      <c r="B5" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="29"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="47"/>
       <c r="D5" s="24" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E5" s="20">
         <v>45547</v>
       </c>
-      <c r="F5" s="46" t="s">
-        <v>25</v>
-      </c>
-      <c r="I5" s="11"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="F5" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="H5" s="11"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="7"/>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="17"/>
+      <c r="C6" s="45">
         <v>3</v>
       </c>
-      <c r="C6" s="28">
-        <v>3</v>
-      </c>
       <c r="D6" s="23" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E6" s="19">
         <v>45551</v>
       </c>
       <c r="F6" s="17" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="9"/>
-    </row>
-    <row r="7" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="H6" s="9"/>
+    </row>
+    <row r="7" spans="1:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="10"/>
-      <c r="C7" s="29"/>
+      <c r="C7" s="47"/>
       <c r="D7" s="24" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E7" s="20">
         <v>45554</v>
       </c>
-      <c r="F7" s="46" t="s">
-        <v>26</v>
-      </c>
-      <c r="I7" s="11"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="F7" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" s="52" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" s="7"/>
       <c r="B8" s="8"/>
-      <c r="C8" s="28">
+      <c r="C8" s="45">
         <v>4</v>
       </c>
       <c r="D8" s="23" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E8" s="19">
         <v>45559</v>
       </c>
       <c r="F8" s="17" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="9"/>
-    </row>
-    <row r="9" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="H8" s="9"/>
+    </row>
+    <row r="9" spans="1:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A9" s="10"/>
-      <c r="C9" s="29"/>
+      <c r="C9" s="47"/>
       <c r="D9" s="24" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E9" s="20">
         <v>45561</v>
       </c>
-      <c r="F9" s="46" t="s">
-        <v>29</v>
-      </c>
-      <c r="I9" s="11"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A10" s="7"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="28">
+      <c r="F9" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="G9" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" s="52" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A10" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="45">
         <v>5</v>
       </c>
-      <c r="D10" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="E10" s="34">
+      <c r="D10" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="31">
         <v>45566</v>
       </c>
-      <c r="F10" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="G10" s="36"/>
-      <c r="H10" s="36"/>
-      <c r="I10" s="37"/>
-    </row>
-    <row r="11" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="F10" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="G10" s="33"/>
+      <c r="H10" s="34"/>
+    </row>
+    <row r="11" spans="1:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A11" s="10"/>
-      <c r="C11" s="29"/>
+      <c r="C11" s="47"/>
       <c r="D11" s="24" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E11" s="20">
         <v>45294</v>
       </c>
-      <c r="F11" s="46" t="s">
-        <v>30</v>
-      </c>
-      <c r="I11" s="11"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="F11" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="G11" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="H11" s="52" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" s="7"/>
       <c r="B12" s="8"/>
-      <c r="C12" s="28">
+      <c r="C12" s="45">
         <v>6</v>
       </c>
       <c r="D12" s="23" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E12" s="19">
         <v>45573</v>
       </c>
       <c r="F12" s="17" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="9"/>
-    </row>
-    <row r="13" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="H12" s="9"/>
+    </row>
+    <row r="13" spans="1:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A13" s="10"/>
-      <c r="C13" s="29"/>
+      <c r="C13" s="47"/>
       <c r="D13" s="24" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E13" s="20">
         <v>45575</v>
       </c>
       <c r="F13" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="I13" s="11"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
+        <v>18</v>
+      </c>
+      <c r="G13" s="18"/>
+      <c r="H13" s="52" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" s="15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="C14" s="28">
+        <v>15</v>
+      </c>
+      <c r="C14" s="45">
         <v>7</v>
       </c>
-      <c r="D14" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="E14" s="34">
+      <c r="D14" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="31">
         <v>45580</v>
       </c>
-      <c r="F14" s="35" t="s">
-        <v>18</v>
-      </c>
-      <c r="G14" s="36"/>
-      <c r="H14" s="36"/>
-      <c r="I14" s="37"/>
-    </row>
-    <row r="15" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="F14" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="G14" s="33"/>
+      <c r="H14" s="34"/>
+    </row>
+    <row r="15" spans="1:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A15" s="10"/>
-      <c r="C15" s="29"/>
+      <c r="B15" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15" s="47"/>
       <c r="D15" s="24" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E15" s="20">
         <v>45582</v>
       </c>
-      <c r="F15" s="43" t="s">
-        <v>44</v>
-      </c>
-      <c r="I15" s="11"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="F15" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="G15" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="H15" s="11"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16" s="7"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="28">
+      <c r="B16" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="C16" s="45">
         <v>8</v>
       </c>
       <c r="D16" s="23" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E16" s="19">
         <v>45587</v>
       </c>
-      <c r="F16" s="45" t="s">
-        <v>45</v>
+      <c r="F16" s="42" t="s">
+        <v>40</v>
       </c>
       <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="9"/>
+      <c r="H16" s="9"/>
     </row>
     <row r="17" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A17" s="10"/>
-      <c r="C17" s="29"/>
+      <c r="B17" s="48" t="s">
+        <v>2</v>
+      </c>
+      <c r="C17" s="47"/>
       <c r="D17" s="24" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E17" s="20">
         <v>45589</v>
       </c>
-      <c r="F17" s="43" t="s">
-        <v>46</v>
-      </c>
-      <c r="I17" s="11"/>
+      <c r="F17" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="G17" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="H17" s="52" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A18" s="7"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="28">
+      <c r="B18" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="C18" s="45">
         <v>9</v>
       </c>
       <c r="D18" s="23" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E18" s="19">
         <v>45594</v>
       </c>
-      <c r="F18" s="45" t="s">
-        <v>43</v>
+      <c r="F18" s="42" t="s">
+        <v>42</v>
       </c>
       <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="9"/>
+      <c r="H18" s="9"/>
     </row>
     <row r="19" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A19" s="12"/>
-      <c r="B19" s="13"/>
-      <c r="C19" s="30"/>
+      <c r="B19" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="C19" s="46"/>
       <c r="D19" s="25" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E19" s="21">
         <v>45596</v>
       </c>
-      <c r="F19" s="44" t="s">
-        <v>22</v>
+      <c r="F19" s="41" t="s">
+        <v>43</v>
       </c>
       <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="14"/>
+      <c r="H19" s="49" t="s">
+        <v>52</v>
+      </c>
+      <c r="I19" s="10"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A20" s="7"/>
       <c r="B20" s="8"/>
-      <c r="C20" s="28">
+      <c r="C20" s="45">
         <v>10</v>
       </c>
       <c r="D20" s="23" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E20" s="19">
         <v>45601</v>
       </c>
       <c r="F20" s="17" t="s">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="51"/>
     </row>
     <row r="21" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A21" s="12"/>
       <c r="B21" s="13"/>
-      <c r="C21" s="30"/>
+      <c r="C21" s="46"/>
       <c r="D21" s="25" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E21" s="21">
         <v>45603</v>
       </c>
-      <c r="F21" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13"/>
-      <c r="I21" s="14"/>
+      <c r="F21" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="G21" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="H21" s="14"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A22" s="15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B22" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="C22" s="28">
+        <v>6</v>
+      </c>
+      <c r="C22" s="45">
         <v>11</v>
       </c>
-      <c r="D22" s="33" t="s">
+      <c r="D22" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="E22" s="31">
+        <v>45608</v>
+      </c>
+      <c r="F22" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="E22" s="34">
-        <v>45608</v>
-      </c>
-      <c r="F22" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="G22" s="36"/>
-      <c r="H22" s="36"/>
-      <c r="I22" s="37"/>
+      <c r="G22" s="33"/>
+      <c r="H22" s="34"/>
     </row>
     <row r="23" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A23" s="12"/>
       <c r="B23" s="13"/>
-      <c r="C23" s="30"/>
+      <c r="C23" s="46"/>
       <c r="D23" s="25" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E23" s="21">
         <v>45610</v>
       </c>
-      <c r="F23" s="31" t="s">
-        <v>33</v>
-      </c>
-      <c r="G23" s="13"/>
-      <c r="H23" s="13"/>
-      <c r="I23" s="14"/>
+      <c r="F23" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="G23" s="28"/>
+      <c r="H23" s="49" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A24" s="7"/>
       <c r="B24" s="8"/>
-      <c r="C24" s="28">
+      <c r="C24" s="45">
         <v>12</v>
       </c>
       <c r="D24" s="23" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E24" s="19">
         <v>45615</v>
       </c>
       <c r="F24" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="G24" s="8"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="9"/>
+        <v>30</v>
+      </c>
+      <c r="G24" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="H24" s="9"/>
     </row>
     <row r="25" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A25" s="12"/>
       <c r="B25" s="13"/>
-      <c r="C25" s="30"/>
+      <c r="C25" s="46"/>
       <c r="D25" s="25" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E25" s="21">
         <v>45617</v>
       </c>
-      <c r="F25" s="31" t="s">
-        <v>35</v>
-      </c>
-      <c r="G25" s="13"/>
-      <c r="H25" s="13"/>
-      <c r="I25" s="14"/>
+      <c r="F25" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="G25" s="28"/>
+      <c r="H25" s="49"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A26" s="7"/>
-      <c r="B26" s="8"/>
-      <c r="C26" s="28">
+      <c r="B26" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="C26" s="45">
         <v>13</v>
       </c>
       <c r="D26" s="23" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E26" s="19">
         <v>45622</v>
       </c>
-      <c r="F26" s="47" t="s">
-        <v>36</v>
-      </c>
-      <c r="G26" s="8"/>
-      <c r="H26" s="8"/>
-      <c r="I26" s="9"/>
+      <c r="F26" s="43" t="s">
+        <v>31</v>
+      </c>
+      <c r="G26" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="H26" s="50" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="27" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="B27" s="31" t="s">
-        <v>7</v>
-      </c>
-      <c r="C27" s="30"/>
-      <c r="D27" s="38" t="s">
+      <c r="A27" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="B27" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="C27" s="46"/>
+      <c r="D27" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="E27" s="36">
+        <v>45624</v>
+      </c>
+      <c r="F27" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="E27" s="39">
-        <v>45624</v>
-      </c>
-      <c r="F27" s="40" t="s">
-        <v>21</v>
-      </c>
-      <c r="G27" s="41"/>
-      <c r="H27" s="41"/>
-      <c r="I27" s="42"/>
+      <c r="G27" s="38"/>
+      <c r="H27" s="39"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A28" s="7"/>
-      <c r="B28" s="8"/>
-      <c r="C28" s="28">
+      <c r="B28" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="C28" s="45">
         <v>14</v>
       </c>
       <c r="D28" s="23" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E28" s="19">
         <v>45629</v>
       </c>
-      <c r="F28" s="47" t="s">
-        <v>38</v>
-      </c>
-      <c r="G28" s="8"/>
-      <c r="H28" s="8"/>
-      <c r="I28" s="9"/>
+      <c r="F28" s="43" t="s">
+        <v>33</v>
+      </c>
+      <c r="G28" s="17"/>
+      <c r="H28" s="50"/>
     </row>
     <row r="29" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A29" s="12"/>
-      <c r="B29" s="13"/>
-      <c r="C29" s="30"/>
+      <c r="B29" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="C29" s="46"/>
       <c r="D29" s="25" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E29" s="21">
         <v>45631</v>
       </c>
-      <c r="F29" s="48" t="s">
-        <v>39</v>
-      </c>
-      <c r="G29" s="13"/>
-      <c r="H29" s="13"/>
-      <c r="I29" s="14"/>
+      <c r="F29" s="44" t="s">
+        <v>34</v>
+      </c>
+      <c r="G29" s="28"/>
+      <c r="H29" s="14"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A30" s="7"/>
-      <c r="B30" s="8"/>
-      <c r="C30" s="28">
+      <c r="A30" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B30" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="C30" s="45">
         <v>15</v>
       </c>
       <c r="D30" s="23" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E30" s="19">
         <v>45636</v>
       </c>
-      <c r="F30" s="47" t="s">
-        <v>37</v>
+      <c r="F30" s="43" t="s">
+        <v>32</v>
       </c>
       <c r="G30" s="8"/>
-      <c r="H30" s="8"/>
-      <c r="I30" s="9"/>
+      <c r="H30" s="50" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="31" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A31" s="12"/>
       <c r="B31" s="13"/>
-      <c r="C31" s="30"/>
+      <c r="C31" s="46"/>
       <c r="D31" s="26"/>
       <c r="E31" s="13"/>
       <c r="F31" s="13"/>
       <c r="G31" s="13"/>
-      <c r="H31" s="13"/>
-      <c r="I31" s="14"/>
+      <c r="H31" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="C10:C11"/>
     <mergeCell ref="C26:C27"/>
     <mergeCell ref="C28:C29"/>
     <mergeCell ref="C30:C31"/>
@@ -1237,12 +1294,6 @@
     <mergeCell ref="C20:C21"/>
     <mergeCell ref="C22:C23"/>
     <mergeCell ref="C24:C25"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="C10:C11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/assets/sched.xlsx
+++ b/assets/sched.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abmosca/Documents/Documents/Smith/teaching/F24/SDS-CS109/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4B6CC02-E8D9-C44E-AE19-4D0EA657C2ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2370DF3C-0936-1A4D-9C26-1B7A64CC369A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="31240" yWindow="500" windowWidth="27140" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="54">
   <si>
     <t>Date</t>
   </si>
@@ -191,6 +191,9 @@
   </si>
   <si>
     <t>mp02</t>
+  </si>
+  <si>
+    <t>proj italic</t>
   </si>
 </sst>
 </file>
@@ -368,7 +371,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -432,24 +435,23 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -668,7 +670,7 @@
   <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -707,7 +709,7 @@
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="15"/>
       <c r="B2" s="17"/>
-      <c r="C2" s="45">
+      <c r="C2" s="46">
         <v>1</v>
       </c>
       <c r="D2" s="23" t="s">
@@ -740,7 +742,7 @@
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="7"/>
       <c r="B4" s="17"/>
-      <c r="C4" s="45">
+      <c r="C4" s="46">
         <v>2</v>
       </c>
       <c r="D4" s="23" t="s">
@@ -776,7 +778,7 @@
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="7"/>
       <c r="B6" s="17"/>
-      <c r="C6" s="45">
+      <c r="C6" s="46">
         <v>3</v>
       </c>
       <c r="D6" s="23" t="s">
@@ -806,14 +808,14 @@
       <c r="G7" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="H7" s="52" t="s">
+      <c r="H7" s="45" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" s="7"/>
       <c r="B8" s="8"/>
-      <c r="C8" s="45">
+      <c r="C8" s="46">
         <v>4</v>
       </c>
       <c r="D8" s="23" t="s">
@@ -843,7 +845,7 @@
       <c r="G9" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="H9" s="52" t="s">
+      <c r="H9" s="45" t="s">
         <v>45</v>
       </c>
     </row>
@@ -854,7 +856,7 @@
       <c r="B10" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="45">
+      <c r="C10" s="46">
         <v>5</v>
       </c>
       <c r="D10" s="30" t="s">
@@ -884,14 +886,14 @@
       <c r="G11" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="H11" s="52" t="s">
+      <c r="H11" s="45" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" s="7"/>
       <c r="B12" s="8"/>
-      <c r="C12" s="45">
+      <c r="C12" s="46">
         <v>6</v>
       </c>
       <c r="D12" s="23" t="s">
@@ -919,7 +921,7 @@
         <v>18</v>
       </c>
       <c r="G13" s="18"/>
-      <c r="H13" s="52" t="s">
+      <c r="H13" s="45" t="s">
         <v>47</v>
       </c>
     </row>
@@ -930,7 +932,7 @@
       <c r="B14" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="45">
+      <c r="C14" s="46">
         <v>7</v>
       </c>
       <c r="D14" s="30" t="s">
@@ -948,7 +950,7 @@
     <row r="15" spans="1:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A15" s="10"/>
       <c r="B15" s="18" t="s">
-        <v>2</v>
+        <v>53</v>
       </c>
       <c r="C15" s="47"/>
       <c r="D15" s="24" t="s">
@@ -970,7 +972,7 @@
       <c r="B16" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C16" s="45">
+      <c r="C16" s="46">
         <v>8</v>
       </c>
       <c r="D16" s="23" t="s">
@@ -979,7 +981,7 @@
       <c r="E16" s="19">
         <v>45587</v>
       </c>
-      <c r="F16" s="42" t="s">
+      <c r="F16" s="49" t="s">
         <v>40</v>
       </c>
       <c r="G16" s="8"/>
@@ -987,7 +989,7 @@
     </row>
     <row r="17" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A17" s="10"/>
-      <c r="B17" s="48" t="s">
+      <c r="B17" s="18" t="s">
         <v>2</v>
       </c>
       <c r="C17" s="47"/>
@@ -997,13 +999,13 @@
       <c r="E17" s="20">
         <v>45589</v>
       </c>
-      <c r="F17" s="40" t="s">
+      <c r="F17" s="50" t="s">
         <v>41</v>
       </c>
       <c r="G17" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="H17" s="52" t="s">
+      <c r="H17" s="45" t="s">
         <v>51</v>
       </c>
     </row>
@@ -1012,7 +1014,7 @@
       <c r="B18" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C18" s="45">
+      <c r="C18" s="46">
         <v>9</v>
       </c>
       <c r="D18" s="23" t="s">
@@ -1021,7 +1023,7 @@
       <c r="E18" s="19">
         <v>45594</v>
       </c>
-      <c r="F18" s="42" t="s">
+      <c r="F18" s="49" t="s">
         <v>42</v>
       </c>
       <c r="G18" s="8"/>
@@ -1032,18 +1034,18 @@
       <c r="B19" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="C19" s="46"/>
+      <c r="C19" s="48"/>
       <c r="D19" s="25" t="s">
         <v>13</v>
       </c>
       <c r="E19" s="21">
         <v>45596</v>
       </c>
-      <c r="F19" s="41" t="s">
+      <c r="F19" s="51" t="s">
         <v>43</v>
       </c>
       <c r="G19" s="13"/>
-      <c r="H19" s="49" t="s">
+      <c r="H19" s="43" t="s">
         <v>52</v>
       </c>
       <c r="I19" s="10"/>
@@ -1051,7 +1053,7 @@
     <row r="20" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A20" s="7"/>
       <c r="B20" s="8"/>
-      <c r="C20" s="45">
+      <c r="C20" s="46">
         <v>10</v>
       </c>
       <c r="D20" s="23" t="s">
@@ -1065,12 +1067,12 @@
       </c>
       <c r="G20" s="8"/>
       <c r="H20" s="9"/>
-      <c r="I20" s="51"/>
+      <c r="I20" s="18"/>
     </row>
     <row r="21" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A21" s="12"/>
       <c r="B21" s="13"/>
-      <c r="C21" s="46"/>
+      <c r="C21" s="48"/>
       <c r="D21" s="25" t="s">
         <v>13</v>
       </c>
@@ -1092,7 +1094,7 @@
       <c r="B22" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="C22" s="45">
+      <c r="C22" s="46">
         <v>11</v>
       </c>
       <c r="D22" s="30" t="s">
@@ -1110,7 +1112,7 @@
     <row r="23" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A23" s="12"/>
       <c r="B23" s="13"/>
-      <c r="C23" s="46"/>
+      <c r="C23" s="48"/>
       <c r="D23" s="25" t="s">
         <v>13</v>
       </c>
@@ -1121,14 +1123,14 @@
         <v>29</v>
       </c>
       <c r="G23" s="28"/>
-      <c r="H23" s="49" t="s">
+      <c r="H23" s="43" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A24" s="7"/>
       <c r="B24" s="8"/>
-      <c r="C24" s="45">
+      <c r="C24" s="46">
         <v>12</v>
       </c>
       <c r="D24" s="23" t="s">
@@ -1148,7 +1150,7 @@
     <row r="25" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A25" s="12"/>
       <c r="B25" s="13"/>
-      <c r="C25" s="46"/>
+      <c r="C25" s="48"/>
       <c r="D25" s="25" t="s">
         <v>13</v>
       </c>
@@ -1159,14 +1161,14 @@
         <v>38</v>
       </c>
       <c r="G25" s="28"/>
-      <c r="H25" s="49"/>
+      <c r="H25" s="43"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A26" s="7"/>
       <c r="B26" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C26" s="45">
+      <c r="C26" s="46">
         <v>13</v>
       </c>
       <c r="D26" s="23" t="s">
@@ -1175,13 +1177,13 @@
       <c r="E26" s="19">
         <v>45622</v>
       </c>
-      <c r="F26" s="43" t="s">
+      <c r="F26" s="41" t="s">
         <v>31</v>
       </c>
       <c r="G26" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="H26" s="50" t="s">
+      <c r="H26" s="44" t="s">
         <v>49</v>
       </c>
     </row>
@@ -1192,7 +1194,7 @@
       <c r="B27" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="C27" s="46"/>
+      <c r="C27" s="48"/>
       <c r="D27" s="35" t="s">
         <v>13</v>
       </c>
@@ -1210,7 +1212,7 @@
       <c r="B28" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C28" s="45">
+      <c r="C28" s="46">
         <v>14</v>
       </c>
       <c r="D28" s="23" t="s">
@@ -1219,25 +1221,25 @@
       <c r="E28" s="19">
         <v>45629</v>
       </c>
-      <c r="F28" s="43" t="s">
+      <c r="F28" s="41" t="s">
         <v>33</v>
       </c>
       <c r="G28" s="17"/>
-      <c r="H28" s="50"/>
+      <c r="H28" s="44"/>
     </row>
     <row r="29" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A29" s="12"/>
       <c r="B29" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="C29" s="46"/>
+      <c r="C29" s="48"/>
       <c r="D29" s="25" t="s">
         <v>13</v>
       </c>
       <c r="E29" s="21">
         <v>45631</v>
       </c>
-      <c r="F29" s="44" t="s">
+      <c r="F29" s="42" t="s">
         <v>34</v>
       </c>
       <c r="G29" s="28"/>
@@ -1250,7 +1252,7 @@
       <c r="B30" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C30" s="45">
+      <c r="C30" s="46">
         <v>15</v>
       </c>
       <c r="D30" s="23" t="s">
@@ -1259,18 +1261,18 @@
       <c r="E30" s="19">
         <v>45636</v>
       </c>
-      <c r="F30" s="43" t="s">
+      <c r="F30" s="41" t="s">
         <v>32</v>
       </c>
       <c r="G30" s="8"/>
-      <c r="H30" s="50" t="s">
+      <c r="H30" s="44" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A31" s="12"/>
       <c r="B31" s="13"/>
-      <c r="C31" s="46"/>
+      <c r="C31" s="48"/>
       <c r="D31" s="26"/>
       <c r="E31" s="13"/>
       <c r="F31" s="13"/>
@@ -1279,12 +1281,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="C10:C11"/>
     <mergeCell ref="C26:C27"/>
     <mergeCell ref="C28:C29"/>
     <mergeCell ref="C30:C31"/>
@@ -1294,6 +1290,12 @@
     <mergeCell ref="C20:C21"/>
     <mergeCell ref="C22:C23"/>
     <mergeCell ref="C24:C25"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="C10:C11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/assets/sched.xlsx
+++ b/assets/sched.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abmosca/Documents/Documents/Smith/teaching/F24/SDS-CS109/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2370DF3C-0936-1A4D-9C26-1B7A64CC369A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C905CF44-CF90-6947-8E2C-DAACB2B659D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31240" yWindow="500" windowWidth="27140" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sched" sheetId="2" r:id="rId1"/>
@@ -94,9 +94,6 @@
     <t>Introduction</t>
   </si>
   <si>
-    <t xml:space="preserve">Visualization Fundamentals </t>
-  </si>
-  <si>
     <t>Basic Charts and Lab</t>
   </si>
   <si>
@@ -145,9 +142,6 @@
     <t xml:space="preserve">Data Feminism </t>
   </si>
   <si>
-    <t xml:space="preserve">Reading Visualizations </t>
-  </si>
-  <si>
     <t xml:space="preserve">Considering Context- W.E.B. Dubois, Persuasive Vis </t>
   </si>
   <si>
@@ -194,6 +188,12 @@
   </si>
   <si>
     <t>proj italic</t>
+  </si>
+  <si>
+    <t>Visualization Fundamentals pt. 1</t>
+  </si>
+  <si>
+    <t>Visualization Fundamentals pt. 2</t>
   </si>
 </sst>
 </file>
@@ -440,18 +440,18 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -670,7 +670,7 @@
   <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -709,7 +709,7 @@
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="15"/>
       <c r="B2" s="17"/>
-      <c r="C2" s="46">
+      <c r="C2" s="49">
         <v>1</v>
       </c>
       <c r="D2" s="23" t="s">
@@ -727,7 +727,7 @@
     <row r="3" spans="1:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="16"/>
       <c r="B3" s="18"/>
-      <c r="C3" s="47"/>
+      <c r="C3" s="51"/>
       <c r="D3" s="24" t="s">
         <v>13</v>
       </c>
@@ -735,14 +735,14 @@
         <v>45540</v>
       </c>
       <c r="F3" s="18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H3" s="11"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="7"/>
       <c r="B4" s="17"/>
-      <c r="C4" s="46">
+      <c r="C4" s="49">
         <v>2</v>
       </c>
       <c r="D4" s="23" t="s">
@@ -752,7 +752,7 @@
         <v>45545</v>
       </c>
       <c r="F4" s="17" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="G4" s="8"/>
       <c r="H4" s="9"/>
@@ -760,7 +760,7 @@
     <row r="5" spans="1:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A5" s="10"/>
       <c r="B5" s="18"/>
-      <c r="C5" s="47"/>
+      <c r="C5" s="51"/>
       <c r="D5" s="24" t="s">
         <v>13</v>
       </c>
@@ -768,17 +768,17 @@
         <v>45547</v>
       </c>
       <c r="F5" s="18" t="s">
-        <v>20</v>
+        <v>53</v>
       </c>
       <c r="G5" s="18" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H5" s="11"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="7"/>
       <c r="B6" s="17"/>
-      <c r="C6" s="46">
+      <c r="C6" s="49">
         <v>3</v>
       </c>
       <c r="D6" s="23" t="s">
@@ -788,14 +788,14 @@
         <v>45551</v>
       </c>
       <c r="F6" s="17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G6" s="8"/>
       <c r="H6" s="9"/>
     </row>
     <row r="7" spans="1:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="10"/>
-      <c r="C7" s="47"/>
+      <c r="C7" s="51"/>
       <c r="D7" s="24" t="s">
         <v>13</v>
       </c>
@@ -803,19 +803,19 @@
         <v>45554</v>
       </c>
       <c r="F7" s="18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G7" s="18" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H7" s="45" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" s="7"/>
       <c r="B8" s="8"/>
-      <c r="C8" s="46">
+      <c r="C8" s="49">
         <v>4</v>
       </c>
       <c r="D8" s="23" t="s">
@@ -825,14 +825,14 @@
         <v>45559</v>
       </c>
       <c r="F8" s="17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G8" s="8"/>
       <c r="H8" s="9"/>
     </row>
     <row r="9" spans="1:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A9" s="10"/>
-      <c r="C9" s="47"/>
+      <c r="C9" s="51"/>
       <c r="D9" s="24" t="s">
         <v>13</v>
       </c>
@@ -840,13 +840,13 @@
         <v>45561</v>
       </c>
       <c r="F9" s="18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G9" s="18" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H9" s="45" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.15">
@@ -856,7 +856,7 @@
       <c r="B10" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="46">
+      <c r="C10" s="49">
         <v>5</v>
       </c>
       <c r="D10" s="30" t="s">
@@ -866,14 +866,14 @@
         <v>45566</v>
       </c>
       <c r="F10" s="32" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G10" s="33"/>
       <c r="H10" s="34"/>
     </row>
     <row r="11" spans="1:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A11" s="10"/>
-      <c r="C11" s="47"/>
+      <c r="C11" s="51"/>
       <c r="D11" s="24" t="s">
         <v>13</v>
       </c>
@@ -881,19 +881,19 @@
         <v>45294</v>
       </c>
       <c r="F11" s="18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G11" s="18" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H11" s="45" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" s="7"/>
       <c r="B12" s="8"/>
-      <c r="C12" s="46">
+      <c r="C12" s="49">
         <v>6</v>
       </c>
       <c r="D12" s="23" t="s">
@@ -903,14 +903,14 @@
         <v>45573</v>
       </c>
       <c r="F12" s="17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G12" s="8"/>
       <c r="H12" s="9"/>
     </row>
     <row r="13" spans="1:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A13" s="10"/>
-      <c r="C13" s="47"/>
+      <c r="C13" s="51"/>
       <c r="D13" s="24" t="s">
         <v>13</v>
       </c>
@@ -922,7 +922,7 @@
       </c>
       <c r="G13" s="18"/>
       <c r="H13" s="45" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.15">
@@ -932,7 +932,7 @@
       <c r="B14" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="46">
+      <c r="C14" s="49">
         <v>7</v>
       </c>
       <c r="D14" s="30" t="s">
@@ -950,9 +950,9 @@
     <row r="15" spans="1:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A15" s="10"/>
       <c r="B15" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="C15" s="47"/>
+        <v>51</v>
+      </c>
+      <c r="C15" s="51"/>
       <c r="D15" s="24" t="s">
         <v>13</v>
       </c>
@@ -960,10 +960,10 @@
         <v>45582</v>
       </c>
       <c r="F15" s="40" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G15" s="18" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H15" s="11"/>
     </row>
@@ -972,7 +972,7 @@
       <c r="B16" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C16" s="46">
+      <c r="C16" s="49">
         <v>8</v>
       </c>
       <c r="D16" s="23" t="s">
@@ -981,8 +981,8 @@
       <c r="E16" s="19">
         <v>45587</v>
       </c>
-      <c r="F16" s="49" t="s">
-        <v>40</v>
+      <c r="F16" s="46" t="s">
+        <v>38</v>
       </c>
       <c r="G16" s="8"/>
       <c r="H16" s="9"/>
@@ -992,21 +992,21 @@
       <c r="B17" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C17" s="47"/>
+      <c r="C17" s="51"/>
       <c r="D17" s="24" t="s">
         <v>13</v>
       </c>
       <c r="E17" s="20">
         <v>45589</v>
       </c>
-      <c r="F17" s="50" t="s">
-        <v>41</v>
+      <c r="F17" s="47" t="s">
+        <v>39</v>
       </c>
       <c r="G17" s="18" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H17" s="45" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.15">
@@ -1014,7 +1014,7 @@
       <c r="B18" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C18" s="46">
+      <c r="C18" s="49">
         <v>9</v>
       </c>
       <c r="D18" s="23" t="s">
@@ -1023,8 +1023,8 @@
       <c r="E18" s="19">
         <v>45594</v>
       </c>
-      <c r="F18" s="49" t="s">
-        <v>42</v>
+      <c r="F18" s="46" t="s">
+        <v>40</v>
       </c>
       <c r="G18" s="8"/>
       <c r="H18" s="9"/>
@@ -1034,26 +1034,26 @@
       <c r="B19" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="C19" s="48"/>
+      <c r="C19" s="50"/>
       <c r="D19" s="25" t="s">
         <v>13</v>
       </c>
       <c r="E19" s="21">
         <v>45596</v>
       </c>
-      <c r="F19" s="51" t="s">
-        <v>43</v>
+      <c r="F19" s="48" t="s">
+        <v>41</v>
       </c>
       <c r="G19" s="13"/>
       <c r="H19" s="43" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I19" s="10"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A20" s="7"/>
       <c r="B20" s="8"/>
-      <c r="C20" s="46">
+      <c r="C20" s="49">
         <v>10</v>
       </c>
       <c r="D20" s="23" t="s">
@@ -1063,7 +1063,7 @@
         <v>45601</v>
       </c>
       <c r="F20" s="17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G20" s="8"/>
       <c r="H20" s="9"/>
@@ -1072,7 +1072,7 @@
     <row r="21" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A21" s="12"/>
       <c r="B21" s="13"/>
-      <c r="C21" s="48"/>
+      <c r="C21" s="50"/>
       <c r="D21" s="25" t="s">
         <v>13</v>
       </c>
@@ -1080,10 +1080,10 @@
         <v>45603</v>
       </c>
       <c r="F21" s="28" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G21" s="28" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H21" s="14"/>
     </row>
@@ -1094,7 +1094,7 @@
       <c r="B22" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="C22" s="46">
+      <c r="C22" s="49">
         <v>11</v>
       </c>
       <c r="D22" s="30" t="s">
@@ -1112,7 +1112,7 @@
     <row r="23" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A23" s="12"/>
       <c r="B23" s="13"/>
-      <c r="C23" s="48"/>
+      <c r="C23" s="50"/>
       <c r="D23" s="25" t="s">
         <v>13</v>
       </c>
@@ -1120,17 +1120,17 @@
         <v>45610</v>
       </c>
       <c r="F23" s="28" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G23" s="28"/>
       <c r="H23" s="43" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A24" s="7"/>
       <c r="B24" s="8"/>
-      <c r="C24" s="46">
+      <c r="C24" s="49">
         <v>12</v>
       </c>
       <c r="D24" s="23" t="s">
@@ -1140,17 +1140,17 @@
         <v>45615</v>
       </c>
       <c r="F24" s="17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G24" s="17" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H24" s="9"/>
     </row>
     <row r="25" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A25" s="12"/>
       <c r="B25" s="13"/>
-      <c r="C25" s="48"/>
+      <c r="C25" s="50"/>
       <c r="D25" s="25" t="s">
         <v>13</v>
       </c>
@@ -1158,7 +1158,7 @@
         <v>45617</v>
       </c>
       <c r="F25" s="28" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G25" s="28"/>
       <c r="H25" s="43"/>
@@ -1168,7 +1168,7 @@
       <c r="B26" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C26" s="46">
+      <c r="C26" s="49">
         <v>13</v>
       </c>
       <c r="D26" s="23" t="s">
@@ -1178,13 +1178,13 @@
         <v>45622</v>
       </c>
       <c r="F26" s="41" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G26" s="17" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H26" s="44" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -1194,7 +1194,7 @@
       <c r="B27" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="C27" s="48"/>
+      <c r="C27" s="50"/>
       <c r="D27" s="35" t="s">
         <v>13</v>
       </c>
@@ -1212,7 +1212,7 @@
       <c r="B28" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C28" s="46">
+      <c r="C28" s="49">
         <v>14</v>
       </c>
       <c r="D28" s="23" t="s">
@@ -1222,7 +1222,7 @@
         <v>45629</v>
       </c>
       <c r="F28" s="41" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G28" s="17"/>
       <c r="H28" s="44"/>
@@ -1232,7 +1232,7 @@
       <c r="B29" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="C29" s="48"/>
+      <c r="C29" s="50"/>
       <c r="D29" s="25" t="s">
         <v>13</v>
       </c>
@@ -1240,7 +1240,7 @@
         <v>45631</v>
       </c>
       <c r="F29" s="42" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G29" s="28"/>
       <c r="H29" s="14"/>
@@ -1252,7 +1252,7 @@
       <c r="B30" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C30" s="46">
+      <c r="C30" s="49">
         <v>15</v>
       </c>
       <c r="D30" s="23" t="s">
@@ -1262,17 +1262,17 @@
         <v>45636</v>
       </c>
       <c r="F30" s="41" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G30" s="8"/>
       <c r="H30" s="44" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A31" s="12"/>
       <c r="B31" s="13"/>
-      <c r="C31" s="48"/>
+      <c r="C31" s="50"/>
       <c r="D31" s="26"/>
       <c r="E31" s="13"/>
       <c r="F31" s="13"/>
@@ -1281,6 +1281,12 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="C10:C11"/>
     <mergeCell ref="C26:C27"/>
     <mergeCell ref="C28:C29"/>
     <mergeCell ref="C30:C31"/>
@@ -1290,12 +1296,6 @@
     <mergeCell ref="C20:C21"/>
     <mergeCell ref="C22:C23"/>
     <mergeCell ref="C24:C25"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="C10:C11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/assets/sched.xlsx
+++ b/assets/sched.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abmosca/Documents/Documents/Smith/teaching/F24/SDS-CS109/assets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amosca/Documents/teaching/SDS-CS109/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C905CF44-CF90-6947-8E2C-DAACB2B659D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A57BA270-91F8-6F4F-8F5B-2792F7EDB7F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="45200" yWindow="500" windowWidth="25620" windowHeight="17420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sched" sheetId="2" r:id="rId1"/>
@@ -103,9 +103,6 @@
     <t xml:space="preserve">Perception and Color </t>
   </si>
   <si>
-    <t xml:space="preserve">Visualizing Multiple Variables </t>
-  </si>
-  <si>
     <t xml:space="preserve">Storytelling with Visualization and Lab </t>
   </si>
   <si>
@@ -194,6 +191,9 @@
   </si>
   <si>
     <t>Visualization Fundamentals pt. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Visualizing Multiple Variables and Lab </t>
   </si>
 </sst>
 </file>
@@ -446,10 +446,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -669,8 +669,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E37E44A5-0A5F-414A-B4D4-809AE35C85CF}">
   <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -727,7 +727,7 @@
     <row r="3" spans="1:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="16"/>
       <c r="B3" s="18"/>
-      <c r="C3" s="51"/>
+      <c r="C3" s="50"/>
       <c r="D3" s="24" t="s">
         <v>13</v>
       </c>
@@ -735,7 +735,7 @@
         <v>45540</v>
       </c>
       <c r="F3" s="18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H3" s="11"/>
     </row>
@@ -752,7 +752,7 @@
         <v>45545</v>
       </c>
       <c r="F4" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G4" s="8"/>
       <c r="H4" s="9"/>
@@ -760,7 +760,7 @@
     <row r="5" spans="1:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A5" s="10"/>
       <c r="B5" s="18"/>
-      <c r="C5" s="51"/>
+      <c r="C5" s="50"/>
       <c r="D5" s="24" t="s">
         <v>13</v>
       </c>
@@ -768,10 +768,10 @@
         <v>45547</v>
       </c>
       <c r="F5" s="18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G5" s="18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H5" s="11"/>
     </row>
@@ -788,14 +788,14 @@
         <v>45551</v>
       </c>
       <c r="F6" s="17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G6" s="8"/>
       <c r="H6" s="9"/>
     </row>
     <row r="7" spans="1:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="10"/>
-      <c r="C7" s="51"/>
+      <c r="C7" s="50"/>
       <c r="D7" s="24" t="s">
         <v>13</v>
       </c>
@@ -806,10 +806,10 @@
         <v>20</v>
       </c>
       <c r="G7" s="18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H7" s="45" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
@@ -832,7 +832,7 @@
     </row>
     <row r="9" spans="1:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A9" s="10"/>
-      <c r="C9" s="51"/>
+      <c r="C9" s="50"/>
       <c r="D9" s="24" t="s">
         <v>13</v>
       </c>
@@ -840,13 +840,13 @@
         <v>45561</v>
       </c>
       <c r="F9" s="18" t="s">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="G9" s="18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H9" s="45" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.15">
@@ -873,7 +873,7 @@
     </row>
     <row r="11" spans="1:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A11" s="10"/>
-      <c r="C11" s="51"/>
+      <c r="C11" s="50"/>
       <c r="D11" s="24" t="s">
         <v>13</v>
       </c>
@@ -881,13 +881,13 @@
         <v>45294</v>
       </c>
       <c r="F11" s="18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G11" s="18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H11" s="45" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.15">
@@ -903,14 +903,14 @@
         <v>45573</v>
       </c>
       <c r="F12" s="17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G12" s="8"/>
       <c r="H12" s="9"/>
     </row>
     <row r="13" spans="1:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A13" s="10"/>
-      <c r="C13" s="51"/>
+      <c r="C13" s="50"/>
       <c r="D13" s="24" t="s">
         <v>13</v>
       </c>
@@ -922,7 +922,7 @@
       </c>
       <c r="G13" s="18"/>
       <c r="H13" s="45" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.15">
@@ -950,9 +950,9 @@
     <row r="15" spans="1:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A15" s="10"/>
       <c r="B15" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="C15" s="51"/>
+        <v>50</v>
+      </c>
+      <c r="C15" s="50"/>
       <c r="D15" s="24" t="s">
         <v>13</v>
       </c>
@@ -960,10 +960,10 @@
         <v>45582</v>
       </c>
       <c r="F15" s="40" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G15" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H15" s="11"/>
     </row>
@@ -982,7 +982,7 @@
         <v>45587</v>
       </c>
       <c r="F16" s="46" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G16" s="8"/>
       <c r="H16" s="9"/>
@@ -992,7 +992,7 @@
       <c r="B17" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C17" s="51"/>
+      <c r="C17" s="50"/>
       <c r="D17" s="24" t="s">
         <v>13</v>
       </c>
@@ -1000,13 +1000,13 @@
         <v>45589</v>
       </c>
       <c r="F17" s="47" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G17" s="18" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H17" s="45" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.15">
@@ -1024,7 +1024,7 @@
         <v>45594</v>
       </c>
       <c r="F18" s="46" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G18" s="8"/>
       <c r="H18" s="9"/>
@@ -1034,7 +1034,7 @@
       <c r="B19" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="C19" s="50"/>
+      <c r="C19" s="51"/>
       <c r="D19" s="25" t="s">
         <v>13</v>
       </c>
@@ -1042,11 +1042,11 @@
         <v>45596</v>
       </c>
       <c r="F19" s="48" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G19" s="13"/>
       <c r="H19" s="43" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I19" s="10"/>
     </row>
@@ -1063,7 +1063,7 @@
         <v>45601</v>
       </c>
       <c r="F20" s="17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G20" s="8"/>
       <c r="H20" s="9"/>
@@ -1072,7 +1072,7 @@
     <row r="21" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A21" s="12"/>
       <c r="B21" s="13"/>
-      <c r="C21" s="50"/>
+      <c r="C21" s="51"/>
       <c r="D21" s="25" t="s">
         <v>13</v>
       </c>
@@ -1080,10 +1080,10 @@
         <v>45603</v>
       </c>
       <c r="F21" s="28" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G21" s="28" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H21" s="14"/>
     </row>
@@ -1112,7 +1112,7 @@
     <row r="23" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A23" s="12"/>
       <c r="B23" s="13"/>
-      <c r="C23" s="50"/>
+      <c r="C23" s="51"/>
       <c r="D23" s="25" t="s">
         <v>13</v>
       </c>
@@ -1120,11 +1120,11 @@
         <v>45610</v>
       </c>
       <c r="F23" s="28" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G23" s="28"/>
       <c r="H23" s="43" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.15">
@@ -1140,17 +1140,17 @@
         <v>45615</v>
       </c>
       <c r="F24" s="17" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G24" s="17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H24" s="9"/>
     </row>
     <row r="25" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A25" s="12"/>
       <c r="B25" s="13"/>
-      <c r="C25" s="50"/>
+      <c r="C25" s="51"/>
       <c r="D25" s="25" t="s">
         <v>13</v>
       </c>
@@ -1158,7 +1158,7 @@
         <v>45617</v>
       </c>
       <c r="F25" s="28" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G25" s="28"/>
       <c r="H25" s="43"/>
@@ -1178,13 +1178,13 @@
         <v>45622</v>
       </c>
       <c r="F26" s="41" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G26" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="H26" s="44" t="s">
         <v>46</v>
-      </c>
-      <c r="H26" s="44" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -1194,7 +1194,7 @@
       <c r="B27" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="C27" s="50"/>
+      <c r="C27" s="51"/>
       <c r="D27" s="35" t="s">
         <v>13</v>
       </c>
@@ -1222,7 +1222,7 @@
         <v>45629</v>
       </c>
       <c r="F28" s="41" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G28" s="17"/>
       <c r="H28" s="44"/>
@@ -1232,7 +1232,7 @@
       <c r="B29" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="C29" s="50"/>
+      <c r="C29" s="51"/>
       <c r="D29" s="25" t="s">
         <v>13</v>
       </c>
@@ -1240,7 +1240,7 @@
         <v>45631</v>
       </c>
       <c r="F29" s="42" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G29" s="28"/>
       <c r="H29" s="14"/>
@@ -1262,17 +1262,17 @@
         <v>45636</v>
       </c>
       <c r="F30" s="41" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G30" s="8"/>
       <c r="H30" s="44" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A31" s="12"/>
       <c r="B31" s="13"/>
-      <c r="C31" s="50"/>
+      <c r="C31" s="51"/>
       <c r="D31" s="26"/>
       <c r="E31" s="13"/>
       <c r="F31" s="13"/>
@@ -1281,12 +1281,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="C10:C11"/>
     <mergeCell ref="C26:C27"/>
     <mergeCell ref="C28:C29"/>
     <mergeCell ref="C30:C31"/>
@@ -1296,6 +1290,12 @@
     <mergeCell ref="C20:C21"/>
     <mergeCell ref="C22:C23"/>
     <mergeCell ref="C24:C25"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="C10:C11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/assets/sched.xlsx
+++ b/assets/sched.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amosca/Documents/teaching/SDS-CS109/assets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abmosca/Documents/Documents/Smith/teaching/F24/SDS-CS109/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A57BA270-91F8-6F4F-8F5B-2792F7EDB7F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C35A2AB1-768E-2D4C-9CB9-240C064FF813}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="45200" yWindow="500" windowWidth="25620" windowHeight="17420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="34200" yWindow="960" windowWidth="28800" windowHeight="15880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sched" sheetId="2" r:id="rId1"/>
@@ -88,39 +88,18 @@
     <t>NO CLASS - THANKSGIVING RECESS</t>
   </si>
   <si>
-    <t xml:space="preserve">Georgia Lupi - Dear Data </t>
-  </si>
-  <si>
     <t>Introduction</t>
   </si>
   <si>
-    <t>Basic Charts and Lab</t>
-  </si>
-  <si>
     <t>MOUNTAIN DAY?</t>
   </si>
   <si>
     <t xml:space="preserve">Perception and Color </t>
   </si>
   <si>
-    <t xml:space="preserve">Storytelling with Visualization and Lab </t>
-  </si>
-  <si>
     <t>Ethical and Deceptive Visualization</t>
   </si>
   <si>
-    <t>Interactive Visualization and Lab</t>
-  </si>
-  <si>
-    <t>Geographic Data and Lab</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adding Detail and Context and Lab </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Text as Data and Lab </t>
-  </si>
-  <si>
     <t>FP Workshop - Personas and Paper Prototyping</t>
   </si>
   <si>
@@ -139,9 +118,6 @@
     <t xml:space="preserve">Data Feminism </t>
   </si>
   <si>
-    <t xml:space="preserve">Considering Context- W.E.B. Dubois, Persuasive Vis </t>
-  </si>
-  <si>
     <t>AB AT VIS2024 - Mid-Semester Project Ideation</t>
   </si>
   <si>
@@ -193,7 +169,31 @@
     <t>Visualization Fundamentals pt. 2</t>
   </si>
   <si>
-    <t xml:space="preserve">Visualizing Multiple Variables and Lab </t>
+    <t>Flex day (maybe Vis in Practice)</t>
+  </si>
+  <si>
+    <t>Data Humanism</t>
+  </si>
+  <si>
+    <t>Adding Detail and Context</t>
+  </si>
+  <si>
+    <t>Basic Charts</t>
+  </si>
+  <si>
+    <t>Storytelling with Visualization</t>
+  </si>
+  <si>
+    <t>Interactive Visualization</t>
+  </si>
+  <si>
+    <t>Geographic Data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Text as Data </t>
+  </si>
+  <si>
+    <t>Persuasive Visualization</t>
   </si>
 </sst>
 </file>
@@ -669,8 +669,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E37E44A5-0A5F-414A-B4D4-809AE35C85CF}">
   <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -719,7 +719,7 @@
         <v>45538</v>
       </c>
       <c r="F2" s="17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G2" s="8"/>
       <c r="H2" s="9"/>
@@ -735,7 +735,7 @@
         <v>45540</v>
       </c>
       <c r="F3" s="18" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="H3" s="11"/>
     </row>
@@ -752,7 +752,7 @@
         <v>45545</v>
       </c>
       <c r="F4" s="17" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G4" s="8"/>
       <c r="H4" s="9"/>
@@ -768,10 +768,10 @@
         <v>45547</v>
       </c>
       <c r="F5" s="18" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="G5" s="18" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="H5" s="11"/>
     </row>
@@ -788,7 +788,7 @@
         <v>45551</v>
       </c>
       <c r="F6" s="17" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="G6" s="8"/>
       <c r="H6" s="9"/>
@@ -803,13 +803,13 @@
         <v>45554</v>
       </c>
       <c r="F7" s="18" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="G7" s="18" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="H7" s="45" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
@@ -825,7 +825,7 @@
         <v>45559</v>
       </c>
       <c r="F8" s="17" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G8" s="8"/>
       <c r="H8" s="9"/>
@@ -840,13 +840,13 @@
         <v>45561</v>
       </c>
       <c r="F9" s="18" t="s">
-        <v>53</v>
+        <v>21</v>
       </c>
       <c r="G9" s="18" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="H9" s="45" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.15">
@@ -866,7 +866,7 @@
         <v>45566</v>
       </c>
       <c r="F10" s="32" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G10" s="33"/>
       <c r="H10" s="34"/>
@@ -881,13 +881,13 @@
         <v>45294</v>
       </c>
       <c r="F11" s="18" t="s">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="G11" s="18" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="H11" s="45" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.15">
@@ -903,7 +903,7 @@
         <v>45573</v>
       </c>
       <c r="F12" s="17" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="G12" s="8"/>
       <c r="H12" s="9"/>
@@ -918,11 +918,11 @@
         <v>45575</v>
       </c>
       <c r="F13" s="18" t="s">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="G13" s="18"/>
       <c r="H13" s="45" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.15">
@@ -950,7 +950,7 @@
     <row r="15" spans="1:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A15" s="10"/>
       <c r="B15" s="18" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="C15" s="50"/>
       <c r="D15" s="24" t="s">
@@ -960,10 +960,10 @@
         <v>45582</v>
       </c>
       <c r="F15" s="40" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="G15" s="18" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="H15" s="11"/>
     </row>
@@ -982,7 +982,7 @@
         <v>45587</v>
       </c>
       <c r="F16" s="46" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G16" s="8"/>
       <c r="H16" s="9"/>
@@ -1000,13 +1000,13 @@
         <v>45589</v>
       </c>
       <c r="F17" s="47" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="G17" s="18" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="H17" s="45" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.15">
@@ -1024,7 +1024,7 @@
         <v>45594</v>
       </c>
       <c r="F18" s="46" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G18" s="8"/>
       <c r="H18" s="9"/>
@@ -1042,11 +1042,11 @@
         <v>45596</v>
       </c>
       <c r="F19" s="48" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G19" s="13"/>
       <c r="H19" s="43" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="I19" s="10"/>
     </row>
@@ -1063,7 +1063,7 @@
         <v>45601</v>
       </c>
       <c r="F20" s="17" t="s">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="G20" s="8"/>
       <c r="H20" s="9"/>
@@ -1080,10 +1080,10 @@
         <v>45603</v>
       </c>
       <c r="F21" s="28" t="s">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="G21" s="28" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="H21" s="14"/>
     </row>
@@ -1120,11 +1120,11 @@
         <v>45610</v>
       </c>
       <c r="F23" s="28" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="G23" s="28"/>
       <c r="H23" s="43" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.15">
@@ -1140,10 +1140,10 @@
         <v>45615</v>
       </c>
       <c r="F24" s="17" t="s">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="G24" s="17" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="H24" s="9"/>
     </row>
@@ -1158,7 +1158,7 @@
         <v>45617</v>
       </c>
       <c r="F25" s="28" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="G25" s="28"/>
       <c r="H25" s="43"/>
@@ -1178,13 +1178,13 @@
         <v>45622</v>
       </c>
       <c r="F26" s="41" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="G26" s="17" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="H26" s="44" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -1222,7 +1222,7 @@
         <v>45629</v>
       </c>
       <c r="F28" s="41" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="G28" s="17"/>
       <c r="H28" s="44"/>
@@ -1240,7 +1240,7 @@
         <v>45631</v>
       </c>
       <c r="F29" s="42" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="G29" s="28"/>
       <c r="H29" s="14"/>
@@ -1262,11 +1262,11 @@
         <v>45636</v>
       </c>
       <c r="F30" s="41" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="G30" s="8"/>
       <c r="H30" s="44" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">

--- a/assets/sched.xlsx
+++ b/assets/sched.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abmosca/Documents/Documents/Smith/teaching/F24/SDS-CS109/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C35A2AB1-768E-2D4C-9CB9-240C064FF813}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F77710A3-9FD6-7F42-8671-9C89E7AEC8A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34200" yWindow="960" windowWidth="28800" windowHeight="15880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1060" yWindow="500" windowWidth="28800" windowHeight="15880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sched" sheetId="2" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="53">
   <si>
     <t>Date</t>
   </si>
@@ -154,12 +154,6 @@
     <t>fp01</t>
   </si>
   <si>
-    <t>mp01</t>
-  </si>
-  <si>
-    <t>mp02</t>
-  </si>
-  <si>
     <t>proj italic</t>
   </si>
   <si>
@@ -194,6 +188,9 @@
   </si>
   <si>
     <t>Persuasive Visualization</t>
+  </si>
+  <si>
+    <t>mp</t>
   </si>
 </sst>
 </file>
@@ -446,10 +443,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -669,8 +666,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E37E44A5-0A5F-414A-B4D4-809AE35C85CF}">
   <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -727,7 +724,7 @@
     <row r="3" spans="1:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="16"/>
       <c r="B3" s="18"/>
-      <c r="C3" s="50"/>
+      <c r="C3" s="51"/>
       <c r="D3" s="24" t="s">
         <v>13</v>
       </c>
@@ -752,7 +749,7 @@
         <v>45545</v>
       </c>
       <c r="F4" s="17" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G4" s="8"/>
       <c r="H4" s="9"/>
@@ -760,7 +757,7 @@
     <row r="5" spans="1:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A5" s="10"/>
       <c r="B5" s="18"/>
-      <c r="C5" s="50"/>
+      <c r="C5" s="51"/>
       <c r="D5" s="24" t="s">
         <v>13</v>
       </c>
@@ -768,7 +765,7 @@
         <v>45547</v>
       </c>
       <c r="F5" s="18" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G5" s="18" t="s">
         <v>33</v>
@@ -795,7 +792,7 @@
     </row>
     <row r="7" spans="1:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="10"/>
-      <c r="C7" s="50"/>
+      <c r="C7" s="51"/>
       <c r="D7" s="24" t="s">
         <v>13</v>
       </c>
@@ -803,7 +800,7 @@
         <v>45554</v>
       </c>
       <c r="F7" s="18" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G7" s="18" t="s">
         <v>34</v>
@@ -832,7 +829,7 @@
     </row>
     <row r="9" spans="1:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A9" s="10"/>
-      <c r="C9" s="50"/>
+      <c r="C9" s="51"/>
       <c r="D9" s="24" t="s">
         <v>13</v>
       </c>
@@ -873,7 +870,7 @@
     </row>
     <row r="11" spans="1:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A11" s="10"/>
-      <c r="C11" s="50"/>
+      <c r="C11" s="51"/>
       <c r="D11" s="24" t="s">
         <v>13</v>
       </c>
@@ -881,7 +878,7 @@
         <v>45294</v>
       </c>
       <c r="F11" s="18" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G11" s="18" t="s">
         <v>36</v>
@@ -903,14 +900,14 @@
         <v>45573</v>
       </c>
       <c r="F12" s="17" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G12" s="8"/>
       <c r="H12" s="9"/>
     </row>
     <row r="13" spans="1:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A13" s="10"/>
-      <c r="C13" s="50"/>
+      <c r="C13" s="51"/>
       <c r="D13" s="24" t="s">
         <v>13</v>
       </c>
@@ -918,7 +915,7 @@
         <v>45575</v>
       </c>
       <c r="F13" s="18" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G13" s="18"/>
       <c r="H13" s="45" t="s">
@@ -950,9 +947,9 @@
     <row r="15" spans="1:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A15" s="10"/>
       <c r="B15" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="C15" s="50"/>
+        <v>40</v>
+      </c>
+      <c r="C15" s="51"/>
       <c r="D15" s="24" t="s">
         <v>13</v>
       </c>
@@ -963,7 +960,7 @@
         <v>28</v>
       </c>
       <c r="G15" s="18" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="H15" s="11"/>
     </row>
@@ -992,7 +989,7 @@
       <c r="B17" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C17" s="50"/>
+      <c r="C17" s="51"/>
       <c r="D17" s="24" t="s">
         <v>13</v>
       </c>
@@ -1002,12 +999,8 @@
       <c r="F17" s="47" t="s">
         <v>30</v>
       </c>
-      <c r="G17" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="H17" s="45" t="s">
-        <v>40</v>
-      </c>
+      <c r="G17" s="18"/>
+      <c r="H17" s="45"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A18" s="7"/>
@@ -1034,7 +1027,7 @@
       <c r="B19" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="C19" s="51"/>
+      <c r="C19" s="50"/>
       <c r="D19" s="25" t="s">
         <v>13</v>
       </c>
@@ -1046,7 +1039,7 @@
       </c>
       <c r="G19" s="13"/>
       <c r="H19" s="43" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="I19" s="10"/>
     </row>
@@ -1063,7 +1056,7 @@
         <v>45601</v>
       </c>
       <c r="F20" s="17" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G20" s="8"/>
       <c r="H20" s="9"/>
@@ -1072,7 +1065,7 @@
     <row r="21" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A21" s="12"/>
       <c r="B21" s="13"/>
-      <c r="C21" s="51"/>
+      <c r="C21" s="50"/>
       <c r="D21" s="25" t="s">
         <v>13</v>
       </c>
@@ -1080,7 +1073,7 @@
         <v>45603</v>
       </c>
       <c r="F21" s="28" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G21" s="28" t="s">
         <v>39</v>
@@ -1112,7 +1105,7 @@
     <row r="23" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A23" s="12"/>
       <c r="B23" s="13"/>
-      <c r="C23" s="51"/>
+      <c r="C23" s="50"/>
       <c r="D23" s="25" t="s">
         <v>13</v>
       </c>
@@ -1120,7 +1113,7 @@
         <v>45610</v>
       </c>
       <c r="F23" s="28" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G23" s="28"/>
       <c r="H23" s="43" t="s">
@@ -1140,7 +1133,7 @@
         <v>45615</v>
       </c>
       <c r="F24" s="17" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G24" s="17" t="s">
         <v>38</v>
@@ -1150,7 +1143,7 @@
     <row r="25" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A25" s="12"/>
       <c r="B25" s="13"/>
-      <c r="C25" s="51"/>
+      <c r="C25" s="50"/>
       <c r="D25" s="25" t="s">
         <v>13</v>
       </c>
@@ -1158,7 +1151,7 @@
         <v>45617</v>
       </c>
       <c r="F25" s="28" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G25" s="28"/>
       <c r="H25" s="43"/>
@@ -1194,7 +1187,7 @@
       <c r="B27" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="C27" s="51"/>
+      <c r="C27" s="50"/>
       <c r="D27" s="35" t="s">
         <v>13</v>
       </c>
@@ -1232,7 +1225,7 @@
       <c r="B29" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="C29" s="51"/>
+      <c r="C29" s="50"/>
       <c r="D29" s="25" t="s">
         <v>13</v>
       </c>
@@ -1272,7 +1265,7 @@
     <row r="31" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A31" s="12"/>
       <c r="B31" s="13"/>
-      <c r="C31" s="51"/>
+      <c r="C31" s="50"/>
       <c r="D31" s="26"/>
       <c r="E31" s="13"/>
       <c r="F31" s="13"/>
@@ -1281,6 +1274,12 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="C10:C11"/>
     <mergeCell ref="C26:C27"/>
     <mergeCell ref="C28:C29"/>
     <mergeCell ref="C30:C31"/>
@@ -1290,12 +1289,6 @@
     <mergeCell ref="C20:C21"/>
     <mergeCell ref="C22:C23"/>
     <mergeCell ref="C24:C25"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="C10:C11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/assets/sched.xlsx
+++ b/assets/sched.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abmosca/Documents/Documents/Smith/teaching/F24/SDS-CS109/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F77710A3-9FD6-7F42-8671-9C89E7AEC8A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8BAC7A4-8B32-1149-B068-F926C6751CC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1060" yWindow="500" windowWidth="28800" windowHeight="15880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sched" sheetId="2" r:id="rId1"/>
@@ -181,9 +181,6 @@
     <t>Interactive Visualization</t>
   </si>
   <si>
-    <t>Geographic Data</t>
-  </si>
-  <si>
     <t xml:space="preserve">Text as Data </t>
   </si>
   <si>
@@ -191,6 +188,9 @@
   </si>
   <si>
     <t>mp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Geographic Data - SAL </t>
   </si>
 </sst>
 </file>
@@ -443,10 +443,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -724,7 +724,7 @@
     <row r="3" spans="1:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="16"/>
       <c r="B3" s="18"/>
-      <c r="C3" s="51"/>
+      <c r="C3" s="50"/>
       <c r="D3" s="24" t="s">
         <v>13</v>
       </c>
@@ -757,7 +757,7 @@
     <row r="5" spans="1:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A5" s="10"/>
       <c r="B5" s="18"/>
-      <c r="C5" s="51"/>
+      <c r="C5" s="50"/>
       <c r="D5" s="24" t="s">
         <v>13</v>
       </c>
@@ -792,7 +792,7 @@
     </row>
     <row r="7" spans="1:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="10"/>
-      <c r="C7" s="51"/>
+      <c r="C7" s="50"/>
       <c r="D7" s="24" t="s">
         <v>13</v>
       </c>
@@ -829,7 +829,7 @@
     </row>
     <row r="9" spans="1:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A9" s="10"/>
-      <c r="C9" s="51"/>
+      <c r="C9" s="50"/>
       <c r="D9" s="24" t="s">
         <v>13</v>
       </c>
@@ -870,7 +870,7 @@
     </row>
     <row r="11" spans="1:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A11" s="10"/>
-      <c r="C11" s="51"/>
+      <c r="C11" s="50"/>
       <c r="D11" s="24" t="s">
         <v>13</v>
       </c>
@@ -907,7 +907,7 @@
     </row>
     <row r="13" spans="1:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A13" s="10"/>
-      <c r="C13" s="51"/>
+      <c r="C13" s="50"/>
       <c r="D13" s="24" t="s">
         <v>13</v>
       </c>
@@ -949,7 +949,7 @@
       <c r="B15" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="C15" s="51"/>
+      <c r="C15" s="50"/>
       <c r="D15" s="24" t="s">
         <v>13</v>
       </c>
@@ -960,7 +960,7 @@
         <v>28</v>
       </c>
       <c r="G15" s="18" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H15" s="11"/>
     </row>
@@ -989,7 +989,7 @@
       <c r="B17" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C17" s="51"/>
+      <c r="C17" s="50"/>
       <c r="D17" s="24" t="s">
         <v>13</v>
       </c>
@@ -1027,7 +1027,7 @@
       <c r="B19" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="C19" s="50"/>
+      <c r="C19" s="51"/>
       <c r="D19" s="25" t="s">
         <v>13</v>
       </c>
@@ -1039,7 +1039,7 @@
       </c>
       <c r="G19" s="13"/>
       <c r="H19" s="43" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I19" s="10"/>
     </row>
@@ -1065,7 +1065,7 @@
     <row r="21" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A21" s="12"/>
       <c r="B21" s="13"/>
-      <c r="C21" s="50"/>
+      <c r="C21" s="51"/>
       <c r="D21" s="25" t="s">
         <v>13</v>
       </c>
@@ -1073,7 +1073,7 @@
         <v>45603</v>
       </c>
       <c r="F21" s="28" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="G21" s="28" t="s">
         <v>39</v>
@@ -1105,7 +1105,7 @@
     <row r="23" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A23" s="12"/>
       <c r="B23" s="13"/>
-      <c r="C23" s="50"/>
+      <c r="C23" s="51"/>
       <c r="D23" s="25" t="s">
         <v>13</v>
       </c>
@@ -1133,7 +1133,7 @@
         <v>45615</v>
       </c>
       <c r="F24" s="17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G24" s="17" t="s">
         <v>38</v>
@@ -1143,7 +1143,7 @@
     <row r="25" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A25" s="12"/>
       <c r="B25" s="13"/>
-      <c r="C25" s="50"/>
+      <c r="C25" s="51"/>
       <c r="D25" s="25" t="s">
         <v>13</v>
       </c>
@@ -1151,7 +1151,7 @@
         <v>45617</v>
       </c>
       <c r="F25" s="28" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G25" s="28"/>
       <c r="H25" s="43"/>
@@ -1187,7 +1187,7 @@
       <c r="B27" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="C27" s="50"/>
+      <c r="C27" s="51"/>
       <c r="D27" s="35" t="s">
         <v>13</v>
       </c>
@@ -1225,7 +1225,7 @@
       <c r="B29" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="C29" s="50"/>
+      <c r="C29" s="51"/>
       <c r="D29" s="25" t="s">
         <v>13</v>
       </c>
@@ -1265,7 +1265,7 @@
     <row r="31" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A31" s="12"/>
       <c r="B31" s="13"/>
-      <c r="C31" s="50"/>
+      <c r="C31" s="51"/>
       <c r="D31" s="26"/>
       <c r="E31" s="13"/>
       <c r="F31" s="13"/>
@@ -1274,12 +1274,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="C10:C11"/>
     <mergeCell ref="C26:C27"/>
     <mergeCell ref="C28:C29"/>
     <mergeCell ref="C30:C31"/>
@@ -1289,6 +1283,12 @@
     <mergeCell ref="C20:C21"/>
     <mergeCell ref="C22:C23"/>
     <mergeCell ref="C24:C25"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="C10:C11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/assets/sched.xlsx
+++ b/assets/sched.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abmosca/Documents/Documents/Smith/teaching/F24/SDS-CS109/assets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amosca/Documents/teaching/SDS-CS109/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8BAC7A4-8B32-1149-B068-F926C6751CC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B3AEB3C-B1AD-1C40-8FEC-998DCCD6CF3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -443,10 +443,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -666,8 +666,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E37E44A5-0A5F-414A-B4D4-809AE35C85CF}">
   <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -724,7 +724,7 @@
     <row r="3" spans="1:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="16"/>
       <c r="B3" s="18"/>
-      <c r="C3" s="50"/>
+      <c r="C3" s="51"/>
       <c r="D3" s="24" t="s">
         <v>13</v>
       </c>
@@ -757,7 +757,7 @@
     <row r="5" spans="1:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A5" s="10"/>
       <c r="B5" s="18"/>
-      <c r="C5" s="50"/>
+      <c r="C5" s="51"/>
       <c r="D5" s="24" t="s">
         <v>13</v>
       </c>
@@ -765,7 +765,7 @@
         <v>45547</v>
       </c>
       <c r="F5" s="18" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="G5" s="18" t="s">
         <v>33</v>
@@ -785,14 +785,14 @@
         <v>45551</v>
       </c>
       <c r="F6" s="17" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="G6" s="8"/>
       <c r="H6" s="9"/>
     </row>
     <row r="7" spans="1:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="10"/>
-      <c r="C7" s="50"/>
+      <c r="C7" s="51"/>
       <c r="D7" s="24" t="s">
         <v>13</v>
       </c>
@@ -829,7 +829,7 @@
     </row>
     <row r="9" spans="1:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A9" s="10"/>
-      <c r="C9" s="50"/>
+      <c r="C9" s="51"/>
       <c r="D9" s="24" t="s">
         <v>13</v>
       </c>
@@ -870,7 +870,7 @@
     </row>
     <row r="11" spans="1:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A11" s="10"/>
-      <c r="C11" s="50"/>
+      <c r="C11" s="51"/>
       <c r="D11" s="24" t="s">
         <v>13</v>
       </c>
@@ -907,7 +907,7 @@
     </row>
     <row r="13" spans="1:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A13" s="10"/>
-      <c r="C13" s="50"/>
+      <c r="C13" s="51"/>
       <c r="D13" s="24" t="s">
         <v>13</v>
       </c>
@@ -949,7 +949,7 @@
       <c r="B15" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="C15" s="50"/>
+      <c r="C15" s="51"/>
       <c r="D15" s="24" t="s">
         <v>13</v>
       </c>
@@ -989,7 +989,7 @@
       <c r="B17" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C17" s="50"/>
+      <c r="C17" s="51"/>
       <c r="D17" s="24" t="s">
         <v>13</v>
       </c>
@@ -1027,7 +1027,7 @@
       <c r="B19" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="C19" s="51"/>
+      <c r="C19" s="50"/>
       <c r="D19" s="25" t="s">
         <v>13</v>
       </c>
@@ -1065,7 +1065,7 @@
     <row r="21" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A21" s="12"/>
       <c r="B21" s="13"/>
-      <c r="C21" s="51"/>
+      <c r="C21" s="50"/>
       <c r="D21" s="25" t="s">
         <v>13</v>
       </c>
@@ -1105,7 +1105,7 @@
     <row r="23" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A23" s="12"/>
       <c r="B23" s="13"/>
-      <c r="C23" s="51"/>
+      <c r="C23" s="50"/>
       <c r="D23" s="25" t="s">
         <v>13</v>
       </c>
@@ -1143,7 +1143,7 @@
     <row r="25" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A25" s="12"/>
       <c r="B25" s="13"/>
-      <c r="C25" s="51"/>
+      <c r="C25" s="50"/>
       <c r="D25" s="25" t="s">
         <v>13</v>
       </c>
@@ -1187,7 +1187,7 @@
       <c r="B27" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="C27" s="51"/>
+      <c r="C27" s="50"/>
       <c r="D27" s="35" t="s">
         <v>13</v>
       </c>
@@ -1225,7 +1225,7 @@
       <c r="B29" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="C29" s="51"/>
+      <c r="C29" s="50"/>
       <c r="D29" s="25" t="s">
         <v>13</v>
       </c>
@@ -1265,7 +1265,7 @@
     <row r="31" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A31" s="12"/>
       <c r="B31" s="13"/>
-      <c r="C31" s="51"/>
+      <c r="C31" s="50"/>
       <c r="D31" s="26"/>
       <c r="E31" s="13"/>
       <c r="F31" s="13"/>
@@ -1274,6 +1274,12 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="C10:C11"/>
     <mergeCell ref="C26:C27"/>
     <mergeCell ref="C28:C29"/>
     <mergeCell ref="C30:C31"/>
@@ -1283,12 +1289,6 @@
     <mergeCell ref="C20:C21"/>
     <mergeCell ref="C22:C23"/>
     <mergeCell ref="C24:C25"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="C10:C11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/assets/sched.xlsx
+++ b/assets/sched.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10908"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amosca/Documents/teaching/SDS-CS109/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B3AEB3C-B1AD-1C40-8FEC-998DCCD6CF3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C567BD39-B478-AA49-BB5D-62CCC5FB00F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="46220" yWindow="1960" windowWidth="28800" windowHeight="15880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sched" sheetId="2" r:id="rId1"/>
@@ -121,18 +121,6 @@
     <t>AB AT VIS2024 - Mid-Semester Project Ideation</t>
   </si>
   <si>
-    <t>Mid-Semester Project Finalization</t>
-  </si>
-  <si>
-    <t>Mid-Semester Project Construction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mid-Semester Project Final Session </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mid-Semester Project Release Day </t>
-  </si>
-  <si>
     <t>hw01</t>
   </si>
   <si>
@@ -191,6 +179,18 @@
   </si>
   <si>
     <t xml:space="preserve">Geographic Data - SAL </t>
+  </si>
+  <si>
+    <t>Mid-Semester Project Data Collection</t>
+  </si>
+  <si>
+    <t>Mid-Semester Project Data Cleaning and Sketching</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mid-Semester Project Carving and Release Day </t>
+  </si>
+  <si>
+    <t>Mid-Semester Project Design Finalization</t>
   </si>
 </sst>
 </file>
@@ -443,10 +443,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -666,8 +666,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E37E44A5-0A5F-414A-B4D4-809AE35C85CF}">
   <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -724,7 +724,7 @@
     <row r="3" spans="1:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="16"/>
       <c r="B3" s="18"/>
-      <c r="C3" s="51"/>
+      <c r="C3" s="50"/>
       <c r="D3" s="24" t="s">
         <v>13</v>
       </c>
@@ -749,7 +749,7 @@
         <v>45545</v>
       </c>
       <c r="F4" s="17" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G4" s="8"/>
       <c r="H4" s="9"/>
@@ -757,7 +757,7 @@
     <row r="5" spans="1:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A5" s="10"/>
       <c r="B5" s="18"/>
-      <c r="C5" s="51"/>
+      <c r="C5" s="50"/>
       <c r="D5" s="24" t="s">
         <v>13</v>
       </c>
@@ -768,7 +768,7 @@
         <v>26</v>
       </c>
       <c r="G5" s="18" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H5" s="11"/>
     </row>
@@ -785,14 +785,14 @@
         <v>45551</v>
       </c>
       <c r="F6" s="17" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G6" s="8"/>
       <c r="H6" s="9"/>
     </row>
     <row r="7" spans="1:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="10"/>
-      <c r="C7" s="51"/>
+      <c r="C7" s="50"/>
       <c r="D7" s="24" t="s">
         <v>13</v>
       </c>
@@ -800,13 +800,13 @@
         <v>45554</v>
       </c>
       <c r="F7" s="18" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="G7" s="18" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H7" s="45" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
@@ -829,7 +829,7 @@
     </row>
     <row r="9" spans="1:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A9" s="10"/>
-      <c r="C9" s="51"/>
+      <c r="C9" s="50"/>
       <c r="D9" s="24" t="s">
         <v>13</v>
       </c>
@@ -840,10 +840,10 @@
         <v>21</v>
       </c>
       <c r="G9" s="18" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H9" s="45" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.15">
@@ -870,21 +870,21 @@
     </row>
     <row r="11" spans="1:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A11" s="10"/>
-      <c r="C11" s="51"/>
+      <c r="C11" s="50"/>
       <c r="D11" s="24" t="s">
         <v>13</v>
       </c>
       <c r="E11" s="20">
-        <v>45294</v>
+        <v>45568</v>
       </c>
       <c r="F11" s="18" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="G11" s="18" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H11" s="45" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.15">
@@ -900,14 +900,14 @@
         <v>45573</v>
       </c>
       <c r="F12" s="17" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G12" s="8"/>
       <c r="H12" s="9"/>
     </row>
     <row r="13" spans="1:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A13" s="10"/>
-      <c r="C13" s="51"/>
+      <c r="C13" s="50"/>
       <c r="D13" s="24" t="s">
         <v>13</v>
       </c>
@@ -915,11 +915,11 @@
         <v>45575</v>
       </c>
       <c r="F13" s="18" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G13" s="18"/>
       <c r="H13" s="45" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.15">
@@ -947,9 +947,9 @@
     <row r="15" spans="1:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A15" s="10"/>
       <c r="B15" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="C15" s="51"/>
+        <v>36</v>
+      </c>
+      <c r="C15" s="50"/>
       <c r="D15" s="24" t="s">
         <v>13</v>
       </c>
@@ -960,7 +960,7 @@
         <v>28</v>
       </c>
       <c r="G15" s="18" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="H15" s="11"/>
     </row>
@@ -979,7 +979,7 @@
         <v>45587</v>
       </c>
       <c r="F16" s="46" t="s">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="G16" s="8"/>
       <c r="H16" s="9"/>
@@ -989,7 +989,7 @@
       <c r="B17" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C17" s="51"/>
+      <c r="C17" s="50"/>
       <c r="D17" s="24" t="s">
         <v>13</v>
       </c>
@@ -997,7 +997,7 @@
         <v>45589</v>
       </c>
       <c r="F17" s="47" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="G17" s="18"/>
       <c r="H17" s="45"/>
@@ -1017,7 +1017,7 @@
         <v>45594</v>
       </c>
       <c r="F18" s="46" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="G18" s="8"/>
       <c r="H18" s="9"/>
@@ -1027,7 +1027,7 @@
       <c r="B19" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="C19" s="50"/>
+      <c r="C19" s="51"/>
       <c r="D19" s="25" t="s">
         <v>13</v>
       </c>
@@ -1035,11 +1035,11 @@
         <v>45596</v>
       </c>
       <c r="F19" s="48" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="G19" s="13"/>
       <c r="H19" s="43" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="I19" s="10"/>
     </row>
@@ -1056,7 +1056,7 @@
         <v>45601</v>
       </c>
       <c r="F20" s="17" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G20" s="8"/>
       <c r="H20" s="9"/>
@@ -1065,7 +1065,7 @@
     <row r="21" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A21" s="12"/>
       <c r="B21" s="13"/>
-      <c r="C21" s="50"/>
+      <c r="C21" s="51"/>
       <c r="D21" s="25" t="s">
         <v>13</v>
       </c>
@@ -1073,10 +1073,10 @@
         <v>45603</v>
       </c>
       <c r="F21" s="28" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="G21" s="28" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H21" s="14"/>
     </row>
@@ -1105,7 +1105,7 @@
     <row r="23" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A23" s="12"/>
       <c r="B23" s="13"/>
-      <c r="C23" s="50"/>
+      <c r="C23" s="51"/>
       <c r="D23" s="25" t="s">
         <v>13</v>
       </c>
@@ -1113,11 +1113,11 @@
         <v>45610</v>
       </c>
       <c r="F23" s="28" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G23" s="28"/>
       <c r="H23" s="43" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.15">
@@ -1133,17 +1133,17 @@
         <v>45615</v>
       </c>
       <c r="F24" s="17" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="G24" s="17" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H24" s="9"/>
     </row>
     <row r="25" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A25" s="12"/>
       <c r="B25" s="13"/>
-      <c r="C25" s="50"/>
+      <c r="C25" s="51"/>
       <c r="D25" s="25" t="s">
         <v>13</v>
       </c>
@@ -1151,7 +1151,7 @@
         <v>45617</v>
       </c>
       <c r="F25" s="28" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="G25" s="28"/>
       <c r="H25" s="43"/>
@@ -1174,10 +1174,10 @@
         <v>22</v>
       </c>
       <c r="G26" s="17" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H26" s="44" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -1187,7 +1187,7 @@
       <c r="B27" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="C27" s="50"/>
+      <c r="C27" s="51"/>
       <c r="D27" s="35" t="s">
         <v>13</v>
       </c>
@@ -1225,7 +1225,7 @@
       <c r="B29" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="C29" s="50"/>
+      <c r="C29" s="51"/>
       <c r="D29" s="25" t="s">
         <v>13</v>
       </c>
@@ -1259,13 +1259,13 @@
       </c>
       <c r="G30" s="8"/>
       <c r="H30" s="44" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A31" s="12"/>
       <c r="B31" s="13"/>
-      <c r="C31" s="50"/>
+      <c r="C31" s="51"/>
       <c r="D31" s="26"/>
       <c r="E31" s="13"/>
       <c r="F31" s="13"/>
@@ -1274,12 +1274,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="C10:C11"/>
     <mergeCell ref="C26:C27"/>
     <mergeCell ref="C28:C29"/>
     <mergeCell ref="C30:C31"/>
@@ -1289,6 +1283,12 @@
     <mergeCell ref="C20:C21"/>
     <mergeCell ref="C22:C23"/>
     <mergeCell ref="C24:C25"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="C10:C11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/assets/sched.xlsx
+++ b/assets/sched.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10908"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amosca/Documents/teaching/SDS-CS109/assets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abmosca/Documents/Documents/Smith/teaching/F24/SDS-CS109/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C567BD39-B478-AA49-BB5D-62CCC5FB00F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CE5D2885-ED3E-F44E-9D40-9912C94E0C1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="46220" yWindow="1960" windowWidth="28800" windowHeight="15880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sched" sheetId="2" r:id="rId1"/>
@@ -443,10 +443,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -666,8 +666,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E37E44A5-0A5F-414A-B4D4-809AE35C85CF}">
   <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -724,7 +724,7 @@
     <row r="3" spans="1:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="16"/>
       <c r="B3" s="18"/>
-      <c r="C3" s="50"/>
+      <c r="C3" s="51"/>
       <c r="D3" s="24" t="s">
         <v>13</v>
       </c>
@@ -757,7 +757,7 @@
     <row r="5" spans="1:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A5" s="10"/>
       <c r="B5" s="18"/>
-      <c r="C5" s="50"/>
+      <c r="C5" s="51"/>
       <c r="D5" s="24" t="s">
         <v>13</v>
       </c>
@@ -782,17 +782,17 @@
         <v>12</v>
       </c>
       <c r="E6" s="19">
-        <v>45551</v>
+        <v>45552</v>
       </c>
       <c r="F6" s="17" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G6" s="8"/>
       <c r="H6" s="9"/>
     </row>
     <row r="7" spans="1:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="10"/>
-      <c r="C7" s="50"/>
+      <c r="C7" s="51"/>
       <c r="D7" s="24" t="s">
         <v>13</v>
       </c>
@@ -800,7 +800,7 @@
         <v>45554</v>
       </c>
       <c r="F7" s="18" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G7" s="18" t="s">
         <v>30</v>
@@ -829,7 +829,7 @@
     </row>
     <row r="9" spans="1:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A9" s="10"/>
-      <c r="C9" s="50"/>
+      <c r="C9" s="51"/>
       <c r="D9" s="24" t="s">
         <v>13</v>
       </c>
@@ -870,7 +870,7 @@
     </row>
     <row r="11" spans="1:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A11" s="10"/>
-      <c r="C11" s="50"/>
+      <c r="C11" s="51"/>
       <c r="D11" s="24" t="s">
         <v>13</v>
       </c>
@@ -907,7 +907,7 @@
     </row>
     <row r="13" spans="1:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A13" s="10"/>
-      <c r="C13" s="50"/>
+      <c r="C13" s="51"/>
       <c r="D13" s="24" t="s">
         <v>13</v>
       </c>
@@ -949,7 +949,7 @@
       <c r="B15" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="C15" s="50"/>
+      <c r="C15" s="51"/>
       <c r="D15" s="24" t="s">
         <v>13</v>
       </c>
@@ -989,7 +989,7 @@
       <c r="B17" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C17" s="50"/>
+      <c r="C17" s="51"/>
       <c r="D17" s="24" t="s">
         <v>13</v>
       </c>
@@ -1027,7 +1027,7 @@
       <c r="B19" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="C19" s="51"/>
+      <c r="C19" s="50"/>
       <c r="D19" s="25" t="s">
         <v>13</v>
       </c>
@@ -1065,7 +1065,7 @@
     <row r="21" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A21" s="12"/>
       <c r="B21" s="13"/>
-      <c r="C21" s="51"/>
+      <c r="C21" s="50"/>
       <c r="D21" s="25" t="s">
         <v>13</v>
       </c>
@@ -1105,7 +1105,7 @@
     <row r="23" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A23" s="12"/>
       <c r="B23" s="13"/>
-      <c r="C23" s="51"/>
+      <c r="C23" s="50"/>
       <c r="D23" s="25" t="s">
         <v>13</v>
       </c>
@@ -1143,7 +1143,7 @@
     <row r="25" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A25" s="12"/>
       <c r="B25" s="13"/>
-      <c r="C25" s="51"/>
+      <c r="C25" s="50"/>
       <c r="D25" s="25" t="s">
         <v>13</v>
       </c>
@@ -1187,7 +1187,7 @@
       <c r="B27" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="C27" s="51"/>
+      <c r="C27" s="50"/>
       <c r="D27" s="35" t="s">
         <v>13</v>
       </c>
@@ -1225,7 +1225,7 @@
       <c r="B29" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="C29" s="51"/>
+      <c r="C29" s="50"/>
       <c r="D29" s="25" t="s">
         <v>13</v>
       </c>
@@ -1265,7 +1265,7 @@
     <row r="31" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A31" s="12"/>
       <c r="B31" s="13"/>
-      <c r="C31" s="51"/>
+      <c r="C31" s="50"/>
       <c r="D31" s="26"/>
       <c r="E31" s="13"/>
       <c r="F31" s="13"/>
@@ -1274,6 +1274,12 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="C10:C11"/>
     <mergeCell ref="C26:C27"/>
     <mergeCell ref="C28:C29"/>
     <mergeCell ref="C30:C31"/>
@@ -1283,12 +1289,6 @@
     <mergeCell ref="C20:C21"/>
     <mergeCell ref="C22:C23"/>
     <mergeCell ref="C24:C25"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="C10:C11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/assets/sched.xlsx
+++ b/assets/sched.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abmosca/Documents/Documents/Smith/teaching/F24/SDS-CS109/assets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amosca/Documents/teaching/SDS-CS109/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CE5D2885-ED3E-F44E-9D40-9912C94E0C1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73845398-70F8-C042-BADF-C2C476037FA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -91,9 +91,6 @@
     <t>Introduction</t>
   </si>
   <si>
-    <t>MOUNTAIN DAY?</t>
-  </si>
-  <si>
     <t xml:space="preserve">Perception and Color </t>
   </si>
   <si>
@@ -151,9 +148,6 @@
     <t>Visualization Fundamentals pt. 2</t>
   </si>
   <si>
-    <t>Flex day (maybe Vis in Practice)</t>
-  </si>
-  <si>
     <t>Data Humanism</t>
   </si>
   <si>
@@ -191,6 +185,12 @@
   </si>
   <si>
     <t>Mid-Semester Project Design Finalization</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Visualization "In the Wild" </t>
+  </si>
+  <si>
+    <t>MOUNTAIN DAY? (Practicing with Tableau)</t>
   </si>
 </sst>
 </file>
@@ -443,10 +443,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -667,7 +667,7 @@
   <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -724,7 +724,7 @@
     <row r="3" spans="1:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="16"/>
       <c r="B3" s="18"/>
-      <c r="C3" s="51"/>
+      <c r="C3" s="50"/>
       <c r="D3" s="24" t="s">
         <v>13</v>
       </c>
@@ -732,7 +732,7 @@
         <v>45540</v>
       </c>
       <c r="F3" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H3" s="11"/>
     </row>
@@ -749,7 +749,7 @@
         <v>45545</v>
       </c>
       <c r="F4" s="17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G4" s="8"/>
       <c r="H4" s="9"/>
@@ -757,7 +757,7 @@
     <row r="5" spans="1:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A5" s="10"/>
       <c r="B5" s="18"/>
-      <c r="C5" s="51"/>
+      <c r="C5" s="50"/>
       <c r="D5" s="24" t="s">
         <v>13</v>
       </c>
@@ -765,10 +765,10 @@
         <v>45547</v>
       </c>
       <c r="F5" s="18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G5" s="18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H5" s="11"/>
     </row>
@@ -785,14 +785,14 @@
         <v>45552</v>
       </c>
       <c r="F6" s="17" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G6" s="8"/>
       <c r="H6" s="9"/>
     </row>
     <row r="7" spans="1:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="10"/>
-      <c r="C7" s="51"/>
+      <c r="C7" s="50"/>
       <c r="D7" s="24" t="s">
         <v>13</v>
       </c>
@@ -800,13 +800,13 @@
         <v>45554</v>
       </c>
       <c r="F7" s="18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G7" s="18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H7" s="45" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
@@ -822,14 +822,14 @@
         <v>45559</v>
       </c>
       <c r="F8" s="17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G8" s="8"/>
       <c r="H8" s="9"/>
     </row>
     <row r="9" spans="1:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A9" s="10"/>
-      <c r="C9" s="51"/>
+      <c r="C9" s="50"/>
       <c r="D9" s="24" t="s">
         <v>13</v>
       </c>
@@ -837,13 +837,13 @@
         <v>45561</v>
       </c>
       <c r="F9" s="18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G9" s="18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H9" s="45" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.15">
@@ -863,14 +863,14 @@
         <v>45566</v>
       </c>
       <c r="F10" s="32" t="s">
-        <v>19</v>
+        <v>52</v>
       </c>
       <c r="G10" s="33"/>
       <c r="H10" s="34"/>
     </row>
     <row r="11" spans="1:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A11" s="10"/>
-      <c r="C11" s="51"/>
+      <c r="C11" s="50"/>
       <c r="D11" s="24" t="s">
         <v>13</v>
       </c>
@@ -878,13 +878,13 @@
         <v>45568</v>
       </c>
       <c r="F11" s="18" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G11" s="18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H11" s="45" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.15">
@@ -900,14 +900,14 @@
         <v>45573</v>
       </c>
       <c r="F12" s="17" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="G12" s="8"/>
       <c r="H12" s="9"/>
     </row>
     <row r="13" spans="1:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A13" s="10"/>
-      <c r="C13" s="51"/>
+      <c r="C13" s="50"/>
       <c r="D13" s="24" t="s">
         <v>13</v>
       </c>
@@ -915,11 +915,11 @@
         <v>45575</v>
       </c>
       <c r="F13" s="18" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G13" s="18"/>
       <c r="H13" s="45" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.15">
@@ -947,9 +947,9 @@
     <row r="15" spans="1:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A15" s="10"/>
       <c r="B15" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="C15" s="51"/>
+        <v>35</v>
+      </c>
+      <c r="C15" s="50"/>
       <c r="D15" s="24" t="s">
         <v>13</v>
       </c>
@@ -957,10 +957,10 @@
         <v>45582</v>
       </c>
       <c r="F15" s="40" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G15" s="18" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H15" s="11"/>
     </row>
@@ -979,7 +979,7 @@
         <v>45587</v>
       </c>
       <c r="F16" s="46" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G16" s="8"/>
       <c r="H16" s="9"/>
@@ -989,7 +989,7 @@
       <c r="B17" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C17" s="51"/>
+      <c r="C17" s="50"/>
       <c r="D17" s="24" t="s">
         <v>13</v>
       </c>
@@ -997,7 +997,7 @@
         <v>45589</v>
       </c>
       <c r="F17" s="47" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G17" s="18"/>
       <c r="H17" s="45"/>
@@ -1017,7 +1017,7 @@
         <v>45594</v>
       </c>
       <c r="F18" s="46" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G18" s="8"/>
       <c r="H18" s="9"/>
@@ -1027,7 +1027,7 @@
       <c r="B19" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="C19" s="50"/>
+      <c r="C19" s="51"/>
       <c r="D19" s="25" t="s">
         <v>13</v>
       </c>
@@ -1035,11 +1035,11 @@
         <v>45596</v>
       </c>
       <c r="F19" s="48" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G19" s="13"/>
       <c r="H19" s="43" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I19" s="10"/>
     </row>
@@ -1056,7 +1056,7 @@
         <v>45601</v>
       </c>
       <c r="F20" s="17" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G20" s="8"/>
       <c r="H20" s="9"/>
@@ -1065,7 +1065,7 @@
     <row r="21" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A21" s="12"/>
       <c r="B21" s="13"/>
-      <c r="C21" s="50"/>
+      <c r="C21" s="51"/>
       <c r="D21" s="25" t="s">
         <v>13</v>
       </c>
@@ -1073,10 +1073,10 @@
         <v>45603</v>
       </c>
       <c r="F21" s="28" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G21" s="28" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H21" s="14"/>
     </row>
@@ -1105,7 +1105,7 @@
     <row r="23" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A23" s="12"/>
       <c r="B23" s="13"/>
-      <c r="C23" s="50"/>
+      <c r="C23" s="51"/>
       <c r="D23" s="25" t="s">
         <v>13</v>
       </c>
@@ -1113,11 +1113,11 @@
         <v>45610</v>
       </c>
       <c r="F23" s="28" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G23" s="28"/>
       <c r="H23" s="43" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.15">
@@ -1133,17 +1133,17 @@
         <v>45615</v>
       </c>
       <c r="F24" s="17" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G24" s="17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H24" s="9"/>
     </row>
     <row r="25" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A25" s="12"/>
       <c r="B25" s="13"/>
-      <c r="C25" s="50"/>
+      <c r="C25" s="51"/>
       <c r="D25" s="25" t="s">
         <v>13</v>
       </c>
@@ -1151,7 +1151,7 @@
         <v>45617</v>
       </c>
       <c r="F25" s="28" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G25" s="28"/>
       <c r="H25" s="43"/>
@@ -1171,13 +1171,13 @@
         <v>45622</v>
       </c>
       <c r="F26" s="41" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G26" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="H26" s="44" t="s">
         <v>33</v>
-      </c>
-      <c r="H26" s="44" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -1187,7 +1187,7 @@
       <c r="B27" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="C27" s="50"/>
+      <c r="C27" s="51"/>
       <c r="D27" s="35" t="s">
         <v>13</v>
       </c>
@@ -1215,7 +1215,7 @@
         <v>45629</v>
       </c>
       <c r="F28" s="41" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G28" s="17"/>
       <c r="H28" s="44"/>
@@ -1225,7 +1225,7 @@
       <c r="B29" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="C29" s="50"/>
+      <c r="C29" s="51"/>
       <c r="D29" s="25" t="s">
         <v>13</v>
       </c>
@@ -1233,7 +1233,7 @@
         <v>45631</v>
       </c>
       <c r="F29" s="42" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G29" s="28"/>
       <c r="H29" s="14"/>
@@ -1255,17 +1255,17 @@
         <v>45636</v>
       </c>
       <c r="F30" s="41" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G30" s="8"/>
       <c r="H30" s="44" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A31" s="12"/>
       <c r="B31" s="13"/>
-      <c r="C31" s="50"/>
+      <c r="C31" s="51"/>
       <c r="D31" s="26"/>
       <c r="E31" s="13"/>
       <c r="F31" s="13"/>
@@ -1274,12 +1274,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="C10:C11"/>
     <mergeCell ref="C26:C27"/>
     <mergeCell ref="C28:C29"/>
     <mergeCell ref="C30:C31"/>
@@ -1289,6 +1283,12 @@
     <mergeCell ref="C20:C21"/>
     <mergeCell ref="C22:C23"/>
     <mergeCell ref="C24:C25"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="C10:C11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/assets/sched.xlsx
+++ b/assets/sched.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amosca/Documents/teaching/SDS-CS109/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73845398-70F8-C042-BADF-C2C476037FA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B148F3B2-F01F-804F-B312-1589C72076E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="53">
   <si>
     <t>Date</t>
   </si>
@@ -190,7 +190,7 @@
     <t xml:space="preserve">Visualization "In the Wild" </t>
   </si>
   <si>
-    <t>MOUNTAIN DAY? (Practicing with Tableau)</t>
+    <t>Practicing with Tableau</t>
   </si>
 </sst>
 </file>
@@ -368,7 +368,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -443,12 +443,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="16" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -667,7 +674,7 @@
   <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -724,7 +731,7 @@
     <row r="3" spans="1:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="16"/>
       <c r="B3" s="18"/>
-      <c r="C3" s="50"/>
+      <c r="C3" s="51"/>
       <c r="D3" s="24" t="s">
         <v>13</v>
       </c>
@@ -757,7 +764,7 @@
     <row r="5" spans="1:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A5" s="10"/>
       <c r="B5" s="18"/>
-      <c r="C5" s="50"/>
+      <c r="C5" s="51"/>
       <c r="D5" s="24" t="s">
         <v>13</v>
       </c>
@@ -792,7 +799,7 @@
     </row>
     <row r="7" spans="1:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="10"/>
-      <c r="C7" s="50"/>
+      <c r="C7" s="51"/>
       <c r="D7" s="24" t="s">
         <v>13</v>
       </c>
@@ -829,7 +836,7 @@
     </row>
     <row r="9" spans="1:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A9" s="10"/>
-      <c r="C9" s="50"/>
+      <c r="C9" s="51"/>
       <c r="D9" s="24" t="s">
         <v>13</v>
       </c>
@@ -847,30 +854,26 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A10" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="17" t="s">
-        <v>6</v>
-      </c>
+      <c r="A10" s="15"/>
+      <c r="B10" s="17"/>
       <c r="C10" s="49">
         <v>5</v>
       </c>
-      <c r="D10" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" s="31">
+      <c r="D10" s="52" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="53">
         <v>45566</v>
       </c>
-      <c r="F10" s="32" t="s">
+      <c r="F10" s="54" t="s">
         <v>52</v>
       </c>
-      <c r="G10" s="33"/>
-      <c r="H10" s="34"/>
+      <c r="G10" s="55"/>
+      <c r="H10" s="56"/>
     </row>
     <row r="11" spans="1:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A11" s="10"/>
-      <c r="C11" s="50"/>
+      <c r="C11" s="51"/>
       <c r="D11" s="24" t="s">
         <v>13</v>
       </c>
@@ -907,7 +910,7 @@
     </row>
     <row r="13" spans="1:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A13" s="10"/>
-      <c r="C13" s="50"/>
+      <c r="C13" s="51"/>
       <c r="D13" s="24" t="s">
         <v>13</v>
       </c>
@@ -949,7 +952,7 @@
       <c r="B15" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="C15" s="50"/>
+      <c r="C15" s="51"/>
       <c r="D15" s="24" t="s">
         <v>13</v>
       </c>
@@ -989,7 +992,7 @@
       <c r="B17" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C17" s="50"/>
+      <c r="C17" s="51"/>
       <c r="D17" s="24" t="s">
         <v>13</v>
       </c>
@@ -1027,7 +1030,7 @@
       <c r="B19" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="C19" s="51"/>
+      <c r="C19" s="50"/>
       <c r="D19" s="25" t="s">
         <v>13</v>
       </c>
@@ -1065,7 +1068,7 @@
     <row r="21" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A21" s="12"/>
       <c r="B21" s="13"/>
-      <c r="C21" s="51"/>
+      <c r="C21" s="50"/>
       <c r="D21" s="25" t="s">
         <v>13</v>
       </c>
@@ -1105,7 +1108,7 @@
     <row r="23" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A23" s="12"/>
       <c r="B23" s="13"/>
-      <c r="C23" s="51"/>
+      <c r="C23" s="50"/>
       <c r="D23" s="25" t="s">
         <v>13</v>
       </c>
@@ -1143,7 +1146,7 @@
     <row r="25" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A25" s="12"/>
       <c r="B25" s="13"/>
-      <c r="C25" s="51"/>
+      <c r="C25" s="50"/>
       <c r="D25" s="25" t="s">
         <v>13</v>
       </c>
@@ -1187,7 +1190,7 @@
       <c r="B27" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="C27" s="51"/>
+      <c r="C27" s="50"/>
       <c r="D27" s="35" t="s">
         <v>13</v>
       </c>
@@ -1225,7 +1228,7 @@
       <c r="B29" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="C29" s="51"/>
+      <c r="C29" s="50"/>
       <c r="D29" s="25" t="s">
         <v>13</v>
       </c>
@@ -1265,7 +1268,7 @@
     <row r="31" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A31" s="12"/>
       <c r="B31" s="13"/>
-      <c r="C31" s="51"/>
+      <c r="C31" s="50"/>
       <c r="D31" s="26"/>
       <c r="E31" s="13"/>
       <c r="F31" s="13"/>
@@ -1274,6 +1277,12 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="C10:C11"/>
     <mergeCell ref="C26:C27"/>
     <mergeCell ref="C28:C29"/>
     <mergeCell ref="C30:C31"/>
@@ -1283,12 +1292,6 @@
     <mergeCell ref="C20:C21"/>
     <mergeCell ref="C22:C23"/>
     <mergeCell ref="C24:C25"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="C10:C11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/assets/sched.xlsx
+++ b/assets/sched.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amosca/Documents/teaching/SDS-CS109/assets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abmosca/Documents/Documents/Smith/teaching/F24/SDS-CS109/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B148F3B2-F01F-804F-B312-1589C72076E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42A11E61-A4CA-924D-8E81-ABEC722F4C88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2480" yWindow="600" windowWidth="28800" windowHeight="15880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sched" sheetId="2" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="53">
   <si>
     <t>Date</t>
   </si>
@@ -187,10 +187,10 @@
     <t>Mid-Semester Project Design Finalization</t>
   </si>
   <si>
-    <t xml:space="preserve">Visualization "In the Wild" </t>
-  </si>
-  <si>
-    <t>Practicing with Tableau</t>
+    <t>MOUNTAIN DAY!! Practicing with Tableau</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Open Questions in Visualization </t>
   </si>
 </sst>
 </file>
@@ -368,7 +368,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -440,22 +440,16 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -674,7 +668,7 @@
   <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -713,7 +707,7 @@
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="15"/>
       <c r="B2" s="17"/>
-      <c r="C2" s="49">
+      <c r="C2" s="50">
         <v>1</v>
       </c>
       <c r="D2" s="23" t="s">
@@ -746,7 +740,7 @@
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="7"/>
       <c r="B4" s="17"/>
-      <c r="C4" s="49">
+      <c r="C4" s="50">
         <v>2</v>
       </c>
       <c r="D4" s="23" t="s">
@@ -782,7 +776,7 @@
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="7"/>
       <c r="B6" s="17"/>
-      <c r="C6" s="49">
+      <c r="C6" s="50">
         <v>3</v>
       </c>
       <c r="D6" s="23" t="s">
@@ -819,7 +813,7 @@
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" s="7"/>
       <c r="B8" s="8"/>
-      <c r="C8" s="49">
+      <c r="C8" s="50">
         <v>4</v>
       </c>
       <c r="D8" s="23" t="s">
@@ -854,22 +848,26 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A10" s="15"/>
-      <c r="B10" s="17"/>
-      <c r="C10" s="49">
+      <c r="A10" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="50">
         <v>5</v>
       </c>
-      <c r="D10" s="52" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" s="53">
+      <c r="D10" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="31">
         <v>45566</v>
       </c>
-      <c r="F10" s="54" t="s">
-        <v>52</v>
-      </c>
-      <c r="G10" s="55"/>
-      <c r="H10" s="56"/>
+      <c r="F10" s="49" t="s">
+        <v>51</v>
+      </c>
+      <c r="G10" s="33"/>
+      <c r="H10" s="34"/>
     </row>
     <row r="11" spans="1:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A11" s="10"/>
@@ -893,7 +891,7 @@
     <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" s="7"/>
       <c r="B12" s="8"/>
-      <c r="C12" s="49">
+      <c r="C12" s="50">
         <v>6</v>
       </c>
       <c r="D12" s="23" t="s">
@@ -903,7 +901,7 @@
         <v>45573</v>
       </c>
       <c r="F12" s="17" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="G12" s="8"/>
       <c r="H12" s="9"/>
@@ -920,7 +918,9 @@
       <c r="F13" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="G13" s="18"/>
+      <c r="G13" s="18" t="s">
+        <v>45</v>
+      </c>
       <c r="H13" s="45" t="s">
         <v>31</v>
       </c>
@@ -932,7 +932,7 @@
       <c r="B14" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="49">
+      <c r="C14" s="50">
         <v>7</v>
       </c>
       <c r="D14" s="30" t="s">
@@ -962,9 +962,7 @@
       <c r="F15" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="G15" s="18" t="s">
-        <v>45</v>
-      </c>
+      <c r="G15" s="18"/>
       <c r="H15" s="11"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.15">
@@ -972,7 +970,7 @@
       <c r="B16" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C16" s="49">
+      <c r="C16" s="50">
         <v>8</v>
       </c>
       <c r="D16" s="23" t="s">
@@ -1010,7 +1008,7 @@
       <c r="B18" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C18" s="49">
+      <c r="C18" s="50">
         <v>9</v>
       </c>
       <c r="D18" s="23" t="s">
@@ -1030,7 +1028,7 @@
       <c r="B19" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="C19" s="50"/>
+      <c r="C19" s="52"/>
       <c r="D19" s="25" t="s">
         <v>13</v>
       </c>
@@ -1049,7 +1047,7 @@
     <row r="20" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A20" s="7"/>
       <c r="B20" s="8"/>
-      <c r="C20" s="49">
+      <c r="C20" s="50">
         <v>10</v>
       </c>
       <c r="D20" s="23" t="s">
@@ -1059,7 +1057,7 @@
         <v>45601</v>
       </c>
       <c r="F20" s="17" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G20" s="8"/>
       <c r="H20" s="9"/>
@@ -1068,7 +1066,7 @@
     <row r="21" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A21" s="12"/>
       <c r="B21" s="13"/>
-      <c r="C21" s="50"/>
+      <c r="C21" s="52"/>
       <c r="D21" s="25" t="s">
         <v>13</v>
       </c>
@@ -1090,7 +1088,7 @@
       <c r="B22" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="C22" s="49">
+      <c r="C22" s="50">
         <v>11</v>
       </c>
       <c r="D22" s="30" t="s">
@@ -1108,7 +1106,7 @@
     <row r="23" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A23" s="12"/>
       <c r="B23" s="13"/>
-      <c r="C23" s="50"/>
+      <c r="C23" s="52"/>
       <c r="D23" s="25" t="s">
         <v>13</v>
       </c>
@@ -1116,7 +1114,7 @@
         <v>45610</v>
       </c>
       <c r="F23" s="28" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G23" s="28"/>
       <c r="H23" s="43" t="s">
@@ -1126,7 +1124,7 @@
     <row r="24" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A24" s="7"/>
       <c r="B24" s="8"/>
-      <c r="C24" s="49">
+      <c r="C24" s="50">
         <v>12</v>
       </c>
       <c r="D24" s="23" t="s">
@@ -1136,7 +1134,7 @@
         <v>45615</v>
       </c>
       <c r="F24" s="17" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G24" s="17" t="s">
         <v>33</v>
@@ -1146,7 +1144,7 @@
     <row r="25" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A25" s="12"/>
       <c r="B25" s="13"/>
-      <c r="C25" s="50"/>
+      <c r="C25" s="52"/>
       <c r="D25" s="25" t="s">
         <v>13</v>
       </c>
@@ -1154,7 +1152,7 @@
         <v>45617</v>
       </c>
       <c r="F25" s="28" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="G25" s="28"/>
       <c r="H25" s="43"/>
@@ -1164,7 +1162,7 @@
       <c r="B26" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C26" s="49">
+      <c r="C26" s="50">
         <v>13</v>
       </c>
       <c r="D26" s="23" t="s">
@@ -1190,7 +1188,7 @@
       <c r="B27" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="C27" s="50"/>
+      <c r="C27" s="52"/>
       <c r="D27" s="35" t="s">
         <v>13</v>
       </c>
@@ -1208,7 +1206,7 @@
       <c r="B28" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C28" s="49">
+      <c r="C28" s="50">
         <v>14</v>
       </c>
       <c r="D28" s="23" t="s">
@@ -1228,7 +1226,7 @@
       <c r="B29" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="C29" s="50"/>
+      <c r="C29" s="52"/>
       <c r="D29" s="25" t="s">
         <v>13</v>
       </c>
@@ -1248,7 +1246,7 @@
       <c r="B30" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C30" s="49">
+      <c r="C30" s="50">
         <v>15</v>
       </c>
       <c r="D30" s="23" t="s">
@@ -1268,7 +1266,7 @@
     <row r="31" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A31" s="12"/>
       <c r="B31" s="13"/>
-      <c r="C31" s="50"/>
+      <c r="C31" s="52"/>
       <c r="D31" s="26"/>
       <c r="E31" s="13"/>
       <c r="F31" s="13"/>
@@ -1277,12 +1275,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="C10:C11"/>
     <mergeCell ref="C26:C27"/>
     <mergeCell ref="C28:C29"/>
     <mergeCell ref="C30:C31"/>
@@ -1292,6 +1284,12 @@
     <mergeCell ref="C20:C21"/>
     <mergeCell ref="C22:C23"/>
     <mergeCell ref="C24:C25"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="C10:C11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/assets/sched.xlsx
+++ b/assets/sched.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abmosca/Documents/Documents/Smith/teaching/F24/SDS-CS109/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42A11E61-A4CA-924D-8E81-ABEC722F4C88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F569C9A-2ECB-324E-8BCF-358934374F79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2480" yWindow="600" windowWidth="28800" windowHeight="15880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sched" sheetId="2" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="53">
   <si>
     <t>Date</t>
   </si>
@@ -190,7 +190,7 @@
     <t>MOUNTAIN DAY!! Practicing with Tableau</t>
   </si>
   <si>
-    <t xml:space="preserve">Open Questions in Visualization </t>
+    <t xml:space="preserve">Ab Sick - No Class </t>
   </si>
 </sst>
 </file>
@@ -368,7 +368,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -444,12 +444,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -667,8 +668,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E37E44A5-0A5F-414A-B4D4-809AE35C85CF}">
   <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -725,7 +726,7 @@
     <row r="3" spans="1:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="16"/>
       <c r="B3" s="18"/>
-      <c r="C3" s="51"/>
+      <c r="C3" s="52"/>
       <c r="D3" s="24" t="s">
         <v>13</v>
       </c>
@@ -758,7 +759,7 @@
     <row r="5" spans="1:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A5" s="10"/>
       <c r="B5" s="18"/>
-      <c r="C5" s="51"/>
+      <c r="C5" s="52"/>
       <c r="D5" s="24" t="s">
         <v>13</v>
       </c>
@@ -793,7 +794,7 @@
     </row>
     <row r="7" spans="1:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="10"/>
-      <c r="C7" s="51"/>
+      <c r="C7" s="52"/>
       <c r="D7" s="24" t="s">
         <v>13</v>
       </c>
@@ -830,7 +831,7 @@
     </row>
     <row r="9" spans="1:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A9" s="10"/>
-      <c r="C9" s="51"/>
+      <c r="C9" s="52"/>
       <c r="D9" s="24" t="s">
         <v>13</v>
       </c>
@@ -871,7 +872,7 @@
     </row>
     <row r="11" spans="1:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A11" s="10"/>
-      <c r="C11" s="51"/>
+      <c r="C11" s="52"/>
       <c r="D11" s="24" t="s">
         <v>13</v>
       </c>
@@ -889,8 +890,12 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A12" s="7"/>
-      <c r="B12" s="8"/>
+      <c r="A12" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>6</v>
+      </c>
       <c r="C12" s="50">
         <v>6</v>
       </c>
@@ -900,15 +905,15 @@
       <c r="E12" s="19">
         <v>45573</v>
       </c>
-      <c r="F12" s="17" t="s">
-        <v>42</v>
+      <c r="F12" s="53" t="s">
+        <v>52</v>
       </c>
       <c r="G12" s="8"/>
       <c r="H12" s="9"/>
     </row>
     <row r="13" spans="1:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A13" s="10"/>
-      <c r="C13" s="51"/>
+      <c r="C13" s="52"/>
       <c r="D13" s="24" t="s">
         <v>13</v>
       </c>
@@ -952,7 +957,7 @@
       <c r="B15" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="C15" s="51"/>
+      <c r="C15" s="52"/>
       <c r="D15" s="24" t="s">
         <v>13</v>
       </c>
@@ -990,7 +995,7 @@
       <c r="B17" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C17" s="51"/>
+      <c r="C17" s="52"/>
       <c r="D17" s="24" t="s">
         <v>13</v>
       </c>
@@ -1028,7 +1033,7 @@
       <c r="B19" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="C19" s="52"/>
+      <c r="C19" s="51"/>
       <c r="D19" s="25" t="s">
         <v>13</v>
       </c>
@@ -1057,7 +1062,7 @@
         <v>45601</v>
       </c>
       <c r="F20" s="17" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G20" s="8"/>
       <c r="H20" s="9"/>
@@ -1066,7 +1071,7 @@
     <row r="21" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A21" s="12"/>
       <c r="B21" s="13"/>
-      <c r="C21" s="52"/>
+      <c r="C21" s="51"/>
       <c r="D21" s="25" t="s">
         <v>13</v>
       </c>
@@ -1106,7 +1111,7 @@
     <row r="23" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A23" s="12"/>
       <c r="B23" s="13"/>
-      <c r="C23" s="52"/>
+      <c r="C23" s="51"/>
       <c r="D23" s="25" t="s">
         <v>13</v>
       </c>
@@ -1114,7 +1119,7 @@
         <v>45610</v>
       </c>
       <c r="F23" s="28" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G23" s="28"/>
       <c r="H23" s="43" t="s">
@@ -1134,7 +1139,7 @@
         <v>45615</v>
       </c>
       <c r="F24" s="17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G24" s="17" t="s">
         <v>33</v>
@@ -1144,7 +1149,7 @@
     <row r="25" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A25" s="12"/>
       <c r="B25" s="13"/>
-      <c r="C25" s="52"/>
+      <c r="C25" s="51"/>
       <c r="D25" s="25" t="s">
         <v>13</v>
       </c>
@@ -1152,7 +1157,7 @@
         <v>45617</v>
       </c>
       <c r="F25" s="28" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="G25" s="28"/>
       <c r="H25" s="43"/>
@@ -1188,7 +1193,7 @@
       <c r="B27" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="C27" s="52"/>
+      <c r="C27" s="51"/>
       <c r="D27" s="35" t="s">
         <v>13</v>
       </c>
@@ -1226,7 +1231,7 @@
       <c r="B29" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="C29" s="52"/>
+      <c r="C29" s="51"/>
       <c r="D29" s="25" t="s">
         <v>13</v>
       </c>
@@ -1266,7 +1271,7 @@
     <row r="31" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A31" s="12"/>
       <c r="B31" s="13"/>
-      <c r="C31" s="52"/>
+      <c r="C31" s="51"/>
       <c r="D31" s="26"/>
       <c r="E31" s="13"/>
       <c r="F31" s="13"/>
@@ -1275,6 +1280,12 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="C10:C11"/>
     <mergeCell ref="C26:C27"/>
     <mergeCell ref="C28:C29"/>
     <mergeCell ref="C30:C31"/>
@@ -1284,12 +1295,6 @@
     <mergeCell ref="C20:C21"/>
     <mergeCell ref="C22:C23"/>
     <mergeCell ref="C24:C25"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="C10:C11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/assets/sched.xlsx
+++ b/assets/sched.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abmosca/Documents/Documents/Smith/teaching/F24/SDS-CS109/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F569C9A-2ECB-324E-8BCF-358934374F79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42EDD38C-D828-DB4F-AB9F-A2E222DA1069}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -368,7 +368,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -444,13 +444,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -668,8 +667,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E37E44A5-0A5F-414A-B4D4-809AE35C85CF}">
   <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -726,7 +725,7 @@
     <row r="3" spans="1:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="16"/>
       <c r="B3" s="18"/>
-      <c r="C3" s="52"/>
+      <c r="C3" s="51"/>
       <c r="D3" s="24" t="s">
         <v>13</v>
       </c>
@@ -759,7 +758,7 @@
     <row r="5" spans="1:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A5" s="10"/>
       <c r="B5" s="18"/>
-      <c r="C5" s="52"/>
+      <c r="C5" s="51"/>
       <c r="D5" s="24" t="s">
         <v>13</v>
       </c>
@@ -794,7 +793,7 @@
     </row>
     <row r="7" spans="1:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="10"/>
-      <c r="C7" s="52"/>
+      <c r="C7" s="51"/>
       <c r="D7" s="24" t="s">
         <v>13</v>
       </c>
@@ -831,7 +830,7 @@
     </row>
     <row r="9" spans="1:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A9" s="10"/>
-      <c r="C9" s="52"/>
+      <c r="C9" s="51"/>
       <c r="D9" s="24" t="s">
         <v>13</v>
       </c>
@@ -872,7 +871,7 @@
     </row>
     <row r="11" spans="1:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A11" s="10"/>
-      <c r="C11" s="52"/>
+      <c r="C11" s="51"/>
       <c r="D11" s="24" t="s">
         <v>13</v>
       </c>
@@ -899,21 +898,21 @@
       <c r="C12" s="50">
         <v>6</v>
       </c>
-      <c r="D12" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="E12" s="19">
+      <c r="D12" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="31">
         <v>45573</v>
       </c>
-      <c r="F12" s="53" t="s">
+      <c r="F12" s="32" t="s">
         <v>52</v>
       </c>
-      <c r="G12" s="8"/>
-      <c r="H12" s="9"/>
+      <c r="G12" s="33"/>
+      <c r="H12" s="34"/>
     </row>
     <row r="13" spans="1:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A13" s="10"/>
-      <c r="C13" s="52"/>
+      <c r="C13" s="51"/>
       <c r="D13" s="24" t="s">
         <v>13</v>
       </c>
@@ -926,9 +925,7 @@
       <c r="G13" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="H13" s="45" t="s">
-        <v>31</v>
-      </c>
+      <c r="H13" s="45"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" s="15" t="s">
@@ -957,7 +954,7 @@
       <c r="B15" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="C15" s="52"/>
+      <c r="C15" s="51"/>
       <c r="D15" s="24" t="s">
         <v>13</v>
       </c>
@@ -995,7 +992,7 @@
       <c r="B17" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C17" s="52"/>
+      <c r="C17" s="51"/>
       <c r="D17" s="24" t="s">
         <v>13</v>
       </c>
@@ -1033,7 +1030,7 @@
       <c r="B19" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="C19" s="51"/>
+      <c r="C19" s="52"/>
       <c r="D19" s="25" t="s">
         <v>13</v>
       </c>
@@ -1071,7 +1068,7 @@
     <row r="21" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A21" s="12"/>
       <c r="B21" s="13"/>
-      <c r="C21" s="51"/>
+      <c r="C21" s="52"/>
       <c r="D21" s="25" t="s">
         <v>13</v>
       </c>
@@ -1084,7 +1081,9 @@
       <c r="G21" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="H21" s="14"/>
+      <c r="H21" s="43" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A22" s="15" t="s">
@@ -1111,7 +1110,7 @@
     <row r="23" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A23" s="12"/>
       <c r="B23" s="13"/>
-      <c r="C23" s="51"/>
+      <c r="C23" s="52"/>
       <c r="D23" s="25" t="s">
         <v>13</v>
       </c>
@@ -1149,7 +1148,7 @@
     <row r="25" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A25" s="12"/>
       <c r="B25" s="13"/>
-      <c r="C25" s="51"/>
+      <c r="C25" s="52"/>
       <c r="D25" s="25" t="s">
         <v>13</v>
       </c>
@@ -1193,7 +1192,7 @@
       <c r="B27" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="C27" s="51"/>
+      <c r="C27" s="52"/>
       <c r="D27" s="35" t="s">
         <v>13</v>
       </c>
@@ -1231,7 +1230,7 @@
       <c r="B29" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="C29" s="51"/>
+      <c r="C29" s="52"/>
       <c r="D29" s="25" t="s">
         <v>13</v>
       </c>
@@ -1271,7 +1270,7 @@
     <row r="31" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A31" s="12"/>
       <c r="B31" s="13"/>
-      <c r="C31" s="51"/>
+      <c r="C31" s="52"/>
       <c r="D31" s="26"/>
       <c r="E31" s="13"/>
       <c r="F31" s="13"/>
@@ -1280,12 +1279,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="C10:C11"/>
     <mergeCell ref="C26:C27"/>
     <mergeCell ref="C28:C29"/>
     <mergeCell ref="C30:C31"/>
@@ -1295,6 +1288,12 @@
     <mergeCell ref="C20:C21"/>
     <mergeCell ref="C22:C23"/>
     <mergeCell ref="C24:C25"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="C10:C11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/assets/sched.xlsx
+++ b/assets/sched.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abmosca/Documents/Documents/Smith/teaching/F24/SDS-CS109/assets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amosca/Documents/teaching/SDS-CS109/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42EDD38C-D828-DB4F-AB9F-A2E222DA1069}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B362E220-748F-674B-A21B-E2B504DC0C38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="50000" yWindow="1060" windowWidth="26940" windowHeight="18800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sched" sheetId="2" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="54">
   <si>
     <t>Date</t>
   </si>
@@ -97,18 +97,9 @@
     <t>Ethical and Deceptive Visualization</t>
   </si>
   <si>
-    <t>FP Workshop - Personas and Paper Prototyping</t>
-  </si>
-  <si>
     <t xml:space="preserve">Final Project Demonstrations </t>
   </si>
   <si>
-    <t>FP Workshop - Getting off the Ground</t>
-  </si>
-  <si>
-    <t>FP Workshop - Peer Feedback</t>
-  </si>
-  <si>
     <t xml:space="preserve">Getting Started with Tableau </t>
   </si>
   <si>
@@ -151,9 +142,6 @@
     <t>Data Humanism</t>
   </si>
   <si>
-    <t>Adding Detail and Context</t>
-  </si>
-  <si>
     <t>Basic Charts</t>
   </si>
   <si>
@@ -163,9 +151,6 @@
     <t>Interactive Visualization</t>
   </si>
   <si>
-    <t xml:space="preserve">Text as Data </t>
-  </si>
-  <si>
     <t>Persuasive Visualization</t>
   </si>
   <si>
@@ -191,6 +176,24 @@
   </si>
   <si>
     <t xml:space="preserve">Ab Sick - No Class </t>
+  </si>
+  <si>
+    <t>proj</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adding Detail and Context </t>
+  </si>
+  <si>
+    <t>Personas and Prototypes</t>
+  </si>
+  <si>
+    <t>fp04</t>
+  </si>
+  <si>
+    <t>FP Workshop - Prototype Testing &amp; Feedback</t>
+  </si>
+  <si>
+    <t>Text as Data</t>
   </si>
 </sst>
 </file>
@@ -368,7 +371,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -440,16 +443,17 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -667,8 +671,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E37E44A5-0A5F-414A-B4D4-809AE35C85CF}">
   <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -707,7 +711,7 @@
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="15"/>
       <c r="B2" s="17"/>
-      <c r="C2" s="50">
+      <c r="C2" s="49">
         <v>1</v>
       </c>
       <c r="D2" s="23" t="s">
@@ -733,14 +737,14 @@
         <v>45540</v>
       </c>
       <c r="F3" s="18" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="H3" s="11"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="7"/>
       <c r="B4" s="17"/>
-      <c r="C4" s="50">
+      <c r="C4" s="49">
         <v>2</v>
       </c>
       <c r="D4" s="23" t="s">
@@ -750,7 +754,7 @@
         <v>45545</v>
       </c>
       <c r="F4" s="17" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G4" s="8"/>
       <c r="H4" s="9"/>
@@ -766,17 +770,17 @@
         <v>45547</v>
       </c>
       <c r="F5" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="18" t="s">
         <v>25</v>
-      </c>
-      <c r="G5" s="18" t="s">
-        <v>28</v>
       </c>
       <c r="H5" s="11"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="7"/>
       <c r="B6" s="17"/>
-      <c r="C6" s="50">
+      <c r="C6" s="49">
         <v>3</v>
       </c>
       <c r="D6" s="23" t="s">
@@ -786,7 +790,7 @@
         <v>45552</v>
       </c>
       <c r="F6" s="17" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G6" s="8"/>
       <c r="H6" s="9"/>
@@ -801,19 +805,19 @@
         <v>45554</v>
       </c>
       <c r="F7" s="18" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G7" s="18" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H7" s="45" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" s="7"/>
       <c r="B8" s="8"/>
-      <c r="C8" s="50">
+      <c r="C8" s="49">
         <v>4</v>
       </c>
       <c r="D8" s="23" t="s">
@@ -841,10 +845,10 @@
         <v>20</v>
       </c>
       <c r="G9" s="18" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H9" s="45" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.15">
@@ -854,7 +858,7 @@
       <c r="B10" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="50">
+      <c r="C10" s="49">
         <v>5</v>
       </c>
       <c r="D10" s="30" t="s">
@@ -863,8 +867,8 @@
       <c r="E10" s="31">
         <v>45566</v>
       </c>
-      <c r="F10" s="49" t="s">
-        <v>51</v>
+      <c r="F10" s="32" t="s">
+        <v>46</v>
       </c>
       <c r="G10" s="33"/>
       <c r="H10" s="34"/>
@@ -879,13 +883,13 @@
         <v>45568</v>
       </c>
       <c r="F11" s="18" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G11" s="18" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H11" s="45" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.15">
@@ -895,7 +899,7 @@
       <c r="B12" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="50">
+      <c r="C12" s="49">
         <v>6</v>
       </c>
       <c r="D12" s="30" t="s">
@@ -905,7 +909,7 @@
         <v>45573</v>
       </c>
       <c r="F12" s="32" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="G12" s="33"/>
       <c r="H12" s="34"/>
@@ -920,10 +924,10 @@
         <v>45575</v>
       </c>
       <c r="F13" s="18" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G13" s="18" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="H13" s="45"/>
     </row>
@@ -934,7 +938,7 @@
       <c r="B14" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="50">
+      <c r="C14" s="49">
         <v>7</v>
       </c>
       <c r="D14" s="30" t="s">
@@ -952,7 +956,7 @@
     <row r="15" spans="1:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A15" s="10"/>
       <c r="B15" s="18" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C15" s="51"/>
       <c r="D15" s="24" t="s">
@@ -962,7 +966,7 @@
         <v>45582</v>
       </c>
       <c r="F15" s="40" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="G15" s="18"/>
       <c r="H15" s="11"/>
@@ -972,7 +976,7 @@
       <c r="B16" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C16" s="50">
+      <c r="C16" s="49">
         <v>8</v>
       </c>
       <c r="D16" s="23" t="s">
@@ -982,7 +986,7 @@
         <v>45587</v>
       </c>
       <c r="F16" s="46" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="G16" s="8"/>
       <c r="H16" s="9"/>
@@ -1000,7 +1004,7 @@
         <v>45589</v>
       </c>
       <c r="F17" s="47" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="G17" s="18"/>
       <c r="H17" s="45"/>
@@ -1010,7 +1014,7 @@
       <c r="B18" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C18" s="50">
+      <c r="C18" s="49">
         <v>9</v>
       </c>
       <c r="D18" s="23" t="s">
@@ -1020,7 +1024,7 @@
         <v>45594</v>
       </c>
       <c r="F18" s="46" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="G18" s="8"/>
       <c r="H18" s="9"/>
@@ -1030,7 +1034,7 @@
       <c r="B19" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="C19" s="52"/>
+      <c r="C19" s="50"/>
       <c r="D19" s="25" t="s">
         <v>13</v>
       </c>
@@ -1038,18 +1042,18 @@
         <v>45596</v>
       </c>
       <c r="F19" s="48" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="G19" s="13"/>
       <c r="H19" s="43" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="I19" s="10"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A20" s="7"/>
       <c r="B20" s="8"/>
-      <c r="C20" s="50">
+      <c r="C20" s="49">
         <v>10</v>
       </c>
       <c r="D20" s="23" t="s">
@@ -1059,7 +1063,7 @@
         <v>45601</v>
       </c>
       <c r="F20" s="17" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G20" s="8"/>
       <c r="H20" s="9"/>
@@ -1068,7 +1072,7 @@
     <row r="21" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A21" s="12"/>
       <c r="B21" s="13"/>
-      <c r="C21" s="52"/>
+      <c r="C21" s="50"/>
       <c r="D21" s="25" t="s">
         <v>13</v>
       </c>
@@ -1076,13 +1080,13 @@
         <v>45603</v>
       </c>
       <c r="F21" s="28" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="G21" s="28" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H21" s="43" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.15">
@@ -1092,7 +1096,7 @@
       <c r="B22" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="C22" s="50">
+      <c r="C22" s="49">
         <v>11</v>
       </c>
       <c r="D22" s="30" t="s">
@@ -1109,26 +1113,28 @@
     </row>
     <row r="23" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A23" s="12"/>
-      <c r="B23" s="13"/>
-      <c r="C23" s="52"/>
+      <c r="B23" s="28"/>
+      <c r="C23" s="50"/>
       <c r="D23" s="25" t="s">
         <v>13</v>
       </c>
       <c r="E23" s="21">
         <v>45610</v>
       </c>
-      <c r="F23" s="28" t="s">
-        <v>39</v>
-      </c>
-      <c r="G23" s="28"/>
+      <c r="F23" s="52" t="s">
+        <v>50</v>
+      </c>
+      <c r="G23" s="28" t="s">
+        <v>30</v>
+      </c>
       <c r="H23" s="43" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A24" s="7"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="50">
+      <c r="B24" s="17"/>
+      <c r="C24" s="49">
         <v>12</v>
       </c>
       <c r="D24" s="23" t="s">
@@ -1138,35 +1144,37 @@
         <v>45615</v>
       </c>
       <c r="F24" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="G24" s="17" t="s">
-        <v>33</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="G24" s="17"/>
       <c r="H24" s="9"/>
     </row>
     <row r="25" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A25" s="12"/>
-      <c r="B25" s="13"/>
-      <c r="C25" s="52"/>
+      <c r="B25" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="C25" s="50"/>
       <c r="D25" s="25" t="s">
         <v>13</v>
       </c>
       <c r="E25" s="21">
         <v>45617</v>
       </c>
-      <c r="F25" s="28" t="s">
-        <v>44</v>
-      </c>
-      <c r="G25" s="28"/>
-      <c r="H25" s="43"/>
+      <c r="F25" s="42" t="s">
+        <v>52</v>
+      </c>
+      <c r="G25" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="H25" s="43" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A26" s="7"/>
-      <c r="B26" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="C26" s="50">
+      <c r="B26" s="17"/>
+      <c r="C26" s="49">
         <v>13</v>
       </c>
       <c r="D26" s="23" t="s">
@@ -1175,14 +1183,14 @@
       <c r="E26" s="19">
         <v>45622</v>
       </c>
-      <c r="F26" s="41" t="s">
-        <v>21</v>
+      <c r="F26" s="53" t="s">
+        <v>53</v>
       </c>
       <c r="G26" s="17" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="H26" s="44" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -1192,7 +1200,7 @@
       <c r="B27" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="C27" s="52"/>
+      <c r="C27" s="50"/>
       <c r="D27" s="35" t="s">
         <v>13</v>
       </c>
@@ -1207,10 +1215,8 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A28" s="7"/>
-      <c r="B28" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="C28" s="50">
+      <c r="B28" s="17"/>
+      <c r="C28" s="49">
         <v>14</v>
       </c>
       <c r="D28" s="23" t="s">
@@ -1219,18 +1225,20 @@
       <c r="E28" s="19">
         <v>45629</v>
       </c>
-      <c r="F28" s="41" t="s">
-        <v>23</v>
+      <c r="F28" s="53" t="s">
+        <v>39</v>
       </c>
       <c r="G28" s="17"/>
       <c r="H28" s="44"/>
     </row>
     <row r="29" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="12"/>
+      <c r="A29" s="29" t="s">
+        <v>10</v>
+      </c>
       <c r="B29" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="C29" s="52"/>
+      <c r="C29" s="50"/>
       <c r="D29" s="25" t="s">
         <v>13</v>
       </c>
@@ -1238,10 +1246,12 @@
         <v>45631</v>
       </c>
       <c r="F29" s="42" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="G29" s="28"/>
-      <c r="H29" s="14"/>
+      <c r="H29" s="43" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A30" s="15" t="s">
@@ -1250,7 +1260,7 @@
       <c r="B30" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C30" s="50">
+      <c r="C30" s="49">
         <v>15</v>
       </c>
       <c r="D30" s="23" t="s">
@@ -1260,17 +1270,15 @@
         <v>45636</v>
       </c>
       <c r="F30" s="41" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G30" s="8"/>
-      <c r="H30" s="44" t="s">
-        <v>32</v>
-      </c>
+      <c r="H30" s="44"/>
     </row>
     <row r="31" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A31" s="12"/>
       <c r="B31" s="13"/>
-      <c r="C31" s="52"/>
+      <c r="C31" s="50"/>
       <c r="D31" s="26"/>
       <c r="E31" s="13"/>
       <c r="F31" s="13"/>
@@ -1279,6 +1287,12 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="C10:C11"/>
     <mergeCell ref="C26:C27"/>
     <mergeCell ref="C28:C29"/>
     <mergeCell ref="C30:C31"/>
@@ -1288,12 +1302,6 @@
     <mergeCell ref="C20:C21"/>
     <mergeCell ref="C22:C23"/>
     <mergeCell ref="C24:C25"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="C10:C11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/assets/sched.xlsx
+++ b/assets/sched.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11027"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amosca/Documents/teaching/SDS-CS109/assets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abmosca/Documents/Smith/teaching/SDS-CS109/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B362E220-748F-674B-A21B-E2B504DC0C38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1A889A65-DD68-3E45-843D-495BF2E40DF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="50000" yWindow="1060" windowWidth="26940" windowHeight="18800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sched" sheetId="2" r:id="rId1"/>
@@ -181,9 +181,6 @@
     <t>proj</t>
   </si>
   <si>
-    <t xml:space="preserve">Adding Detail and Context </t>
-  </si>
-  <si>
     <t>Personas and Prototypes</t>
   </si>
   <si>
@@ -194,6 +191,9 @@
   </si>
   <si>
     <t>Text as Data</t>
+  </si>
+  <si>
+    <t>Advanced Tableau</t>
   </si>
 </sst>
 </file>
@@ -371,7 +371,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -446,14 +446,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -672,7 +670,7 @@
   <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A9" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -729,7 +727,7 @@
     <row r="3" spans="1:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="16"/>
       <c r="B3" s="18"/>
-      <c r="C3" s="51"/>
+      <c r="C3" s="50"/>
       <c r="D3" s="24" t="s">
         <v>13</v>
       </c>
@@ -762,7 +760,7 @@
     <row r="5" spans="1:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A5" s="10"/>
       <c r="B5" s="18"/>
-      <c r="C5" s="51"/>
+      <c r="C5" s="50"/>
       <c r="D5" s="24" t="s">
         <v>13</v>
       </c>
@@ -797,7 +795,7 @@
     </row>
     <row r="7" spans="1:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="10"/>
-      <c r="C7" s="51"/>
+      <c r="C7" s="50"/>
       <c r="D7" s="24" t="s">
         <v>13</v>
       </c>
@@ -834,7 +832,7 @@
     </row>
     <row r="9" spans="1:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A9" s="10"/>
-      <c r="C9" s="51"/>
+      <c r="C9" s="50"/>
       <c r="D9" s="24" t="s">
         <v>13</v>
       </c>
@@ -875,7 +873,7 @@
     </row>
     <row r="11" spans="1:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A11" s="10"/>
-      <c r="C11" s="51"/>
+      <c r="C11" s="50"/>
       <c r="D11" s="24" t="s">
         <v>13</v>
       </c>
@@ -916,7 +914,7 @@
     </row>
     <row r="13" spans="1:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A13" s="10"/>
-      <c r="C13" s="51"/>
+      <c r="C13" s="50"/>
       <c r="D13" s="24" t="s">
         <v>13</v>
       </c>
@@ -958,7 +956,7 @@
       <c r="B15" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="C15" s="51"/>
+      <c r="C15" s="50"/>
       <c r="D15" s="24" t="s">
         <v>13</v>
       </c>
@@ -996,7 +994,7 @@
       <c r="B17" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C17" s="51"/>
+      <c r="C17" s="50"/>
       <c r="D17" s="24" t="s">
         <v>13</v>
       </c>
@@ -1034,7 +1032,7 @@
       <c r="B19" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="C19" s="50"/>
+      <c r="C19" s="51"/>
       <c r="D19" s="25" t="s">
         <v>13</v>
       </c>
@@ -1072,7 +1070,7 @@
     <row r="21" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A21" s="12"/>
       <c r="B21" s="13"/>
-      <c r="C21" s="50"/>
+      <c r="C21" s="51"/>
       <c r="D21" s="25" t="s">
         <v>13</v>
       </c>
@@ -1114,15 +1112,15 @@
     <row r="23" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A23" s="12"/>
       <c r="B23" s="28"/>
-      <c r="C23" s="50"/>
+      <c r="C23" s="51"/>
       <c r="D23" s="25" t="s">
         <v>13</v>
       </c>
       <c r="E23" s="21">
         <v>45610</v>
       </c>
-      <c r="F23" s="52" t="s">
-        <v>50</v>
+      <c r="F23" s="28" t="s">
+        <v>49</v>
       </c>
       <c r="G23" s="28" t="s">
         <v>30</v>
@@ -1144,7 +1142,7 @@
         <v>45615</v>
       </c>
       <c r="F24" s="17" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="G24" s="17"/>
       <c r="H24" s="9"/>
@@ -1154,7 +1152,7 @@
       <c r="B25" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="C25" s="50"/>
+      <c r="C25" s="51"/>
       <c r="D25" s="25" t="s">
         <v>13</v>
       </c>
@@ -1162,7 +1160,7 @@
         <v>45617</v>
       </c>
       <c r="F25" s="42" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G25" s="28" t="s">
         <v>29</v>
@@ -1183,11 +1181,11 @@
       <c r="E26" s="19">
         <v>45622</v>
       </c>
-      <c r="F26" s="53" t="s">
-        <v>53</v>
+      <c r="F26" s="17" t="s">
+        <v>52</v>
       </c>
       <c r="G26" s="17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H26" s="44" t="s">
         <v>29</v>
@@ -1200,7 +1198,7 @@
       <c r="B27" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="C27" s="50"/>
+      <c r="C27" s="51"/>
       <c r="D27" s="35" t="s">
         <v>13</v>
       </c>
@@ -1225,7 +1223,7 @@
       <c r="E28" s="19">
         <v>45629</v>
       </c>
-      <c r="F28" s="53" t="s">
+      <c r="F28" s="17" t="s">
         <v>39</v>
       </c>
       <c r="G28" s="17"/>
@@ -1238,7 +1236,7 @@
       <c r="B29" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="C29" s="50"/>
+      <c r="C29" s="51"/>
       <c r="D29" s="25" t="s">
         <v>13</v>
       </c>
@@ -1250,7 +1248,7 @@
       </c>
       <c r="G29" s="28"/>
       <c r="H29" s="43" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.15">
@@ -1278,7 +1276,7 @@
     <row r="31" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A31" s="12"/>
       <c r="B31" s="13"/>
-      <c r="C31" s="50"/>
+      <c r="C31" s="51"/>
       <c r="D31" s="26"/>
       <c r="E31" s="13"/>
       <c r="F31" s="13"/>
@@ -1287,12 +1285,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="C10:C11"/>
     <mergeCell ref="C26:C27"/>
     <mergeCell ref="C28:C29"/>
     <mergeCell ref="C30:C31"/>
@@ -1302,6 +1294,12 @@
     <mergeCell ref="C20:C21"/>
     <mergeCell ref="C22:C23"/>
     <mergeCell ref="C24:C25"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="C10:C11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/assets/sched.xlsx
+++ b/assets/sched.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11027"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abmosca/Documents/Smith/teaching/SDS-CS109/assets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amosca/Library/Mobile Documents/com~apple~CloudDocs/Documents/Smith/teaching/SDS-CS109/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1A889A65-DD68-3E45-843D-495BF2E40DF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2511CE26-EF68-0A45-8E09-FE3390E35702}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -190,10 +190,10 @@
     <t>FP Workshop - Prototype Testing &amp; Feedback</t>
   </si>
   <si>
-    <t>Text as Data</t>
-  </si>
-  <si>
     <t>Advanced Tableau</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Text as Data </t>
   </si>
 </sst>
 </file>
@@ -446,10 +446,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -670,7 +670,7 @@
   <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A9" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -727,7 +727,7 @@
     <row r="3" spans="1:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="16"/>
       <c r="B3" s="18"/>
-      <c r="C3" s="50"/>
+      <c r="C3" s="51"/>
       <c r="D3" s="24" t="s">
         <v>13</v>
       </c>
@@ -760,7 +760,7 @@
     <row r="5" spans="1:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A5" s="10"/>
       <c r="B5" s="18"/>
-      <c r="C5" s="50"/>
+      <c r="C5" s="51"/>
       <c r="D5" s="24" t="s">
         <v>13</v>
       </c>
@@ -795,7 +795,7 @@
     </row>
     <row r="7" spans="1:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="10"/>
-      <c r="C7" s="50"/>
+      <c r="C7" s="51"/>
       <c r="D7" s="24" t="s">
         <v>13</v>
       </c>
@@ -832,7 +832,7 @@
     </row>
     <row r="9" spans="1:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A9" s="10"/>
-      <c r="C9" s="50"/>
+      <c r="C9" s="51"/>
       <c r="D9" s="24" t="s">
         <v>13</v>
       </c>
@@ -873,7 +873,7 @@
     </row>
     <row r="11" spans="1:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A11" s="10"/>
-      <c r="C11" s="50"/>
+      <c r="C11" s="51"/>
       <c r="D11" s="24" t="s">
         <v>13</v>
       </c>
@@ -914,7 +914,7 @@
     </row>
     <row r="13" spans="1:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A13" s="10"/>
-      <c r="C13" s="50"/>
+      <c r="C13" s="51"/>
       <c r="D13" s="24" t="s">
         <v>13</v>
       </c>
@@ -956,7 +956,7 @@
       <c r="B15" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="C15" s="50"/>
+      <c r="C15" s="51"/>
       <c r="D15" s="24" t="s">
         <v>13</v>
       </c>
@@ -994,7 +994,7 @@
       <c r="B17" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C17" s="50"/>
+      <c r="C17" s="51"/>
       <c r="D17" s="24" t="s">
         <v>13</v>
       </c>
@@ -1032,7 +1032,7 @@
       <c r="B19" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="C19" s="51"/>
+      <c r="C19" s="50"/>
       <c r="D19" s="25" t="s">
         <v>13</v>
       </c>
@@ -1070,7 +1070,7 @@
     <row r="21" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A21" s="12"/>
       <c r="B21" s="13"/>
-      <c r="C21" s="51"/>
+      <c r="C21" s="50"/>
       <c r="D21" s="25" t="s">
         <v>13</v>
       </c>
@@ -1112,7 +1112,7 @@
     <row r="23" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A23" s="12"/>
       <c r="B23" s="28"/>
-      <c r="C23" s="51"/>
+      <c r="C23" s="50"/>
       <c r="D23" s="25" t="s">
         <v>13</v>
       </c>
@@ -1142,7 +1142,7 @@
         <v>45615</v>
       </c>
       <c r="F24" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G24" s="17"/>
       <c r="H24" s="9"/>
@@ -1152,7 +1152,7 @@
       <c r="B25" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="C25" s="51"/>
+      <c r="C25" s="50"/>
       <c r="D25" s="25" t="s">
         <v>13</v>
       </c>
@@ -1182,7 +1182,7 @@
         <v>45622</v>
       </c>
       <c r="F26" s="17" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="G26" s="17" t="s">
         <v>50</v>
@@ -1198,7 +1198,7 @@
       <c r="B27" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="C27" s="51"/>
+      <c r="C27" s="50"/>
       <c r="D27" s="35" t="s">
         <v>13</v>
       </c>
@@ -1224,7 +1224,7 @@
         <v>45629</v>
       </c>
       <c r="F28" s="17" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="G28" s="17"/>
       <c r="H28" s="44"/>
@@ -1236,7 +1236,7 @@
       <c r="B29" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="C29" s="51"/>
+      <c r="C29" s="50"/>
       <c r="D29" s="25" t="s">
         <v>13</v>
       </c>
@@ -1276,7 +1276,7 @@
     <row r="31" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A31" s="12"/>
       <c r="B31" s="13"/>
-      <c r="C31" s="51"/>
+      <c r="C31" s="50"/>
       <c r="D31" s="26"/>
       <c r="E31" s="13"/>
       <c r="F31" s="13"/>
@@ -1285,6 +1285,12 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="C10:C11"/>
     <mergeCell ref="C26:C27"/>
     <mergeCell ref="C28:C29"/>
     <mergeCell ref="C30:C31"/>
@@ -1294,12 +1300,6 @@
     <mergeCell ref="C20:C21"/>
     <mergeCell ref="C22:C23"/>
     <mergeCell ref="C24:C25"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="C10:C11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/assets/sched.xlsx
+++ b/assets/sched.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amosca/Library/Mobile Documents/com~apple~CloudDocs/Documents/Smith/teaching/SDS-CS109/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2511CE26-EF68-0A45-8E09-FE3390E35702}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24C9B86B-FC2A-3241-B269-0BF66DDB9A96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -151,9 +151,6 @@
     <t>Interactive Visualization</t>
   </si>
   <si>
-    <t>Persuasive Visualization</t>
-  </si>
-  <si>
     <t>mp</t>
   </si>
   <si>
@@ -194,6 +191,9 @@
   </si>
   <si>
     <t xml:space="preserve">Text as Data </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Persuasive Vis </t>
   </si>
 </sst>
 </file>
@@ -446,10 +446,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -669,7 +669,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E37E44A5-0A5F-414A-B4D4-809AE35C85CF}">
   <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
       <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
@@ -727,7 +727,7 @@
     <row r="3" spans="1:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="16"/>
       <c r="B3" s="18"/>
-      <c r="C3" s="51"/>
+      <c r="C3" s="50"/>
       <c r="D3" s="24" t="s">
         <v>13</v>
       </c>
@@ -760,7 +760,7 @@
     <row r="5" spans="1:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A5" s="10"/>
       <c r="B5" s="18"/>
-      <c r="C5" s="51"/>
+      <c r="C5" s="50"/>
       <c r="D5" s="24" t="s">
         <v>13</v>
       </c>
@@ -795,7 +795,7 @@
     </row>
     <row r="7" spans="1:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="10"/>
-      <c r="C7" s="51"/>
+      <c r="C7" s="50"/>
       <c r="D7" s="24" t="s">
         <v>13</v>
       </c>
@@ -832,7 +832,7 @@
     </row>
     <row r="9" spans="1:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A9" s="10"/>
-      <c r="C9" s="51"/>
+      <c r="C9" s="50"/>
       <c r="D9" s="24" t="s">
         <v>13</v>
       </c>
@@ -866,14 +866,14 @@
         <v>45566</v>
       </c>
       <c r="F10" s="32" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G10" s="33"/>
       <c r="H10" s="34"/>
     </row>
     <row r="11" spans="1:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A11" s="10"/>
-      <c r="C11" s="51"/>
+      <c r="C11" s="50"/>
       <c r="D11" s="24" t="s">
         <v>13</v>
       </c>
@@ -907,14 +907,14 @@
         <v>45573</v>
       </c>
       <c r="F12" s="32" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G12" s="33"/>
       <c r="H12" s="34"/>
     </row>
     <row r="13" spans="1:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A13" s="10"/>
-      <c r="C13" s="51"/>
+      <c r="C13" s="50"/>
       <c r="D13" s="24" t="s">
         <v>13</v>
       </c>
@@ -925,7 +925,7 @@
         <v>35</v>
       </c>
       <c r="G13" s="18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H13" s="45"/>
     </row>
@@ -956,7 +956,7 @@
       <c r="B15" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="C15" s="51"/>
+      <c r="C15" s="50"/>
       <c r="D15" s="24" t="s">
         <v>13</v>
       </c>
@@ -984,7 +984,7 @@
         <v>45587</v>
       </c>
       <c r="F16" s="46" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G16" s="8"/>
       <c r="H16" s="9"/>
@@ -994,7 +994,7 @@
       <c r="B17" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C17" s="51"/>
+      <c r="C17" s="50"/>
       <c r="D17" s="24" t="s">
         <v>13</v>
       </c>
@@ -1002,7 +1002,7 @@
         <v>45589</v>
       </c>
       <c r="F17" s="47" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G17" s="18"/>
       <c r="H17" s="45"/>
@@ -1022,7 +1022,7 @@
         <v>45594</v>
       </c>
       <c r="F18" s="46" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G18" s="8"/>
       <c r="H18" s="9"/>
@@ -1032,7 +1032,7 @@
       <c r="B19" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="C19" s="50"/>
+      <c r="C19" s="51"/>
       <c r="D19" s="25" t="s">
         <v>13</v>
       </c>
@@ -1040,11 +1040,11 @@
         <v>45596</v>
       </c>
       <c r="F19" s="48" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G19" s="13"/>
       <c r="H19" s="43" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I19" s="10"/>
     </row>
@@ -1070,7 +1070,7 @@
     <row r="21" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A21" s="12"/>
       <c r="B21" s="13"/>
-      <c r="C21" s="50"/>
+      <c r="C21" s="51"/>
       <c r="D21" s="25" t="s">
         <v>13</v>
       </c>
@@ -1078,7 +1078,7 @@
         <v>45603</v>
       </c>
       <c r="F21" s="28" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G21" s="28" t="s">
         <v>31</v>
@@ -1112,7 +1112,7 @@
     <row r="23" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A23" s="12"/>
       <c r="B23" s="28"/>
-      <c r="C23" s="50"/>
+      <c r="C23" s="51"/>
       <c r="D23" s="25" t="s">
         <v>13</v>
       </c>
@@ -1120,7 +1120,7 @@
         <v>45610</v>
       </c>
       <c r="F23" s="28" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G23" s="28" t="s">
         <v>30</v>
@@ -1142,7 +1142,7 @@
         <v>45615</v>
       </c>
       <c r="F24" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G24" s="17"/>
       <c r="H24" s="9"/>
@@ -1150,9 +1150,9 @@
     <row r="25" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A25" s="12"/>
       <c r="B25" s="28" t="s">
-        <v>48</v>
-      </c>
-      <c r="C25" s="50"/>
+        <v>47</v>
+      </c>
+      <c r="C25" s="51"/>
       <c r="D25" s="25" t="s">
         <v>13</v>
       </c>
@@ -1160,7 +1160,7 @@
         <v>45617</v>
       </c>
       <c r="F25" s="42" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G25" s="28" t="s">
         <v>29</v>
@@ -1182,10 +1182,10 @@
         <v>45622</v>
       </c>
       <c r="F26" s="17" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="G26" s="17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H26" s="44" t="s">
         <v>29</v>
@@ -1198,7 +1198,7 @@
       <c r="B27" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="C27" s="50"/>
+      <c r="C27" s="51"/>
       <c r="D27" s="35" t="s">
         <v>13</v>
       </c>
@@ -1236,7 +1236,7 @@
       <c r="B29" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="C29" s="50"/>
+      <c r="C29" s="51"/>
       <c r="D29" s="25" t="s">
         <v>13</v>
       </c>
@@ -1248,7 +1248,7 @@
       </c>
       <c r="G29" s="28"/>
       <c r="H29" s="43" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.15">
@@ -1276,7 +1276,7 @@
     <row r="31" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A31" s="12"/>
       <c r="B31" s="13"/>
-      <c r="C31" s="50"/>
+      <c r="C31" s="51"/>
       <c r="D31" s="26"/>
       <c r="E31" s="13"/>
       <c r="F31" s="13"/>
@@ -1285,12 +1285,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="C10:C11"/>
     <mergeCell ref="C26:C27"/>
     <mergeCell ref="C28:C29"/>
     <mergeCell ref="C30:C31"/>
@@ -1300,6 +1294,12 @@
     <mergeCell ref="C20:C21"/>
     <mergeCell ref="C22:C23"/>
     <mergeCell ref="C24:C25"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="C10:C11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/assets/sched.xlsx
+++ b/assets/sched.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abmosca/Documents/Smith/teaching/SDS-CS109/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{398956C0-76A4-2D44-B6F7-A37CABC98C55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A454D766-A2E3-664A-B92F-C51A63D8B16B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5660" yWindow="500" windowWidth="22560" windowHeight="15880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2200" yWindow="500" windowWidth="25080" windowHeight="15880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sched" sheetId="2" r:id="rId1"/>
@@ -142,12 +142,6 @@
     <t xml:space="preserve">Text as Data </t>
   </si>
   <si>
-    <t xml:space="preserve">Persuasive Vis </t>
-  </si>
-  <si>
-    <t>Mid-Semester Project Ideation</t>
-  </si>
-  <si>
     <t>NO CLASS - Rally Day</t>
   </si>
   <si>
@@ -182,6 +176,12 @@
   </si>
   <si>
     <t xml:space="preserve">Ethical and Deceptive Vis </t>
+  </si>
+  <si>
+    <t>Mid-Semester Project Ideation (pt. 1)</t>
+  </si>
+  <si>
+    <t>Persuasive Vis</t>
   </si>
 </sst>
 </file>
@@ -353,7 +353,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -385,46 +385,34 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="16" fontId="3" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -438,7 +426,6 @@
     <xf numFmtId="16" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -452,7 +439,21 @@
     <xf numFmtId="16" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -671,7 +672,7 @@
   <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -710,270 +711,268 @@
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="19"/>
       <c r="B2" s="20"/>
-      <c r="C2" s="21">
+      <c r="C2" s="57">
         <v>1</v>
       </c>
-      <c r="D2" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="23">
+      <c r="D2" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="22">
         <v>45685</v>
       </c>
       <c r="F2" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="24"/>
-      <c r="H2" s="25"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="24"/>
     </row>
     <row r="3" spans="1:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="26"/>
-      <c r="B3" s="27"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="30">
+      <c r="A3" s="25"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="27">
         <v>45687</v>
       </c>
-      <c r="F3" s="27" t="s">
+      <c r="F3" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="31"/>
-      <c r="H3" s="32"/>
+      <c r="H3" s="28"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A4" s="33"/>
+      <c r="A4" s="29"/>
       <c r="B4" s="20"/>
-      <c r="C4" s="21">
+      <c r="C4" s="57">
         <v>2</v>
       </c>
-      <c r="D4" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="23">
+      <c r="D4" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="22">
         <v>45692</v>
       </c>
       <c r="F4" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="G4" s="24"/>
-      <c r="H4" s="25"/>
+        <v>38</v>
+      </c>
+      <c r="G4" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" s="24"/>
     </row>
     <row r="5" spans="1:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="34"/>
-      <c r="B5" s="27"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="30">
+      <c r="A5" s="7"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="58"/>
+      <c r="D5" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="27">
         <v>45694</v>
       </c>
-      <c r="F5" s="27" t="s">
+      <c r="F5" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="G5" s="27" t="s">
+      <c r="G5" s="8"/>
+      <c r="H5" s="28"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A6" s="29"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="57">
+        <v>3</v>
+      </c>
+      <c r="D6" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="22">
+        <v>45699</v>
+      </c>
+      <c r="F6" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="G6" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="H5" s="32"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A6" s="33"/>
-      <c r="B6" s="20"/>
-      <c r="C6" s="21">
-        <v>3</v>
-      </c>
-      <c r="D6" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="23">
-        <v>45699</v>
-      </c>
-      <c r="F6" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="G6" s="24"/>
-      <c r="H6" s="25"/>
     </row>
     <row r="7" spans="1:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="34"/>
-      <c r="B7" s="31"/>
-      <c r="C7" s="28"/>
-      <c r="D7" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" s="30">
+      <c r="A7" s="7"/>
+      <c r="C7" s="58"/>
+      <c r="D7" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="27">
         <v>45701</v>
       </c>
-      <c r="F7" s="27" t="s">
+      <c r="F7" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="G7" s="27" t="s">
+      <c r="G7" s="8"/>
+      <c r="H7" s="30"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A8" s="29"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="57">
+        <v>4</v>
+      </c>
+      <c r="D8" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="22">
+        <v>45706</v>
+      </c>
+      <c r="F8" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="G8" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="H8" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="H7" s="35" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A8" s="33"/>
-      <c r="B8" s="24"/>
-      <c r="C8" s="21">
-        <v>4</v>
-      </c>
-      <c r="D8" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" s="23">
-        <v>45706</v>
-      </c>
-      <c r="F8" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="G8" s="24"/>
-      <c r="H8" s="25"/>
     </row>
     <row r="9" spans="1:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="26" t="s">
+      <c r="A9" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="27" t="s">
+      <c r="B9" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="28"/>
-      <c r="D9" s="58" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" s="59">
+      <c r="C9" s="58"/>
+      <c r="D9" s="51" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="52">
         <v>45708</v>
       </c>
-      <c r="F9" s="60" t="s">
-        <v>38</v>
-      </c>
-      <c r="G9" s="61" t="s">
-        <v>20</v>
-      </c>
-      <c r="H9" s="62" t="s">
-        <v>19</v>
-      </c>
+      <c r="F9" s="53" t="s">
+        <v>36</v>
+      </c>
+      <c r="G9" s="54"/>
+      <c r="H9" s="55"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" s="19"/>
       <c r="B10" s="20"/>
-      <c r="C10" s="21">
+      <c r="C10" s="57">
         <v>5</v>
       </c>
-      <c r="D10" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" s="23">
+      <c r="D10" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="22">
         <v>45713</v>
       </c>
       <c r="F10" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="G10" s="24"/>
-      <c r="H10" s="25"/>
+      <c r="G10" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="H10" s="37" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="11" spans="1:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="34"/>
-      <c r="B11" s="27" t="s">
+      <c r="A11" s="7"/>
+      <c r="B11" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="28"/>
-      <c r="D11" s="63" t="s">
-        <v>13</v>
-      </c>
-      <c r="E11" s="53">
+      <c r="C11" s="58"/>
+      <c r="D11" s="56" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="47">
         <v>45715</v>
       </c>
       <c r="F11" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="G11" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="H11" s="57" t="s">
-        <v>20</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="G11" s="17"/>
+      <c r="H11" s="50"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" s="19"/>
       <c r="B12" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="21">
+      <c r="C12" s="57">
         <v>6</v>
       </c>
-      <c r="D12" s="47" t="s">
-        <v>12</v>
-      </c>
-      <c r="E12" s="48">
+      <c r="D12" s="41" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="42">
         <v>45720</v>
       </c>
       <c r="F12" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="G12" s="55"/>
-      <c r="H12" s="56"/>
+        <v>42</v>
+      </c>
+      <c r="G12" s="48"/>
+      <c r="H12" s="49"/>
     </row>
     <row r="13" spans="1:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="34"/>
-      <c r="B13" s="64" t="s">
+      <c r="A13" s="7"/>
+      <c r="B13" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C13" s="28"/>
-      <c r="D13" s="63" t="s">
-        <v>13</v>
-      </c>
-      <c r="E13" s="53">
+      <c r="C13" s="58"/>
+      <c r="D13" s="56" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="47">
         <v>45722</v>
       </c>
       <c r="F13" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="G13" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="H13" s="57"/>
+        <v>43</v>
+      </c>
+      <c r="G13" s="17"/>
+      <c r="H13" s="50"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" s="19"/>
       <c r="B14" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="21">
+      <c r="C14" s="57">
         <v>7</v>
       </c>
-      <c r="D14" s="47" t="s">
-        <v>12</v>
-      </c>
-      <c r="E14" s="48">
+      <c r="D14" s="41" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="42">
         <v>45727</v>
       </c>
       <c r="F14" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="G14" s="55"/>
-      <c r="H14" s="56"/>
+        <v>44</v>
+      </c>
+      <c r="G14" s="48"/>
+      <c r="H14" s="49"/>
     </row>
     <row r="15" spans="1:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="34"/>
-      <c r="B15" s="27" t="s">
+      <c r="A15" s="7"/>
+      <c r="B15" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="28"/>
-      <c r="D15" s="63" t="s">
-        <v>13</v>
-      </c>
-      <c r="E15" s="53">
+      <c r="C15" s="58"/>
+      <c r="D15" s="56" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" s="47">
         <v>45729</v>
       </c>
       <c r="F15" s="17" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G15" s="17"/>
-      <c r="H15" s="54"/>
+      <c r="H15" s="50" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16" s="19" t="s">
@@ -982,7 +981,7 @@
       <c r="B16" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="C16" s="21">
+      <c r="C16" s="57">
         <v>8</v>
       </c>
       <c r="D16" s="11" t="s">
@@ -992,222 +991,222 @@
         <v>45734</v>
       </c>
       <c r="F16" s="13" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G16" s="14"/>
       <c r="H16" s="15"/>
     </row>
     <row r="17" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="26" t="s">
+      <c r="A17" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="B17" s="27" t="s">
+      <c r="B17" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C17" s="28"/>
-      <c r="D17" s="58" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="59">
+      <c r="C17" s="58"/>
+      <c r="D17" s="51" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" s="52">
         <v>45736</v>
       </c>
-      <c r="F17" s="60" t="s">
-        <v>39</v>
-      </c>
-      <c r="G17" s="61"/>
-      <c r="H17" s="62"/>
+      <c r="F17" s="53" t="s">
+        <v>37</v>
+      </c>
+      <c r="G17" s="54"/>
+      <c r="H17" s="55"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A18" s="33"/>
+      <c r="A18" s="29"/>
       <c r="B18" s="20"/>
-      <c r="C18" s="21">
+      <c r="C18" s="57">
         <v>9</v>
       </c>
-      <c r="D18" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="E18" s="23">
+      <c r="D18" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" s="22">
         <v>45741</v>
       </c>
       <c r="F18" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="G18" s="24"/>
-      <c r="H18" s="25"/>
+        <v>40</v>
+      </c>
+      <c r="G18" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="H18" s="24"/>
     </row>
     <row r="19" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="36"/>
-      <c r="B19" s="37"/>
-      <c r="C19" s="38"/>
-      <c r="D19" s="39" t="s">
-        <v>13</v>
-      </c>
-      <c r="E19" s="40">
+      <c r="A19" s="31"/>
+      <c r="B19" s="32"/>
+      <c r="C19" s="59"/>
+      <c r="D19" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="E19" s="34">
         <v>45743</v>
       </c>
-      <c r="F19" s="37" t="s">
+      <c r="F19" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="G19" s="41"/>
-      <c r="H19" s="42" t="s">
-        <v>29</v>
-      </c>
+      <c r="G19" s="35"/>
+      <c r="H19" s="36"/>
       <c r="I19" s="7"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A20" s="33"/>
+      <c r="A20" s="29"/>
       <c r="B20" s="20"/>
-      <c r="C20" s="21">
+      <c r="C20" s="57">
         <v>10</v>
       </c>
-      <c r="D20" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="E20" s="23">
+      <c r="D20" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="E20" s="22">
         <v>45748</v>
       </c>
       <c r="F20" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="G20" s="24"/>
-      <c r="H20" s="25"/>
+      <c r="G20" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="H20" s="37" t="s">
+        <v>21</v>
+      </c>
       <c r="I20" s="8"/>
     </row>
     <row r="21" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="36"/>
-      <c r="B21" s="41"/>
-      <c r="C21" s="38"/>
-      <c r="D21" s="39" t="s">
-        <v>13</v>
-      </c>
-      <c r="E21" s="40">
+      <c r="A21" s="31"/>
+      <c r="B21" s="35"/>
+      <c r="C21" s="59"/>
+      <c r="D21" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="E21" s="34">
         <v>45750</v>
       </c>
-      <c r="F21" s="37" t="s">
+      <c r="F21" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="G21" s="37" t="s">
-        <v>24</v>
-      </c>
-      <c r="H21" s="42" t="s">
-        <v>21</v>
-      </c>
+      <c r="G21" s="32"/>
+      <c r="H21" s="36"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A22" s="19"/>
       <c r="B22" s="20"/>
-      <c r="C22" s="21">
+      <c r="C22" s="57">
         <v>11</v>
       </c>
-      <c r="D22" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="E22" s="23">
+      <c r="D22" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="E22" s="22">
         <v>45755</v>
       </c>
       <c r="F22" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="G22" s="24"/>
-      <c r="H22" s="25"/>
+        <v>31</v>
+      </c>
+      <c r="G22" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="H22" s="37" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="23" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="36"/>
-      <c r="B23" s="37"/>
-      <c r="C23" s="38"/>
-      <c r="D23" s="39" t="s">
-        <v>13</v>
-      </c>
-      <c r="E23" s="40">
+      <c r="A23" s="31"/>
+      <c r="B23" s="32"/>
+      <c r="C23" s="59"/>
+      <c r="D23" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="E23" s="34">
         <v>45757</v>
       </c>
-      <c r="F23" s="37" t="s">
-        <v>31</v>
-      </c>
-      <c r="G23" s="37" t="s">
+      <c r="F23" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="G23" s="32"/>
+      <c r="H23" s="36"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A24" s="29"/>
+      <c r="B24" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="C24" s="57">
+        <v>12</v>
+      </c>
+      <c r="D24" s="41" t="s">
+        <v>12</v>
+      </c>
+      <c r="E24" s="42">
+        <v>45762</v>
+      </c>
+      <c r="F24" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="G24" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="H24" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="H23" s="42" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A24" s="33"/>
-      <c r="B24" s="20"/>
-      <c r="C24" s="21">
-        <v>12</v>
-      </c>
-      <c r="D24" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="E24" s="23">
-        <v>45762</v>
-      </c>
-      <c r="F24" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="G24" s="20"/>
-      <c r="H24" s="25"/>
     </row>
     <row r="25" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="36"/>
-      <c r="B25" s="37" t="s">
-        <v>30</v>
-      </c>
-      <c r="C25" s="38"/>
-      <c r="D25" s="50" t="s">
-        <v>13</v>
-      </c>
-      <c r="E25" s="51">
+      <c r="A25" s="31"/>
+      <c r="B25" s="32"/>
+      <c r="C25" s="59"/>
+      <c r="D25" s="60" t="s">
+        <v>13</v>
+      </c>
+      <c r="E25" s="61">
         <v>45764</v>
       </c>
-      <c r="F25" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="G25" s="18" t="s">
+      <c r="F25" s="62" t="s">
+        <v>47</v>
+      </c>
+      <c r="G25" s="62" t="s">
+        <v>32</v>
+      </c>
+      <c r="H25" s="63" t="s">
         <v>22</v>
       </c>
-      <c r="H25" s="52" t="s">
-        <v>23</v>
-      </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A26" s="33"/>
+      <c r="A26" s="29"/>
       <c r="B26" s="20"/>
-      <c r="C26" s="21">
-        <v>13</v>
-      </c>
-      <c r="D26" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="E26" s="23">
+      <c r="C26" s="57">
+        <v>13</v>
+      </c>
+      <c r="D26" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="E26" s="22">
         <v>45769</v>
       </c>
       <c r="F26" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="G26" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="H26" s="43" t="s">
-        <v>22</v>
-      </c>
+      <c r="G26" s="20"/>
+      <c r="H26" s="37"/>
     </row>
     <row r="27" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="44"/>
-      <c r="B27" s="37"/>
-      <c r="C27" s="38"/>
-      <c r="D27" s="39" t="s">
-        <v>13</v>
-      </c>
-      <c r="E27" s="40">
+      <c r="A27" s="38"/>
+      <c r="B27" s="32"/>
+      <c r="C27" s="59"/>
+      <c r="D27" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="E27" s="34">
         <v>45771</v>
       </c>
-      <c r="F27" s="37" t="s">
-        <v>43</v>
-      </c>
-      <c r="G27" s="41"/>
-      <c r="H27" s="45"/>
+      <c r="F27" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="G27" s="35"/>
+      <c r="H27" s="39"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A28" s="19" t="s">
@@ -1216,74 +1215,68 @@
       <c r="B28" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="C28" s="21">
+      <c r="C28" s="57">
         <v>14</v>
       </c>
-      <c r="D28" s="47" t="s">
-        <v>12</v>
-      </c>
-      <c r="E28" s="48">
+      <c r="D28" s="41" t="s">
+        <v>12</v>
+      </c>
+      <c r="E28" s="42">
         <v>45776</v>
       </c>
       <c r="F28" s="16" t="s">
         <v>16</v>
       </c>
       <c r="G28" s="16"/>
-      <c r="H28" s="49" t="s">
+      <c r="H28" s="43" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="44" t="s">
+      <c r="A29" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="B29" s="37" t="s">
+      <c r="B29" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="C29" s="38"/>
-      <c r="D29" s="50" t="s">
-        <v>13</v>
-      </c>
-      <c r="E29" s="51">
+      <c r="C29" s="59"/>
+      <c r="D29" s="44" t="s">
+        <v>13</v>
+      </c>
+      <c r="E29" s="45">
         <v>45778</v>
       </c>
       <c r="F29" s="18" t="s">
         <v>16</v>
       </c>
       <c r="G29" s="18"/>
-      <c r="H29" s="52"/>
+      <c r="H29" s="46"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A30" s="19"/>
       <c r="B30" s="20"/>
-      <c r="C30" s="21"/>
-      <c r="D30" s="22"/>
-      <c r="E30" s="23"/>
+      <c r="C30" s="57"/>
+      <c r="D30" s="21"/>
+      <c r="E30" s="22"/>
       <c r="F30" s="20"/>
-      <c r="G30" s="24"/>
-      <c r="H30" s="43"/>
+      <c r="G30" s="23"/>
+      <c r="H30" s="37"/>
     </row>
     <row r="31" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="36"/>
-      <c r="B31" s="41"/>
-      <c r="C31" s="38"/>
-      <c r="D31" s="46"/>
-      <c r="E31" s="41"/>
-      <c r="F31" s="41"/>
-      <c r="G31" s="41"/>
-      <c r="H31" s="45"/>
+      <c r="A31" s="31"/>
+      <c r="B31" s="35"/>
+      <c r="C31" s="59"/>
+      <c r="D31" s="40"/>
+      <c r="E31" s="35"/>
+      <c r="F31" s="35"/>
+      <c r="G31" s="35"/>
+      <c r="H31" s="39"/>
     </row>
     <row r="33" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F33" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="C10:C11"/>
     <mergeCell ref="C26:C27"/>
     <mergeCell ref="C28:C29"/>
     <mergeCell ref="C30:C31"/>
@@ -1293,6 +1286,12 @@
     <mergeCell ref="C20:C21"/>
     <mergeCell ref="C22:C23"/>
     <mergeCell ref="C24:C25"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="C10:C11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/assets/sched.xlsx
+++ b/assets/sched.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10119"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abmosca/Documents/Smith/teaching/SDS-CS109/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A454D766-A2E3-664A-B92F-C51A63D8B16B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4379BEF-E3ED-1D40-8331-28963E79750A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2200" yWindow="500" windowWidth="25080" windowHeight="15880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -112,9 +112,6 @@
     <t>Data Humanism</t>
   </si>
   <si>
-    <t>Basic Charts</t>
-  </si>
-  <si>
     <t>Storytelling with Visualization</t>
   </si>
   <si>
@@ -172,9 +169,6 @@
     <t>Mid-Semester Project Creation Day 2</t>
   </si>
   <si>
-    <t>More Tableau Practice</t>
-  </si>
-  <si>
     <t xml:space="preserve">Ethical and Deceptive Vis </t>
   </si>
   <si>
@@ -182,6 +176,12 @@
   </si>
   <si>
     <t>Persuasive Vis</t>
+  </si>
+  <si>
+    <t>Perception and Color cont. &amp; Tableau Practice</t>
+  </si>
+  <si>
+    <t>Design Principles</t>
   </si>
 </sst>
 </file>
@@ -353,7 +353,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -442,18 +442,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -671,7 +665,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E37E44A5-0A5F-414A-B4D4-809AE35C85CF}">
   <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
       <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
@@ -729,7 +723,7 @@
     <row r="3" spans="1:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="25"/>
       <c r="B3" s="8"/>
-      <c r="C3" s="58"/>
+      <c r="C3" s="59"/>
       <c r="D3" s="26" t="s">
         <v>13</v>
       </c>
@@ -754,7 +748,7 @@
         <v>45692</v>
       </c>
       <c r="F4" s="20" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G4" s="20" t="s">
         <v>18</v>
@@ -764,7 +758,7 @@
     <row r="5" spans="1:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A5" s="7"/>
       <c r="B5" s="8"/>
-      <c r="C5" s="58"/>
+      <c r="C5" s="59"/>
       <c r="D5" s="26" t="s">
         <v>13</v>
       </c>
@@ -772,7 +766,7 @@
         <v>45694</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="G5" s="8"/>
       <c r="H5" s="28"/>
@@ -790,7 +784,7 @@
         <v>45699</v>
       </c>
       <c r="F6" s="20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G6" s="20" t="s">
         <v>19</v>
@@ -801,7 +795,7 @@
     </row>
     <row r="7" spans="1:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="7"/>
-      <c r="C7" s="58"/>
+      <c r="C7" s="59"/>
       <c r="D7" s="26" t="s">
         <v>13</v>
       </c>
@@ -827,7 +821,7 @@
         <v>45706</v>
       </c>
       <c r="F8" s="20" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G8" s="20" t="s">
         <v>20</v>
@@ -843,7 +837,7 @@
       <c r="B9" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="58"/>
+      <c r="C9" s="59"/>
       <c r="D9" s="51" t="s">
         <v>13</v>
       </c>
@@ -851,7 +845,7 @@
         <v>45708</v>
       </c>
       <c r="F9" s="53" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G9" s="54"/>
       <c r="H9" s="55"/>
@@ -872,7 +866,7 @@
         <v>25</v>
       </c>
       <c r="G10" s="20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H10" s="37" t="s">
         <v>20</v>
@@ -881,9 +875,9 @@
     <row r="11" spans="1:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A11" s="7"/>
       <c r="B11" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="C11" s="58"/>
+        <v>29</v>
+      </c>
+      <c r="C11" s="59"/>
       <c r="D11" s="56" t="s">
         <v>13</v>
       </c>
@@ -891,7 +885,7 @@
         <v>45715</v>
       </c>
       <c r="F11" s="17" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G11" s="17"/>
       <c r="H11" s="50"/>
@@ -899,7 +893,7 @@
     <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" s="19"/>
       <c r="B12" s="20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C12" s="57">
         <v>6</v>
@@ -911,7 +905,7 @@
         <v>45720</v>
       </c>
       <c r="F12" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G12" s="48"/>
       <c r="H12" s="49"/>
@@ -921,7 +915,7 @@
       <c r="B13" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C13" s="58"/>
+      <c r="C13" s="59"/>
       <c r="D13" s="56" t="s">
         <v>13</v>
       </c>
@@ -929,7 +923,7 @@
         <v>45722</v>
       </c>
       <c r="F13" s="17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G13" s="17"/>
       <c r="H13" s="50"/>
@@ -937,7 +931,7 @@
     <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" s="19"/>
       <c r="B14" s="20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C14" s="57">
         <v>7</v>
@@ -949,7 +943,7 @@
         <v>45727</v>
       </c>
       <c r="F14" s="16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G14" s="48"/>
       <c r="H14" s="49"/>
@@ -957,9 +951,9 @@
     <row r="15" spans="1:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A15" s="7"/>
       <c r="B15" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="C15" s="58"/>
+        <v>29</v>
+      </c>
+      <c r="C15" s="59"/>
       <c r="D15" s="56" t="s">
         <v>13</v>
       </c>
@@ -967,11 +961,11 @@
         <v>45729</v>
       </c>
       <c r="F15" s="17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G15" s="17"/>
       <c r="H15" s="50" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.15">
@@ -991,7 +985,7 @@
         <v>45734</v>
       </c>
       <c r="F16" s="13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G16" s="14"/>
       <c r="H16" s="15"/>
@@ -1003,7 +997,7 @@
       <c r="B17" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C17" s="58"/>
+      <c r="C17" s="59"/>
       <c r="D17" s="51" t="s">
         <v>13</v>
       </c>
@@ -1011,7 +1005,7 @@
         <v>45736</v>
       </c>
       <c r="F17" s="53" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G17" s="54"/>
       <c r="H17" s="55"/>
@@ -1029,7 +1023,7 @@
         <v>45741</v>
       </c>
       <c r="F18" s="20" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G18" s="20" t="s">
         <v>21</v>
@@ -1039,7 +1033,7 @@
     <row r="19" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A19" s="31"/>
       <c r="B19" s="32"/>
-      <c r="C19" s="59"/>
+      <c r="C19" s="58"/>
       <c r="D19" s="33" t="s">
         <v>13</v>
       </c>
@@ -1047,7 +1041,7 @@
         <v>45743</v>
       </c>
       <c r="F19" s="32" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G19" s="35"/>
       <c r="H19" s="36"/>
@@ -1066,7 +1060,7 @@
         <v>45748</v>
       </c>
       <c r="F20" s="20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G20" s="20" t="s">
         <v>24</v>
@@ -1079,7 +1073,7 @@
     <row r="21" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A21" s="31"/>
       <c r="B21" s="35"/>
-      <c r="C21" s="59"/>
+      <c r="C21" s="58"/>
       <c r="D21" s="33" t="s">
         <v>13</v>
       </c>
@@ -1087,7 +1081,7 @@
         <v>45750</v>
       </c>
       <c r="F21" s="32" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G21" s="32"/>
       <c r="H21" s="36"/>
@@ -1105,7 +1099,7 @@
         <v>45755</v>
       </c>
       <c r="F22" s="20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G22" s="20" t="s">
         <v>23</v>
@@ -1117,7 +1111,7 @@
     <row r="23" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A23" s="31"/>
       <c r="B23" s="32"/>
-      <c r="C23" s="59"/>
+      <c r="C23" s="58"/>
       <c r="D23" s="33" t="s">
         <v>13</v>
       </c>
@@ -1125,7 +1119,7 @@
         <v>45757</v>
       </c>
       <c r="F23" s="32" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G23" s="32"/>
       <c r="H23" s="36"/>
@@ -1133,7 +1127,7 @@
     <row r="24" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A24" s="29"/>
       <c r="B24" s="20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C24" s="57">
         <v>12</v>
@@ -1145,7 +1139,7 @@
         <v>45762</v>
       </c>
       <c r="F24" s="16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G24" s="16" t="s">
         <v>22</v>
@@ -1157,20 +1151,20 @@
     <row r="25" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A25" s="31"/>
       <c r="B25" s="32"/>
-      <c r="C25" s="59"/>
-      <c r="D25" s="60" t="s">
-        <v>13</v>
-      </c>
-      <c r="E25" s="61">
+      <c r="C25" s="58"/>
+      <c r="D25" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="E25" s="34">
         <v>45764</v>
       </c>
-      <c r="F25" s="62" t="s">
-        <v>47</v>
-      </c>
-      <c r="G25" s="62" t="s">
-        <v>32</v>
-      </c>
-      <c r="H25" s="63" t="s">
+      <c r="F25" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="G25" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="H25" s="36" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1187,7 +1181,7 @@
         <v>45769</v>
       </c>
       <c r="F26" s="20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G26" s="20"/>
       <c r="H26" s="37"/>
@@ -1195,7 +1189,7 @@
     <row r="27" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A27" s="38"/>
       <c r="B27" s="32"/>
-      <c r="C27" s="59"/>
+      <c r="C27" s="58"/>
       <c r="D27" s="33" t="s">
         <v>13</v>
       </c>
@@ -1203,7 +1197,7 @@
         <v>45771</v>
       </c>
       <c r="F27" s="32" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G27" s="35"/>
       <c r="H27" s="39"/>
@@ -1213,7 +1207,7 @@
         <v>10</v>
       </c>
       <c r="B28" s="20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C28" s="57">
         <v>14</v>
@@ -1229,7 +1223,7 @@
       </c>
       <c r="G28" s="16"/>
       <c r="H28" s="43" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -1239,7 +1233,7 @@
       <c r="B29" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="C29" s="59"/>
+      <c r="C29" s="58"/>
       <c r="D29" s="44" t="s">
         <v>13</v>
       </c>
@@ -1265,7 +1259,7 @@
     <row r="31" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A31" s="31"/>
       <c r="B31" s="35"/>
-      <c r="C31" s="59"/>
+      <c r="C31" s="58"/>
       <c r="D31" s="40"/>
       <c r="E31" s="35"/>
       <c r="F31" s="35"/>
@@ -1277,6 +1271,12 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="C10:C11"/>
     <mergeCell ref="C26:C27"/>
     <mergeCell ref="C28:C29"/>
     <mergeCell ref="C30:C31"/>
@@ -1286,12 +1286,6 @@
     <mergeCell ref="C20:C21"/>
     <mergeCell ref="C22:C23"/>
     <mergeCell ref="C24:C25"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="C10:C11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/assets/sched.xlsx
+++ b/assets/sched.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abmosca/Documents/Smith/teaching/SDS-CS109/assets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amosca/Library/Mobile Documents/com~apple~CloudDocs/Documents/Smith/teaching/SDS-CS109/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4379BEF-E3ED-1D40-8331-28963E79750A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8C19AB9-073C-8C49-8A4C-A1506CFA5E2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2200" yWindow="500" windowWidth="25080" windowHeight="15880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2200" yWindow="500" windowWidth="27880" windowHeight="21200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sched" sheetId="2" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="50">
   <si>
     <t>Date</t>
   </si>
@@ -79,9 +79,6 @@
     <t>Introduction</t>
   </si>
   <si>
-    <t xml:space="preserve">Perception and Color </t>
-  </si>
-  <si>
     <t xml:space="preserve">Final Project Demonstrations </t>
   </si>
   <si>
@@ -178,10 +175,13 @@
     <t>Persuasive Vis</t>
   </si>
   <si>
-    <t>Perception and Color cont. &amp; Tableau Practice</t>
-  </si>
-  <si>
     <t>Design Principles</t>
+  </si>
+  <si>
+    <t>Perception and Color Tableau Practice</t>
+  </si>
+  <si>
+    <t>SNOW DAY!</t>
   </si>
 </sst>
 </file>
@@ -353,7 +353,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -442,12 +442,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -665,8 +666,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E37E44A5-0A5F-414A-B4D4-809AE35C85CF}">
   <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -723,7 +724,7 @@
     <row r="3" spans="1:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="25"/>
       <c r="B3" s="8"/>
-      <c r="C3" s="59"/>
+      <c r="C3" s="58"/>
       <c r="D3" s="26" t="s">
         <v>13</v>
       </c>
@@ -731,7 +732,7 @@
         <v>45687</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H3" s="28"/>
     </row>
@@ -748,28 +749,32 @@
         <v>45692</v>
       </c>
       <c r="F4" s="20" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G4" s="20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H4" s="24"/>
     </row>
     <row r="5" spans="1:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="7"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="59"/>
-      <c r="D5" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="27">
+      <c r="A5" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="58"/>
+      <c r="D5" s="51" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="52">
         <v>45694</v>
       </c>
-      <c r="F5" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="G5" s="8"/>
-      <c r="H5" s="28"/>
+      <c r="F5" s="53" t="s">
+        <v>49</v>
+      </c>
+      <c r="G5" s="54"/>
+      <c r="H5" s="60"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="29"/>
@@ -784,18 +789,18 @@
         <v>45699</v>
       </c>
       <c r="F6" s="20" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G6" s="20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H6" s="37" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="7"/>
-      <c r="C7" s="59"/>
+      <c r="C7" s="58"/>
       <c r="D7" s="26" t="s">
         <v>13</v>
       </c>
@@ -803,7 +808,7 @@
         <v>45701</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="G7" s="8"/>
       <c r="H7" s="30"/>
@@ -824,10 +829,10 @@
         <v>48</v>
       </c>
       <c r="G8" s="20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H8" s="37" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -837,7 +842,7 @@
       <c r="B9" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="59"/>
+      <c r="C9" s="58"/>
       <c r="D9" s="51" t="s">
         <v>13</v>
       </c>
@@ -845,7 +850,7 @@
         <v>45708</v>
       </c>
       <c r="F9" s="53" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G9" s="54"/>
       <c r="H9" s="55"/>
@@ -863,21 +868,21 @@
         <v>45713</v>
       </c>
       <c r="F10" s="20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G10" s="20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H10" s="37" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A11" s="7"/>
       <c r="B11" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" s="59"/>
+        <v>28</v>
+      </c>
+      <c r="C11" s="58"/>
       <c r="D11" s="56" t="s">
         <v>13</v>
       </c>
@@ -885,7 +890,7 @@
         <v>45715</v>
       </c>
       <c r="F11" s="17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G11" s="17"/>
       <c r="H11" s="50"/>
@@ -893,7 +898,7 @@
     <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" s="19"/>
       <c r="B12" s="20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C12" s="57">
         <v>6</v>
@@ -905,7 +910,7 @@
         <v>45720</v>
       </c>
       <c r="F12" s="16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G12" s="48"/>
       <c r="H12" s="49"/>
@@ -915,7 +920,7 @@
       <c r="B13" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C13" s="59"/>
+      <c r="C13" s="58"/>
       <c r="D13" s="56" t="s">
         <v>13</v>
       </c>
@@ -923,7 +928,7 @@
         <v>45722</v>
       </c>
       <c r="F13" s="17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G13" s="17"/>
       <c r="H13" s="50"/>
@@ -931,7 +936,7 @@
     <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" s="19"/>
       <c r="B14" s="20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C14" s="57">
         <v>7</v>
@@ -943,7 +948,7 @@
         <v>45727</v>
       </c>
       <c r="F14" s="16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G14" s="48"/>
       <c r="H14" s="49"/>
@@ -951,9 +956,9 @@
     <row r="15" spans="1:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A15" s="7"/>
       <c r="B15" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15" s="59"/>
+        <v>28</v>
+      </c>
+      <c r="C15" s="58"/>
       <c r="D15" s="56" t="s">
         <v>13</v>
       </c>
@@ -961,11 +966,11 @@
         <v>45729</v>
       </c>
       <c r="F15" s="17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G15" s="17"/>
       <c r="H15" s="50" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.15">
@@ -985,7 +990,7 @@
         <v>45734</v>
       </c>
       <c r="F16" s="13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G16" s="14"/>
       <c r="H16" s="15"/>
@@ -997,7 +1002,7 @@
       <c r="B17" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C17" s="59"/>
+      <c r="C17" s="58"/>
       <c r="D17" s="51" t="s">
         <v>13</v>
       </c>
@@ -1005,7 +1010,7 @@
         <v>45736</v>
       </c>
       <c r="F17" s="53" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G17" s="54"/>
       <c r="H17" s="55"/>
@@ -1023,17 +1028,17 @@
         <v>45741</v>
       </c>
       <c r="F18" s="20" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G18" s="20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H18" s="24"/>
     </row>
     <row r="19" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A19" s="31"/>
       <c r="B19" s="32"/>
-      <c r="C19" s="58"/>
+      <c r="C19" s="59"/>
       <c r="D19" s="33" t="s">
         <v>13</v>
       </c>
@@ -1041,7 +1046,7 @@
         <v>45743</v>
       </c>
       <c r="F19" s="32" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G19" s="35"/>
       <c r="H19" s="36"/>
@@ -1060,20 +1065,20 @@
         <v>45748</v>
       </c>
       <c r="F20" s="20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G20" s="20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H20" s="37" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I20" s="8"/>
     </row>
     <row r="21" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A21" s="31"/>
       <c r="B21" s="35"/>
-      <c r="C21" s="58"/>
+      <c r="C21" s="59"/>
       <c r="D21" s="33" t="s">
         <v>13</v>
       </c>
@@ -1081,7 +1086,7 @@
         <v>45750</v>
       </c>
       <c r="F21" s="32" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G21" s="32"/>
       <c r="H21" s="36"/>
@@ -1099,19 +1104,19 @@
         <v>45755</v>
       </c>
       <c r="F22" s="20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G22" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="H22" s="37" t="s">
         <v>23</v>
-      </c>
-      <c r="H22" s="37" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A23" s="31"/>
       <c r="B23" s="32"/>
-      <c r="C23" s="58"/>
+      <c r="C23" s="59"/>
       <c r="D23" s="33" t="s">
         <v>13</v>
       </c>
@@ -1119,7 +1124,7 @@
         <v>45757</v>
       </c>
       <c r="F23" s="32" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G23" s="32"/>
       <c r="H23" s="36"/>
@@ -1127,7 +1132,7 @@
     <row r="24" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A24" s="29"/>
       <c r="B24" s="20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C24" s="57">
         <v>12</v>
@@ -1139,19 +1144,19 @@
         <v>45762</v>
       </c>
       <c r="F24" s="16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G24" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="H24" s="43" t="s">
         <v>22</v>
-      </c>
-      <c r="H24" s="43" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A25" s="31"/>
       <c r="B25" s="32"/>
-      <c r="C25" s="58"/>
+      <c r="C25" s="59"/>
       <c r="D25" s="33" t="s">
         <v>13</v>
       </c>
@@ -1159,13 +1164,13 @@
         <v>45764</v>
       </c>
       <c r="F25" s="32" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G25" s="32" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H25" s="36" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.15">
@@ -1181,7 +1186,7 @@
         <v>45769</v>
       </c>
       <c r="F26" s="20" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G26" s="20"/>
       <c r="H26" s="37"/>
@@ -1189,7 +1194,7 @@
     <row r="27" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A27" s="38"/>
       <c r="B27" s="32"/>
-      <c r="C27" s="58"/>
+      <c r="C27" s="59"/>
       <c r="D27" s="33" t="s">
         <v>13</v>
       </c>
@@ -1197,7 +1202,7 @@
         <v>45771</v>
       </c>
       <c r="F27" s="32" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G27" s="35"/>
       <c r="H27" s="39"/>
@@ -1207,7 +1212,7 @@
         <v>10</v>
       </c>
       <c r="B28" s="20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C28" s="57">
         <v>14</v>
@@ -1219,11 +1224,11 @@
         <v>45776</v>
       </c>
       <c r="F28" s="16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G28" s="16"/>
       <c r="H28" s="43" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -1233,7 +1238,7 @@
       <c r="B29" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="C29" s="58"/>
+      <c r="C29" s="59"/>
       <c r="D29" s="44" t="s">
         <v>13</v>
       </c>
@@ -1241,7 +1246,7 @@
         <v>45778</v>
       </c>
       <c r="F29" s="18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G29" s="18"/>
       <c r="H29" s="46"/>
@@ -1259,7 +1264,7 @@
     <row r="31" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A31" s="31"/>
       <c r="B31" s="35"/>
-      <c r="C31" s="58"/>
+      <c r="C31" s="59"/>
       <c r="D31" s="40"/>
       <c r="E31" s="35"/>
       <c r="F31" s="35"/>
@@ -1271,12 +1276,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="C10:C11"/>
     <mergeCell ref="C26:C27"/>
     <mergeCell ref="C28:C29"/>
     <mergeCell ref="C30:C31"/>
@@ -1286,6 +1285,12 @@
     <mergeCell ref="C20:C21"/>
     <mergeCell ref="C22:C23"/>
     <mergeCell ref="C24:C25"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="C10:C11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/assets/sched.xlsx
+++ b/assets/sched.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amosca/Library/Mobile Documents/com~apple~CloudDocs/Documents/Smith/teaching/SDS-CS109/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8C19AB9-073C-8C49-8A4C-A1506CFA5E2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5ACCA13-591A-FE44-B358-E47D9E7D15A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2200" yWindow="500" windowWidth="27880" windowHeight="21200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -178,10 +178,10 @@
     <t>Design Principles</t>
   </si>
   <si>
-    <t>Perception and Color Tableau Practice</t>
-  </si>
-  <si>
     <t>SNOW DAY!</t>
+  </si>
+  <si>
+    <t>Perception and Color</t>
   </si>
 </sst>
 </file>
@@ -439,16 +439,16 @@
     <xf numFmtId="16" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -667,7 +667,7 @@
   <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -706,7 +706,7 @@
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="19"/>
       <c r="B2" s="20"/>
-      <c r="C2" s="57">
+      <c r="C2" s="58">
         <v>1</v>
       </c>
       <c r="D2" s="21" t="s">
@@ -724,7 +724,7 @@
     <row r="3" spans="1:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="25"/>
       <c r="B3" s="8"/>
-      <c r="C3" s="58"/>
+      <c r="C3" s="60"/>
       <c r="D3" s="26" t="s">
         <v>13</v>
       </c>
@@ -739,7 +739,7 @@
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="29"/>
       <c r="B4" s="20"/>
-      <c r="C4" s="57">
+      <c r="C4" s="58">
         <v>2</v>
       </c>
       <c r="D4" s="21" t="s">
@@ -763,7 +763,7 @@
       <c r="B5" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="58"/>
+      <c r="C5" s="60"/>
       <c r="D5" s="51" t="s">
         <v>13</v>
       </c>
@@ -771,15 +771,15 @@
         <v>45694</v>
       </c>
       <c r="F5" s="53" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G5" s="54"/>
-      <c r="H5" s="60"/>
+      <c r="H5" s="57"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="29"/>
       <c r="B6" s="20"/>
-      <c r="C6" s="57">
+      <c r="C6" s="58">
         <v>3</v>
       </c>
       <c r="D6" s="21" t="s">
@@ -800,7 +800,7 @@
     </row>
     <row r="7" spans="1:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="7"/>
-      <c r="C7" s="58"/>
+      <c r="C7" s="60"/>
       <c r="D7" s="26" t="s">
         <v>13</v>
       </c>
@@ -816,7 +816,7 @@
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" s="29"/>
       <c r="B8" s="23"/>
-      <c r="C8" s="57">
+      <c r="C8" s="58">
         <v>4</v>
       </c>
       <c r="D8" s="21" t="s">
@@ -826,7 +826,7 @@
         <v>45706</v>
       </c>
       <c r="F8" s="20" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G8" s="20" t="s">
         <v>19</v>
@@ -842,7 +842,7 @@
       <c r="B9" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="58"/>
+      <c r="C9" s="60"/>
       <c r="D9" s="51" t="s">
         <v>13</v>
       </c>
@@ -858,7 +858,7 @@
     <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" s="19"/>
       <c r="B10" s="20"/>
-      <c r="C10" s="57">
+      <c r="C10" s="58">
         <v>5</v>
       </c>
       <c r="D10" s="21" t="s">
@@ -882,7 +882,7 @@
       <c r="B11" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="58"/>
+      <c r="C11" s="60"/>
       <c r="D11" s="56" t="s">
         <v>13</v>
       </c>
@@ -900,7 +900,7 @@
       <c r="B12" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="57">
+      <c r="C12" s="58">
         <v>6</v>
       </c>
       <c r="D12" s="41" t="s">
@@ -920,7 +920,7 @@
       <c r="B13" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C13" s="58"/>
+      <c r="C13" s="60"/>
       <c r="D13" s="56" t="s">
         <v>13</v>
       </c>
@@ -938,7 +938,7 @@
       <c r="B14" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="57">
+      <c r="C14" s="58">
         <v>7</v>
       </c>
       <c r="D14" s="41" t="s">
@@ -958,7 +958,7 @@
       <c r="B15" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="58"/>
+      <c r="C15" s="60"/>
       <c r="D15" s="56" t="s">
         <v>13</v>
       </c>
@@ -980,7 +980,7 @@
       <c r="B16" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="C16" s="57">
+      <c r="C16" s="58">
         <v>8</v>
       </c>
       <c r="D16" s="11" t="s">
@@ -1002,7 +1002,7 @@
       <c r="B17" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C17" s="58"/>
+      <c r="C17" s="60"/>
       <c r="D17" s="51" t="s">
         <v>13</v>
       </c>
@@ -1018,7 +1018,7 @@
     <row r="18" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A18" s="29"/>
       <c r="B18" s="20"/>
-      <c r="C18" s="57">
+      <c r="C18" s="58">
         <v>9</v>
       </c>
       <c r="D18" s="21" t="s">
@@ -1055,7 +1055,7 @@
     <row r="20" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A20" s="29"/>
       <c r="B20" s="20"/>
-      <c r="C20" s="57">
+      <c r="C20" s="58">
         <v>10</v>
       </c>
       <c r="D20" s="21" t="s">
@@ -1094,7 +1094,7 @@
     <row r="22" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A22" s="19"/>
       <c r="B22" s="20"/>
-      <c r="C22" s="57">
+      <c r="C22" s="58">
         <v>11</v>
       </c>
       <c r="D22" s="21" t="s">
@@ -1134,7 +1134,7 @@
       <c r="B24" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="C24" s="57">
+      <c r="C24" s="58">
         <v>12</v>
       </c>
       <c r="D24" s="41" t="s">
@@ -1176,7 +1176,7 @@
     <row r="26" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A26" s="29"/>
       <c r="B26" s="20"/>
-      <c r="C26" s="57">
+      <c r="C26" s="58">
         <v>13</v>
       </c>
       <c r="D26" s="21" t="s">
@@ -1214,7 +1214,7 @@
       <c r="B28" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="C28" s="57">
+      <c r="C28" s="58">
         <v>14</v>
       </c>
       <c r="D28" s="41" t="s">
@@ -1254,7 +1254,7 @@
     <row r="30" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A30" s="19"/>
       <c r="B30" s="20"/>
-      <c r="C30" s="57"/>
+      <c r="C30" s="58"/>
       <c r="D30" s="21"/>
       <c r="E30" s="22"/>
       <c r="F30" s="20"/>
@@ -1276,6 +1276,12 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="C10:C11"/>
     <mergeCell ref="C26:C27"/>
     <mergeCell ref="C28:C29"/>
     <mergeCell ref="C30:C31"/>
@@ -1285,12 +1291,6 @@
     <mergeCell ref="C20:C21"/>
     <mergeCell ref="C22:C23"/>
     <mergeCell ref="C24:C25"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="C10:C11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/assets/sched.xlsx
+++ b/assets/sched.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amosca/Library/Mobile Documents/com~apple~CloudDocs/Documents/Smith/teaching/SDS-CS109/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5ACCA13-591A-FE44-B358-E47D9E7D15A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BAB5B15-E8CC-D446-8A5F-A3FC69EA0E9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2200" yWindow="500" windowWidth="27880" windowHeight="21200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2200" yWindow="500" windowWidth="22380" windowHeight="22860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sched" sheetId="2" r:id="rId1"/>
@@ -160,12 +160,6 @@
     <t xml:space="preserve">Mid-Semester Project Visual Encoding &amp; Data </t>
   </si>
   <si>
-    <t>Mid-Semester Project Creation Day 1</t>
-  </si>
-  <si>
-    <t>Mid-Semester Project Creation Day 2</t>
-  </si>
-  <si>
     <t xml:space="preserve">Ethical and Deceptive Vis </t>
   </si>
   <si>
@@ -182,6 +176,12 @@
   </si>
   <si>
     <t>Perception and Color</t>
+  </si>
+  <si>
+    <t>Mid-Semester Project Creation Day 2 &amp; Display Day</t>
+  </si>
+  <si>
+    <t>Mid-Semester Project Visualization Creation Day 1</t>
   </si>
 </sst>
 </file>
@@ -443,10 +443,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -667,14 +667,14 @@
   <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="3" max="3" width="7.33203125" style="6" customWidth="1"/>
     <col min="4" max="4" width="4.1640625" style="10" customWidth="1"/>
-    <col min="6" max="6" width="40.5" customWidth="1"/>
+    <col min="6" max="6" width="40.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
@@ -724,7 +724,7 @@
     <row r="3" spans="1:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="25"/>
       <c r="B3" s="8"/>
-      <c r="C3" s="60"/>
+      <c r="C3" s="59"/>
       <c r="D3" s="26" t="s">
         <v>13</v>
       </c>
@@ -763,7 +763,7 @@
       <c r="B5" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="60"/>
+      <c r="C5" s="59"/>
       <c r="D5" s="51" t="s">
         <v>13</v>
       </c>
@@ -771,7 +771,7 @@
         <v>45694</v>
       </c>
       <c r="F5" s="53" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G5" s="54"/>
       <c r="H5" s="57"/>
@@ -800,7 +800,7 @@
     </row>
     <row r="7" spans="1:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="7"/>
-      <c r="C7" s="60"/>
+      <c r="C7" s="59"/>
       <c r="D7" s="26" t="s">
         <v>13</v>
       </c>
@@ -826,7 +826,7 @@
         <v>45706</v>
       </c>
       <c r="F8" s="20" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G8" s="20" t="s">
         <v>19</v>
@@ -842,7 +842,7 @@
       <c r="B9" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="60"/>
+      <c r="C9" s="59"/>
       <c r="D9" s="51" t="s">
         <v>13</v>
       </c>
@@ -882,7 +882,7 @@
       <c r="B11" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="60"/>
+      <c r="C11" s="59"/>
       <c r="D11" s="56" t="s">
         <v>13</v>
       </c>
@@ -890,7 +890,7 @@
         <v>45715</v>
       </c>
       <c r="F11" s="17" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G11" s="17"/>
       <c r="H11" s="50"/>
@@ -920,7 +920,7 @@
       <c r="B13" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C13" s="60"/>
+      <c r="C13" s="59"/>
       <c r="D13" s="56" t="s">
         <v>13</v>
       </c>
@@ -948,7 +948,7 @@
         <v>45727</v>
       </c>
       <c r="F14" s="16" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G14" s="48"/>
       <c r="H14" s="49"/>
@@ -958,7 +958,7 @@
       <c r="B15" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="60"/>
+      <c r="C15" s="59"/>
       <c r="D15" s="56" t="s">
         <v>13</v>
       </c>
@@ -966,12 +966,10 @@
         <v>45729</v>
       </c>
       <c r="F15" s="17" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="G15" s="17"/>
-      <c r="H15" s="50" t="s">
-        <v>27</v>
-      </c>
+      <c r="H15" s="50"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16" s="19" t="s">
@@ -1002,7 +1000,7 @@
       <c r="B17" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C17" s="60"/>
+      <c r="C17" s="59"/>
       <c r="D17" s="51" t="s">
         <v>13</v>
       </c>
@@ -1028,17 +1026,19 @@
         <v>45741</v>
       </c>
       <c r="F18" s="20" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G18" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="H18" s="24"/>
+      <c r="H18" s="37" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="19" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A19" s="31"/>
       <c r="B19" s="32"/>
-      <c r="C19" s="59"/>
+      <c r="C19" s="60"/>
       <c r="D19" s="33" t="s">
         <v>13</v>
       </c>
@@ -1078,7 +1078,7 @@
     <row r="21" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A21" s="31"/>
       <c r="B21" s="35"/>
-      <c r="C21" s="59"/>
+      <c r="C21" s="60"/>
       <c r="D21" s="33" t="s">
         <v>13</v>
       </c>
@@ -1116,7 +1116,7 @@
     <row r="23" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A23" s="31"/>
       <c r="B23" s="32"/>
-      <c r="C23" s="59"/>
+      <c r="C23" s="60"/>
       <c r="D23" s="33" t="s">
         <v>13</v>
       </c>
@@ -1124,7 +1124,7 @@
         <v>45757</v>
       </c>
       <c r="F23" s="32" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G23" s="32"/>
       <c r="H23" s="36"/>
@@ -1156,7 +1156,7 @@
     <row r="25" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A25" s="31"/>
       <c r="B25" s="32"/>
-      <c r="C25" s="59"/>
+      <c r="C25" s="60"/>
       <c r="D25" s="33" t="s">
         <v>13</v>
       </c>
@@ -1164,7 +1164,7 @@
         <v>45764</v>
       </c>
       <c r="F25" s="32" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G25" s="32" t="s">
         <v>30</v>
@@ -1194,7 +1194,7 @@
     <row r="27" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A27" s="38"/>
       <c r="B27" s="32"/>
-      <c r="C27" s="59"/>
+      <c r="C27" s="60"/>
       <c r="D27" s="33" t="s">
         <v>13</v>
       </c>
@@ -1238,7 +1238,7 @@
       <c r="B29" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="C29" s="59"/>
+      <c r="C29" s="60"/>
       <c r="D29" s="44" t="s">
         <v>13</v>
       </c>
@@ -1264,7 +1264,7 @@
     <row r="31" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A31" s="31"/>
       <c r="B31" s="35"/>
-      <c r="C31" s="59"/>
+      <c r="C31" s="60"/>
       <c r="D31" s="40"/>
       <c r="E31" s="35"/>
       <c r="F31" s="35"/>
@@ -1276,12 +1276,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="C10:C11"/>
     <mergeCell ref="C26:C27"/>
     <mergeCell ref="C28:C29"/>
     <mergeCell ref="C30:C31"/>
@@ -1291,6 +1285,12 @@
     <mergeCell ref="C20:C21"/>
     <mergeCell ref="C22:C23"/>
     <mergeCell ref="C24:C25"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="C10:C11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/assets/sched.xlsx
+++ b/assets/sched.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10119"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10309"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amosca/Library/Mobile Documents/com~apple~CloudDocs/Documents/Smith/teaching/SDS-CS109/assets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abmosca/Documents/Smith/teaching/SDS-CS109/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BAB5B15-E8CC-D446-8A5F-A3FC69EA0E9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{983B3597-3EA8-B241-94C0-1AEC5585820F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2200" yWindow="500" windowWidth="22380" windowHeight="22860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2200" yWindow="500" windowWidth="22380" windowHeight="15880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sched" sheetId="2" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="51">
   <si>
     <t>Date</t>
   </si>
@@ -112,76 +112,79 @@
     <t>Storytelling with Visualization</t>
   </si>
   <si>
+    <t>mp</t>
+  </si>
+  <si>
+    <t>proj</t>
+  </si>
+  <si>
+    <t>Personas and Prototypes</t>
+  </si>
+  <si>
+    <t>fp04</t>
+  </si>
+  <si>
+    <t>FP Workshop - Prototype Testing &amp; Feedback</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Text as Data </t>
+  </si>
+  <si>
+    <t>NO CLASS - Rally Day</t>
+  </si>
+  <si>
+    <t>NO CLASS - Spring Break</t>
+  </si>
+  <si>
+    <t>Mental Models and Visual Mapping</t>
+  </si>
+  <si>
+    <t>Getting Started with Tableau</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Choosing Visual Channels </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Geographic Vis - SAL </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mid-Semester Project Ideation (pt. 2) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mid-Semester Project Visual Encoding &amp; Data </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ethical and Deceptive Vis </t>
+  </si>
+  <si>
+    <t>Mid-Semester Project Ideation (pt. 1)</t>
+  </si>
+  <si>
+    <t>Persuasive Vis</t>
+  </si>
+  <si>
+    <t>SNOW DAY!</t>
+  </si>
+  <si>
+    <t>Perception and Color</t>
+  </si>
+  <si>
+    <t>Mid-Semester Project Creation Day 2 &amp; Display Day</t>
+  </si>
+  <si>
+    <t>Mid-Semester Project Visualization Creation Day 1</t>
+  </si>
+  <si>
+    <t>hw04, mp</t>
+  </si>
+  <si>
+    <t>TBD</t>
+  </si>
+  <si>
     <t>Interactive Visualization</t>
   </si>
   <si>
-    <t>mp</t>
-  </si>
-  <si>
-    <t>proj</t>
-  </si>
-  <si>
-    <t>Personas and Prototypes</t>
-  </si>
-  <si>
-    <t>fp04</t>
-  </si>
-  <si>
-    <t>FP Workshop - Prototype Testing &amp; Feedback</t>
-  </si>
-  <si>
     <t>Advanced Tableau</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Text as Data </t>
-  </si>
-  <si>
-    <t>NO CLASS - Rally Day</t>
-  </si>
-  <si>
-    <t>NO CLASS - Spring Break</t>
-  </si>
-  <si>
-    <t>Mental Models and Visual Mapping</t>
-  </si>
-  <si>
-    <t>Getting Started with Tableau</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Choosing Visual Channels </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Geographic Vis - SAL </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mid-Semester Project Ideation (pt. 2) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mid-Semester Project Visual Encoding &amp; Data </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ethical and Deceptive Vis </t>
-  </si>
-  <si>
-    <t>Mid-Semester Project Ideation (pt. 1)</t>
-  </si>
-  <si>
-    <t>Persuasive Vis</t>
-  </si>
-  <si>
-    <t>Design Principles</t>
-  </si>
-  <si>
-    <t>SNOW DAY!</t>
-  </si>
-  <si>
-    <t>Perception and Color</t>
-  </si>
-  <si>
-    <t>Mid-Semester Project Creation Day 2 &amp; Display Day</t>
-  </si>
-  <si>
-    <t>Mid-Semester Project Visualization Creation Day 1</t>
   </si>
 </sst>
 </file>
@@ -666,8 +669,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E37E44A5-0A5F-414A-B4D4-809AE35C85CF}">
   <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -749,7 +752,7 @@
         <v>45692</v>
       </c>
       <c r="F4" s="20" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G4" s="20" t="s">
         <v>17</v>
@@ -771,7 +774,7 @@
         <v>45694</v>
       </c>
       <c r="F5" s="53" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G5" s="54"/>
       <c r="H5" s="57"/>
@@ -789,7 +792,7 @@
         <v>45699</v>
       </c>
       <c r="F6" s="20" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G6" s="20" t="s">
         <v>18</v>
@@ -808,7 +811,7 @@
         <v>45701</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G7" s="8"/>
       <c r="H7" s="30"/>
@@ -826,7 +829,7 @@
         <v>45706</v>
       </c>
       <c r="F8" s="20" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G8" s="20" t="s">
         <v>19</v>
@@ -850,7 +853,7 @@
         <v>45708</v>
       </c>
       <c r="F9" s="53" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G9" s="54"/>
       <c r="H9" s="55"/>
@@ -871,7 +874,7 @@
         <v>24</v>
       </c>
       <c r="G10" s="20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H10" s="37" t="s">
         <v>19</v>
@@ -880,7 +883,7 @@
     <row r="11" spans="1:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A11" s="7"/>
       <c r="B11" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C11" s="59"/>
       <c r="D11" s="56" t="s">
@@ -890,7 +893,7 @@
         <v>45715</v>
       </c>
       <c r="F11" s="17" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G11" s="17"/>
       <c r="H11" s="50"/>
@@ -898,7 +901,7 @@
     <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" s="19"/>
       <c r="B12" s="20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C12" s="58">
         <v>6</v>
@@ -910,7 +913,7 @@
         <v>45720</v>
       </c>
       <c r="F12" s="16" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G12" s="48"/>
       <c r="H12" s="49"/>
@@ -928,7 +931,7 @@
         <v>45722</v>
       </c>
       <c r="F13" s="17" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G13" s="17"/>
       <c r="H13" s="50"/>
@@ -936,7 +939,7 @@
     <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" s="19"/>
       <c r="B14" s="20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C14" s="58">
         <v>7</v>
@@ -948,7 +951,7 @@
         <v>45727</v>
       </c>
       <c r="F14" s="16" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G14" s="48"/>
       <c r="H14" s="49"/>
@@ -956,7 +959,7 @@
     <row r="15" spans="1:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A15" s="7"/>
       <c r="B15" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C15" s="59"/>
       <c r="D15" s="56" t="s">
@@ -966,7 +969,7 @@
         <v>45729</v>
       </c>
       <c r="F15" s="17" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G15" s="17"/>
       <c r="H15" s="50"/>
@@ -988,7 +991,7 @@
         <v>45734</v>
       </c>
       <c r="F16" s="13" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G16" s="14"/>
       <c r="H16" s="15"/>
@@ -1008,7 +1011,7 @@
         <v>45736</v>
       </c>
       <c r="F17" s="53" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G17" s="54"/>
       <c r="H17" s="55"/>
@@ -1026,14 +1029,12 @@
         <v>45741</v>
       </c>
       <c r="F18" s="20" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="G18" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="H18" s="37" t="s">
-        <v>27</v>
-      </c>
+      <c r="H18" s="37"/>
     </row>
     <row r="19" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A19" s="31"/>
@@ -1046,7 +1047,7 @@
         <v>45743</v>
       </c>
       <c r="F19" s="32" t="s">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="G19" s="35"/>
       <c r="H19" s="36"/>
@@ -1065,13 +1066,13 @@
         <v>45748</v>
       </c>
       <c r="F20" s="20" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G20" s="20" t="s">
         <v>23</v>
       </c>
       <c r="H20" s="37" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="I20" s="8"/>
     </row>
@@ -1086,7 +1087,7 @@
         <v>45750</v>
       </c>
       <c r="F21" s="32" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="G21" s="32"/>
       <c r="H21" s="36"/>
@@ -1104,7 +1105,7 @@
         <v>45755</v>
       </c>
       <c r="F22" s="20" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="G22" s="20" t="s">
         <v>22</v>
@@ -1124,7 +1125,7 @@
         <v>45757</v>
       </c>
       <c r="F23" s="32" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="G23" s="32"/>
       <c r="H23" s="36"/>
@@ -1132,7 +1133,7 @@
     <row r="24" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A24" s="29"/>
       <c r="B24" s="20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C24" s="58">
         <v>12</v>
@@ -1144,7 +1145,7 @@
         <v>45762</v>
       </c>
       <c r="F24" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G24" s="16" t="s">
         <v>21</v>
@@ -1164,10 +1165,10 @@
         <v>45764</v>
       </c>
       <c r="F25" s="32" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G25" s="32" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H25" s="36" t="s">
         <v>21</v>
@@ -1186,7 +1187,7 @@
         <v>45769</v>
       </c>
       <c r="F26" s="20" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G26" s="20"/>
       <c r="H26" s="37"/>
@@ -1202,7 +1203,7 @@
         <v>45771</v>
       </c>
       <c r="F27" s="32" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G27" s="35"/>
       <c r="H27" s="39"/>
@@ -1212,7 +1213,7 @@
         <v>10</v>
       </c>
       <c r="B28" s="20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C28" s="58">
         <v>14</v>
@@ -1228,7 +1229,7 @@
       </c>
       <c r="G28" s="16"/>
       <c r="H28" s="43" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">

--- a/assets/sched.xlsx
+++ b/assets/sched.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10309"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10315"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abmosca/Documents/Smith/teaching/SDS-CS109/assets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amosca/Library/Mobile Documents/com~apple~CloudDocs/Documents/Smith/teaching/SDS-CS109/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{983B3597-3EA8-B241-94C0-1AEC5585820F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{088CF93D-81D7-4040-9F18-9EB64DFF7845}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2200" yWindow="500" windowWidth="22380" windowHeight="15880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -154,9 +154,6 @@
     <t xml:space="preserve">Mid-Semester Project Visual Encoding &amp; Data </t>
   </si>
   <si>
-    <t xml:space="preserve">Ethical and Deceptive Vis </t>
-  </si>
-  <si>
     <t>Mid-Semester Project Ideation (pt. 1)</t>
   </si>
   <si>
@@ -184,7 +181,10 @@
     <t>Interactive Visualization</t>
   </si>
   <si>
-    <t>Advanced Tableau</t>
+    <t xml:space="preserve">Advanced Tableau </t>
+  </si>
+  <si>
+    <t>Ethical and Deceptive Vis</t>
   </si>
 </sst>
 </file>
@@ -446,10 +446,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -670,7 +670,7 @@
   <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -727,7 +727,7 @@
     <row r="3" spans="1:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="25"/>
       <c r="B3" s="8"/>
-      <c r="C3" s="59"/>
+      <c r="C3" s="60"/>
       <c r="D3" s="26" t="s">
         <v>13</v>
       </c>
@@ -766,7 +766,7 @@
       <c r="B5" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="59"/>
+      <c r="C5" s="60"/>
       <c r="D5" s="51" t="s">
         <v>13</v>
       </c>
@@ -774,7 +774,7 @@
         <v>45694</v>
       </c>
       <c r="F5" s="53" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G5" s="54"/>
       <c r="H5" s="57"/>
@@ -803,7 +803,7 @@
     </row>
     <row r="7" spans="1:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="7"/>
-      <c r="C7" s="59"/>
+      <c r="C7" s="60"/>
       <c r="D7" s="26" t="s">
         <v>13</v>
       </c>
@@ -829,7 +829,7 @@
         <v>45706</v>
       </c>
       <c r="F8" s="20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G8" s="20" t="s">
         <v>19</v>
@@ -845,7 +845,7 @@
       <c r="B9" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="59"/>
+      <c r="C9" s="60"/>
       <c r="D9" s="51" t="s">
         <v>13</v>
       </c>
@@ -885,7 +885,7 @@
       <c r="B11" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="59"/>
+      <c r="C11" s="60"/>
       <c r="D11" s="56" t="s">
         <v>13</v>
       </c>
@@ -893,7 +893,7 @@
         <v>45715</v>
       </c>
       <c r="F11" s="17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G11" s="17"/>
       <c r="H11" s="50"/>
@@ -923,7 +923,7 @@
       <c r="B13" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C13" s="59"/>
+      <c r="C13" s="60"/>
       <c r="D13" s="56" t="s">
         <v>13</v>
       </c>
@@ -951,7 +951,7 @@
         <v>45727</v>
       </c>
       <c r="F14" s="16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G14" s="48"/>
       <c r="H14" s="49"/>
@@ -961,7 +961,7 @@
       <c r="B15" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="59"/>
+      <c r="C15" s="60"/>
       <c r="D15" s="56" t="s">
         <v>13</v>
       </c>
@@ -969,7 +969,7 @@
         <v>45729</v>
       </c>
       <c r="F15" s="17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G15" s="17"/>
       <c r="H15" s="50"/>
@@ -1003,7 +1003,7 @@
       <c r="B17" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C17" s="59"/>
+      <c r="C17" s="60"/>
       <c r="D17" s="51" t="s">
         <v>13</v>
       </c>
@@ -1039,7 +1039,7 @@
     <row r="19" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A19" s="31"/>
       <c r="B19" s="32"/>
-      <c r="C19" s="60"/>
+      <c r="C19" s="59"/>
       <c r="D19" s="33" t="s">
         <v>13</v>
       </c>
@@ -1047,7 +1047,7 @@
         <v>45743</v>
       </c>
       <c r="F19" s="32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G19" s="35"/>
       <c r="H19" s="36"/>
@@ -1072,14 +1072,14 @@
         <v>23</v>
       </c>
       <c r="H20" s="37" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I20" s="8"/>
     </row>
     <row r="21" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A21" s="31"/>
       <c r="B21" s="35"/>
-      <c r="C21" s="60"/>
+      <c r="C21" s="59"/>
       <c r="D21" s="33" t="s">
         <v>13</v>
       </c>
@@ -1087,7 +1087,7 @@
         <v>45750</v>
       </c>
       <c r="F21" s="32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G21" s="32"/>
       <c r="H21" s="36"/>
@@ -1105,7 +1105,7 @@
         <v>45755</v>
       </c>
       <c r="F22" s="20" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G22" s="20" t="s">
         <v>22</v>
@@ -1117,7 +1117,7 @@
     <row r="23" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A23" s="31"/>
       <c r="B23" s="32"/>
-      <c r="C23" s="60"/>
+      <c r="C23" s="59"/>
       <c r="D23" s="33" t="s">
         <v>13</v>
       </c>
@@ -1157,7 +1157,7 @@
     <row r="25" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A25" s="31"/>
       <c r="B25" s="32"/>
-      <c r="C25" s="60"/>
+      <c r="C25" s="59"/>
       <c r="D25" s="33" t="s">
         <v>13</v>
       </c>
@@ -1165,7 +1165,7 @@
         <v>45764</v>
       </c>
       <c r="F25" s="32" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G25" s="32" t="s">
         <v>29</v>
@@ -1195,7 +1195,7 @@
     <row r="27" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A27" s="38"/>
       <c r="B27" s="32"/>
-      <c r="C27" s="60"/>
+      <c r="C27" s="59"/>
       <c r="D27" s="33" t="s">
         <v>13</v>
       </c>
@@ -1239,7 +1239,7 @@
       <c r="B29" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="C29" s="60"/>
+      <c r="C29" s="59"/>
       <c r="D29" s="44" t="s">
         <v>13</v>
       </c>
@@ -1265,7 +1265,7 @@
     <row r="31" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A31" s="31"/>
       <c r="B31" s="35"/>
-      <c r="C31" s="60"/>
+      <c r="C31" s="59"/>
       <c r="D31" s="40"/>
       <c r="E31" s="35"/>
       <c r="F31" s="35"/>
@@ -1277,6 +1277,12 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="C10:C11"/>
     <mergeCell ref="C26:C27"/>
     <mergeCell ref="C28:C29"/>
     <mergeCell ref="C30:C31"/>
@@ -1286,12 +1292,6 @@
     <mergeCell ref="C20:C21"/>
     <mergeCell ref="C22:C23"/>
     <mergeCell ref="C24:C25"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="C10:C11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/assets/sched.xlsx
+++ b/assets/sched.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amosca/Library/Mobile Documents/com~apple~CloudDocs/Documents/Smith/teaching/SDS-CS109/assets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abmosca/Documents/Smith/teaching/SDS-CS109/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{088CF93D-81D7-4040-9F18-9EB64DFF7845}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EEA6385-636D-6947-AC6B-C7C4D0AD6E62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2200" yWindow="500" windowWidth="22380" windowHeight="15880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="51">
   <si>
     <t>Date</t>
   </si>
@@ -184,7 +184,7 @@
     <t xml:space="preserve">Advanced Tableau </t>
   </si>
   <si>
-    <t>Ethical and Deceptive Vis</t>
+    <t>FP Workshop - Proposal Check-Ins</t>
   </si>
 </sst>
 </file>
@@ -446,10 +446,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -669,8 +669,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E37E44A5-0A5F-414A-B4D4-809AE35C85CF}">
   <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24:C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -727,7 +727,7 @@
     <row r="3" spans="1:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="25"/>
       <c r="B3" s="8"/>
-      <c r="C3" s="60"/>
+      <c r="C3" s="59"/>
       <c r="D3" s="26" t="s">
         <v>13</v>
       </c>
@@ -766,7 +766,7 @@
       <c r="B5" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="60"/>
+      <c r="C5" s="59"/>
       <c r="D5" s="51" t="s">
         <v>13</v>
       </c>
@@ -803,7 +803,7 @@
     </row>
     <row r="7" spans="1:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="7"/>
-      <c r="C7" s="60"/>
+      <c r="C7" s="59"/>
       <c r="D7" s="26" t="s">
         <v>13</v>
       </c>
@@ -845,7 +845,7 @@
       <c r="B9" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="60"/>
+      <c r="C9" s="59"/>
       <c r="D9" s="51" t="s">
         <v>13</v>
       </c>
@@ -885,7 +885,7 @@
       <c r="B11" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="60"/>
+      <c r="C11" s="59"/>
       <c r="D11" s="56" t="s">
         <v>13</v>
       </c>
@@ -923,7 +923,7 @@
       <c r="B13" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C13" s="60"/>
+      <c r="C13" s="59"/>
       <c r="D13" s="56" t="s">
         <v>13</v>
       </c>
@@ -961,7 +961,7 @@
       <c r="B15" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="60"/>
+      <c r="C15" s="59"/>
       <c r="D15" s="56" t="s">
         <v>13</v>
       </c>
@@ -1003,7 +1003,7 @@
       <c r="B17" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C17" s="60"/>
+      <c r="C17" s="59"/>
       <c r="D17" s="51" t="s">
         <v>13</v>
       </c>
@@ -1039,7 +1039,7 @@
     <row r="19" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A19" s="31"/>
       <c r="B19" s="32"/>
-      <c r="C19" s="59"/>
+      <c r="C19" s="60"/>
       <c r="D19" s="33" t="s">
         <v>13</v>
       </c>
@@ -1079,7 +1079,7 @@
     <row r="21" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A21" s="31"/>
       <c r="B21" s="35"/>
-      <c r="C21" s="59"/>
+      <c r="C21" s="60"/>
       <c r="D21" s="33" t="s">
         <v>13</v>
       </c>
@@ -1116,19 +1116,21 @@
     </row>
     <row r="23" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A23" s="31"/>
-      <c r="B23" s="32"/>
-      <c r="C23" s="59"/>
-      <c r="D23" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="E23" s="34">
+      <c r="B23" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23" s="60"/>
+      <c r="D23" s="44" t="s">
+        <v>13</v>
+      </c>
+      <c r="E23" s="45">
         <v>45757</v>
       </c>
-      <c r="F23" s="32" t="s">
+      <c r="F23" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="G23" s="32"/>
-      <c r="H23" s="36"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="46"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A24" s="29"/>
@@ -1157,7 +1159,7 @@
     <row r="25" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A25" s="31"/>
       <c r="B25" s="32"/>
-      <c r="C25" s="59"/>
+      <c r="C25" s="60"/>
       <c r="D25" s="33" t="s">
         <v>13</v>
       </c>
@@ -1195,7 +1197,7 @@
     <row r="27" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A27" s="38"/>
       <c r="B27" s="32"/>
-      <c r="C27" s="59"/>
+      <c r="C27" s="60"/>
       <c r="D27" s="33" t="s">
         <v>13</v>
       </c>
@@ -1239,7 +1241,7 @@
       <c r="B29" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="C29" s="59"/>
+      <c r="C29" s="60"/>
       <c r="D29" s="44" t="s">
         <v>13</v>
       </c>
@@ -1265,7 +1267,7 @@
     <row r="31" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A31" s="31"/>
       <c r="B31" s="35"/>
-      <c r="C31" s="59"/>
+      <c r="C31" s="60"/>
       <c r="D31" s="40"/>
       <c r="E31" s="35"/>
       <c r="F31" s="35"/>
@@ -1277,12 +1279,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="C10:C11"/>
     <mergeCell ref="C26:C27"/>
     <mergeCell ref="C28:C29"/>
     <mergeCell ref="C30:C31"/>
@@ -1292,6 +1288,12 @@
     <mergeCell ref="C20:C21"/>
     <mergeCell ref="C22:C23"/>
     <mergeCell ref="C24:C25"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="C10:C11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/assets/sched.xlsx
+++ b/assets/sched.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10315"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10402"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abmosca/Documents/Smith/teaching/SDS-CS109/assets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amosca/Library/Mobile Documents/com~apple~CloudDocs/Documents/Smith/teaching/SDS-CS109/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EEA6385-636D-6947-AC6B-C7C4D0AD6E62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4B7C815-DD59-844E-B4E7-C3CF7720021D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2200" yWindow="500" windowWidth="22380" windowHeight="15880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -446,10 +446,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -669,8 +669,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E37E44A5-0A5F-414A-B4D4-809AE35C85CF}">
   <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24:C25"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -727,7 +727,7 @@
     <row r="3" spans="1:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="25"/>
       <c r="B3" s="8"/>
-      <c r="C3" s="59"/>
+      <c r="C3" s="60"/>
       <c r="D3" s="26" t="s">
         <v>13</v>
       </c>
@@ -766,7 +766,7 @@
       <c r="B5" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="59"/>
+      <c r="C5" s="60"/>
       <c r="D5" s="51" t="s">
         <v>13</v>
       </c>
@@ -803,7 +803,7 @@
     </row>
     <row r="7" spans="1:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="7"/>
-      <c r="C7" s="59"/>
+      <c r="C7" s="60"/>
       <c r="D7" s="26" t="s">
         <v>13</v>
       </c>
@@ -845,7 +845,7 @@
       <c r="B9" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="59"/>
+      <c r="C9" s="60"/>
       <c r="D9" s="51" t="s">
         <v>13</v>
       </c>
@@ -885,7 +885,7 @@
       <c r="B11" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="59"/>
+      <c r="C11" s="60"/>
       <c r="D11" s="56" t="s">
         <v>13</v>
       </c>
@@ -923,7 +923,7 @@
       <c r="B13" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C13" s="59"/>
+      <c r="C13" s="60"/>
       <c r="D13" s="56" t="s">
         <v>13</v>
       </c>
@@ -961,7 +961,7 @@
       <c r="B15" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="59"/>
+      <c r="C15" s="60"/>
       <c r="D15" s="56" t="s">
         <v>13</v>
       </c>
@@ -1003,7 +1003,7 @@
       <c r="B17" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C17" s="59"/>
+      <c r="C17" s="60"/>
       <c r="D17" s="51" t="s">
         <v>13</v>
       </c>
@@ -1039,7 +1039,7 @@
     <row r="19" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A19" s="31"/>
       <c r="B19" s="32"/>
-      <c r="C19" s="60"/>
+      <c r="C19" s="59"/>
       <c r="D19" s="33" t="s">
         <v>13</v>
       </c>
@@ -1079,7 +1079,7 @@
     <row r="21" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A21" s="31"/>
       <c r="B21" s="35"/>
-      <c r="C21" s="60"/>
+      <c r="C21" s="59"/>
       <c r="D21" s="33" t="s">
         <v>13</v>
       </c>
@@ -1119,7 +1119,7 @@
       <c r="B23" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="C23" s="60"/>
+      <c r="C23" s="59"/>
       <c r="D23" s="44" t="s">
         <v>13</v>
       </c>
@@ -1159,7 +1159,7 @@
     <row r="25" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A25" s="31"/>
       <c r="B25" s="32"/>
-      <c r="C25" s="60"/>
+      <c r="C25" s="59"/>
       <c r="D25" s="33" t="s">
         <v>13</v>
       </c>
@@ -1167,7 +1167,7 @@
         <v>45764</v>
       </c>
       <c r="F25" s="32" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="G25" s="32" t="s">
         <v>29</v>
@@ -1189,7 +1189,7 @@
         <v>45769</v>
       </c>
       <c r="F26" s="20" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="G26" s="20"/>
       <c r="H26" s="37"/>
@@ -1197,7 +1197,7 @@
     <row r="27" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A27" s="38"/>
       <c r="B27" s="32"/>
-      <c r="C27" s="60"/>
+      <c r="C27" s="59"/>
       <c r="D27" s="33" t="s">
         <v>13</v>
       </c>
@@ -1241,7 +1241,7 @@
       <c r="B29" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="C29" s="60"/>
+      <c r="C29" s="59"/>
       <c r="D29" s="44" t="s">
         <v>13</v>
       </c>
@@ -1267,7 +1267,7 @@
     <row r="31" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A31" s="31"/>
       <c r="B31" s="35"/>
-      <c r="C31" s="60"/>
+      <c r="C31" s="59"/>
       <c r="D31" s="40"/>
       <c r="E31" s="35"/>
       <c r="F31" s="35"/>
@@ -1279,6 +1279,12 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="C10:C11"/>
     <mergeCell ref="C26:C27"/>
     <mergeCell ref="C28:C29"/>
     <mergeCell ref="C30:C31"/>
@@ -1288,12 +1294,6 @@
     <mergeCell ref="C20:C21"/>
     <mergeCell ref="C22:C23"/>
     <mergeCell ref="C24:C25"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="C10:C11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/assets/sched.xlsx
+++ b/assets/sched.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10402"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10817"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amosca/Library/Mobile Documents/com~apple~CloudDocs/Documents/Smith/teaching/SDS-CS109/assets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abmosca/Documents/Smith/teaching/SDS-CS109/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4B7C815-DD59-844E-B4E7-C3CF7720021D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{230F60B6-3B74-A840-83C6-4551F066970D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2200" yWindow="500" windowWidth="22380" windowHeight="15880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2200" yWindow="500" windowWidth="25220" windowHeight="15880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sched" sheetId="2" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="53">
   <si>
     <t>Date</t>
   </si>
@@ -40,9 +40,6 @@
     <t>Topic</t>
   </si>
   <si>
-    <t xml:space="preserve">proj </t>
-  </si>
-  <si>
     <t>Day</t>
   </si>
   <si>
@@ -79,9 +76,6 @@
     <t>Introduction</t>
   </si>
   <si>
-    <t xml:space="preserve">Final Project Demonstrations </t>
-  </si>
-  <si>
     <t xml:space="preserve">Data Feminism </t>
   </si>
   <si>
@@ -106,9 +100,6 @@
     <t>fp01</t>
   </si>
   <si>
-    <t>Data Humanism</t>
-  </si>
-  <si>
     <t>Storytelling with Visualization</t>
   </si>
   <si>
@@ -130,12 +121,6 @@
     <t xml:space="preserve">Text as Data </t>
   </si>
   <si>
-    <t>NO CLASS - Rally Day</t>
-  </si>
-  <si>
-    <t>NO CLASS - Spring Break</t>
-  </si>
-  <si>
     <t>Mental Models and Visual Mapping</t>
   </si>
   <si>
@@ -160,24 +145,9 @@
     <t>Persuasive Vis</t>
   </si>
   <si>
-    <t>SNOW DAY!</t>
-  </si>
-  <si>
     <t>Perception and Color</t>
   </si>
   <si>
-    <t>Mid-Semester Project Creation Day 2 &amp; Display Day</t>
-  </si>
-  <si>
-    <t>Mid-Semester Project Visualization Creation Day 1</t>
-  </si>
-  <si>
-    <t>hw04, mp</t>
-  </si>
-  <si>
-    <t>TBD</t>
-  </si>
-  <si>
     <t>Interactive Visualization</t>
   </si>
   <si>
@@ -185,6 +155,42 @@
   </si>
   <si>
     <t>FP Workshop - Proposal Check-Ins</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FP Workshop </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FP Demonstrations </t>
+  </si>
+  <si>
+    <t xml:space="preserve">NO CLASS - Fall Break </t>
+  </si>
+  <si>
+    <t xml:space="preserve">NO CLASS - Thanksgiving Break </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data Humanism </t>
+  </si>
+  <si>
+    <t>Mid-Semester Project Carving Day 1</t>
+  </si>
+  <si>
+    <t>Mid-Semester Project Carving Day 2</t>
+  </si>
+  <si>
+    <t>Mid-Semester Project Carving Day 3</t>
+  </si>
+  <si>
+    <t>Mid-Semester Project Ideation (pt. 3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mp </t>
+  </si>
+  <si>
+    <t>Flex for Mountain Day</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flex Day = TBD </t>
   </si>
 </sst>
 </file>
@@ -356,7 +362,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -383,74 +389,73 @@
     </xf>
     <xf numFmtId="16" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="16" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="16" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="16" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="16" fontId="3" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="16" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="3" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="16" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="16" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="16" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="3" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -669,8 +674,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E37E44A5-0A5F-414A-B4D4-809AE35C85CF}">
   <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -682,16 +687,16 @@
   <sheetData>
     <row r="1" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="C1" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>0</v>
@@ -700,591 +705,594 @@
         <v>1</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>8</v>
-      </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A2" s="19"/>
-      <c r="B2" s="20"/>
-      <c r="C2" s="58">
+      <c r="A2" s="16"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="31">
         <v>1</v>
       </c>
-      <c r="D2" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="22">
-        <v>45685</v>
-      </c>
-      <c r="F2" s="20" t="s">
+      <c r="D2" s="34"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="38"/>
+    </row>
+    <row r="3" spans="1:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="19"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="40">
+        <v>45904</v>
+      </c>
+      <c r="F3" s="50" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="49"/>
+      <c r="H3" s="41"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A4" s="20"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="31">
+        <v>2</v>
+      </c>
+      <c r="D4" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="35">
+        <v>45909</v>
+      </c>
+      <c r="F4" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="23"/>
-      <c r="H2" s="24"/>
-    </row>
-    <row r="3" spans="1:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="25"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="60"/>
-      <c r="D3" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="27">
-        <v>45687</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3" s="28"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A4" s="29"/>
-      <c r="B4" s="20"/>
-      <c r="C4" s="58">
-        <v>2</v>
-      </c>
-      <c r="D4" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="22">
-        <v>45692</v>
-      </c>
-      <c r="F4" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="G4" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="H4" s="24"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="38"/>
     </row>
     <row r="5" spans="1:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="60"/>
-      <c r="D5" s="51" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="52">
-        <v>45694</v>
-      </c>
-      <c r="F5" s="53" t="s">
-        <v>42</v>
-      </c>
-      <c r="G5" s="54"/>
-      <c r="H5" s="57"/>
+      <c r="A5" s="19"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="40">
+        <v>45911</v>
+      </c>
+      <c r="F5" s="50" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" s="50" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" s="41"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A6" s="29"/>
-      <c r="B6" s="20"/>
-      <c r="C6" s="58">
+      <c r="A6" s="20"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="31">
         <v>3</v>
       </c>
-      <c r="D6" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="22">
-        <v>45699</v>
-      </c>
-      <c r="F6" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="G6" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="H6" s="37" t="s">
-        <v>17</v>
-      </c>
+      <c r="D6" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="35">
+        <v>45916</v>
+      </c>
+      <c r="F6" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="36"/>
+      <c r="H6" s="38"/>
     </row>
     <row r="7" spans="1:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="7"/>
-      <c r="C7" s="60"/>
-      <c r="D7" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" s="27">
-        <v>45701</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="G7" s="8"/>
-      <c r="H7" s="30"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="40">
+        <v>45918</v>
+      </c>
+      <c r="F7" s="50" t="s">
+        <v>31</v>
+      </c>
+      <c r="G7" s="50" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" s="43" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A8" s="29"/>
-      <c r="B8" s="23"/>
-      <c r="C8" s="58">
+      <c r="A8" s="20"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="31">
         <v>4</v>
       </c>
-      <c r="D8" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" s="22">
-        <v>45706</v>
-      </c>
-      <c r="F8" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="G8" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="H8" s="37" t="s">
-        <v>18</v>
-      </c>
+      <c r="D8" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="35">
+        <v>45923</v>
+      </c>
+      <c r="F8" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="G8" s="36"/>
+      <c r="H8" s="42"/>
     </row>
     <row r="9" spans="1:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="60"/>
-      <c r="D9" s="51" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" s="52">
-        <v>45708</v>
-      </c>
-      <c r="F9" s="53" t="s">
-        <v>32</v>
-      </c>
-      <c r="G9" s="54"/>
-      <c r="H9" s="55"/>
+      <c r="A9" s="19"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="40">
+        <v>45925</v>
+      </c>
+      <c r="F9" s="50" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" s="50" t="s">
+        <v>17</v>
+      </c>
+      <c r="H9" s="43" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A10" s="19"/>
-      <c r="B10" s="20"/>
-      <c r="C10" s="58">
+      <c r="A10" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" s="22">
-        <v>45713</v>
-      </c>
-      <c r="F10" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="G10" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="H10" s="37" t="s">
-        <v>19</v>
-      </c>
+      <c r="C10" s="31">
+        <v>5</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="12">
+        <v>45930</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="G10" s="51"/>
+      <c r="H10" s="52"/>
     </row>
     <row r="11" spans="1:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A11" s="7"/>
-      <c r="B11" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11" s="60"/>
-      <c r="D11" s="56" t="s">
-        <v>13</v>
-      </c>
-      <c r="E11" s="47">
-        <v>45715</v>
-      </c>
-      <c r="F11" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="G11" s="17"/>
-      <c r="H11" s="50"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="40">
+        <v>45932</v>
+      </c>
+      <c r="F11" s="50" t="s">
+        <v>45</v>
+      </c>
+      <c r="G11" s="50" t="s">
+        <v>18</v>
+      </c>
+      <c r="H11" s="43" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A12" s="19"/>
-      <c r="B12" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="C12" s="58">
+      <c r="A12" s="16"/>
+      <c r="B12" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="31">
         <v>6</v>
       </c>
-      <c r="D12" s="41" t="s">
-        <v>12</v>
-      </c>
-      <c r="E12" s="42">
-        <v>45720</v>
-      </c>
-      <c r="F12" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="G12" s="48"/>
-      <c r="H12" s="49"/>
+      <c r="D12" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="26">
+        <v>45937</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="G12" s="36" t="s">
+        <v>50</v>
+      </c>
+      <c r="H12" s="42"/>
     </row>
     <row r="13" spans="1:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A13" s="7"/>
       <c r="B13" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C13" s="60"/>
-      <c r="D13" s="56" t="s">
-        <v>13</v>
-      </c>
-      <c r="E13" s="47">
-        <v>45722</v>
-      </c>
-      <c r="F13" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="G13" s="17"/>
-      <c r="H13" s="50"/>
+        <v>24</v>
+      </c>
+      <c r="C13" s="32"/>
+      <c r="D13" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="29">
+        <v>45939</v>
+      </c>
+      <c r="F13" s="58" t="s">
+        <v>33</v>
+      </c>
+      <c r="G13" s="49"/>
+      <c r="H13" s="43" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A14" s="19"/>
-      <c r="B14" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="C14" s="58">
+      <c r="A14" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="31">
         <v>7</v>
       </c>
-      <c r="D14" s="41" t="s">
-        <v>12</v>
-      </c>
-      <c r="E14" s="42">
-        <v>45727</v>
-      </c>
-      <c r="F14" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="G14" s="48"/>
-      <c r="H14" s="49"/>
+      <c r="D14" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="12">
+        <v>45944</v>
+      </c>
+      <c r="F14" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="G14" s="51"/>
+      <c r="H14" s="52"/>
     </row>
     <row r="15" spans="1:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A15" s="7"/>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="50" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="32"/>
+      <c r="D15" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" s="40">
+        <v>45946</v>
+      </c>
+      <c r="F15" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="G15" s="49"/>
+      <c r="H15" s="41"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A16" s="16"/>
+      <c r="B16" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="31">
+        <v>8</v>
+      </c>
+      <c r="D16" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" s="26">
+        <v>45951</v>
+      </c>
+      <c r="F16" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="G16" s="36"/>
+      <c r="H16" s="42"/>
+    </row>
+    <row r="17" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="19"/>
+      <c r="B17" s="50" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" s="32"/>
+      <c r="D17" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" s="29">
+        <v>45953</v>
+      </c>
+      <c r="F17" s="58" t="s">
+        <v>46</v>
+      </c>
+      <c r="G17" s="49"/>
+      <c r="H17" s="41"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A18" s="20"/>
+      <c r="B18" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" s="31">
+        <v>9</v>
+      </c>
+      <c r="D18" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" s="26">
+        <v>45958</v>
+      </c>
+      <c r="F18" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="G18" s="36"/>
+      <c r="H18" s="42"/>
+    </row>
+    <row r="19" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="21"/>
+      <c r="B19" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="33"/>
+      <c r="D19" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19" s="28">
+        <v>45960</v>
+      </c>
+      <c r="F19" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="G19" s="46"/>
+      <c r="H19" s="48"/>
+      <c r="I19" s="7"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A20" s="20"/>
+      <c r="B20" s="17"/>
+      <c r="C20" s="31">
+        <v>10</v>
+      </c>
+      <c r="D20" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" s="35">
+        <v>45965</v>
+      </c>
+      <c r="F20" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="G20" s="37"/>
+      <c r="H20" s="42"/>
+      <c r="I20" s="8"/>
+    </row>
+    <row r="21" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="21"/>
+      <c r="B21" s="23"/>
+      <c r="C21" s="33"/>
+      <c r="D21" s="44" t="s">
+        <v>12</v>
+      </c>
+      <c r="E21" s="45">
+        <v>45967</v>
+      </c>
+      <c r="F21" s="46" t="s">
+        <v>25</v>
+      </c>
+      <c r="G21" s="46" t="s">
+        <v>21</v>
+      </c>
+      <c r="H21" s="48" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A22" s="16"/>
+      <c r="B22" s="17"/>
+      <c r="C22" s="31">
+        <v>11</v>
+      </c>
+      <c r="D22" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22" s="35">
+        <v>45972</v>
+      </c>
+      <c r="F22" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="G22" s="36"/>
+      <c r="H22" s="42"/>
+    </row>
+    <row r="23" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="21"/>
+      <c r="B23" s="22"/>
+      <c r="C23" s="33"/>
+      <c r="D23" s="44" t="s">
+        <v>12</v>
+      </c>
+      <c r="E23" s="45">
+        <v>45974</v>
+      </c>
+      <c r="F23" s="46" t="s">
+        <v>39</v>
+      </c>
+      <c r="G23" s="46" t="s">
+        <v>20</v>
+      </c>
+      <c r="H23" s="48" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A24" s="20"/>
+      <c r="B24" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" s="31">
+        <v>12</v>
+      </c>
+      <c r="D24" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="E24" s="26">
+        <v>45979</v>
+      </c>
+      <c r="F24" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="G24" s="36"/>
+      <c r="H24" s="42"/>
+    </row>
+    <row r="25" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="21"/>
+      <c r="B25" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" s="33"/>
+      <c r="D25" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="E25" s="28">
+        <v>45981</v>
+      </c>
+      <c r="F25" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="60"/>
-      <c r="D15" s="56" t="s">
+      <c r="G25" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="H25" s="48" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A26" s="20"/>
+      <c r="B26" s="17"/>
+      <c r="C26" s="31">
         <v>13</v>
       </c>
-      <c r="E15" s="47">
-        <v>45729</v>
-      </c>
-      <c r="F15" s="17" t="s">
+      <c r="D26" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="E26" s="35">
+        <v>45986</v>
+      </c>
+      <c r="F26" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="G26" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="H26" s="42" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="B27" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27" s="33"/>
+      <c r="D27" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="E27" s="54">
+        <v>45988</v>
+      </c>
+      <c r="F27" s="55" t="s">
         <v>44</v>
       </c>
-      <c r="G15" s="17"/>
-      <c r="H15" s="50"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A16" s="19" t="s">
+      <c r="G27" s="56"/>
+      <c r="H27" s="57"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A28" s="16"/>
+      <c r="B28" s="17"/>
+      <c r="C28" s="31">
+        <v>14</v>
+      </c>
+      <c r="D28" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="E28" s="35">
+        <v>45993</v>
+      </c>
+      <c r="F28" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="G28" s="37"/>
+      <c r="H28" s="38"/>
+    </row>
+    <row r="29" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="24"/>
+      <c r="B29" s="22"/>
+      <c r="C29" s="33"/>
+      <c r="D29" s="44" t="s">
+        <v>12</v>
+      </c>
+      <c r="E29" s="45">
+        <v>45995</v>
+      </c>
+      <c r="F29" s="46" t="s">
+        <v>52</v>
+      </c>
+      <c r="G29" s="46"/>
+      <c r="H29" s="48"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A30" s="16"/>
+      <c r="B30" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C30" s="31">
+        <v>15</v>
+      </c>
+      <c r="D30" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="E30" s="26">
+        <v>46000</v>
+      </c>
+      <c r="F30" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="G30" s="36"/>
+      <c r="H30" s="42"/>
+    </row>
+    <row r="31" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="B16" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="C16" s="58">
-        <v>8</v>
-      </c>
-      <c r="D16" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="E16" s="12">
-        <v>45734</v>
-      </c>
-      <c r="F16" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="G16" s="14"/>
-      <c r="H16" s="15"/>
-    </row>
-    <row r="17" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C17" s="60"/>
-      <c r="D17" s="51" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="52">
-        <v>45736</v>
-      </c>
-      <c r="F17" s="53" t="s">
-        <v>33</v>
-      </c>
-      <c r="G17" s="54"/>
-      <c r="H17" s="55"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A18" s="29"/>
-      <c r="B18" s="20"/>
-      <c r="C18" s="58">
-        <v>9</v>
-      </c>
-      <c r="D18" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="E18" s="22">
-        <v>45741</v>
-      </c>
-      <c r="F18" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="G18" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="H18" s="37"/>
-    </row>
-    <row r="19" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="31"/>
-      <c r="B19" s="32"/>
-      <c r="C19" s="59"/>
-      <c r="D19" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="E19" s="34">
-        <v>45743</v>
-      </c>
-      <c r="F19" s="32" t="s">
-        <v>48</v>
-      </c>
-      <c r="G19" s="35"/>
-      <c r="H19" s="36"/>
-      <c r="I19" s="7"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A20" s="29"/>
-      <c r="B20" s="20"/>
-      <c r="C20" s="58">
-        <v>10</v>
-      </c>
-      <c r="D20" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="E20" s="22">
-        <v>45748</v>
-      </c>
-      <c r="F20" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="G20" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="H20" s="37" t="s">
-        <v>46</v>
-      </c>
-      <c r="I20" s="8"/>
-    </row>
-    <row r="21" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="31"/>
-      <c r="B21" s="35"/>
-      <c r="C21" s="59"/>
-      <c r="D21" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="E21" s="34">
-        <v>45750</v>
-      </c>
-      <c r="F21" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="G21" s="32"/>
-      <c r="H21" s="36"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A22" s="19"/>
-      <c r="B22" s="20"/>
-      <c r="C22" s="58">
-        <v>11</v>
-      </c>
-      <c r="D22" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="E22" s="22">
-        <v>45755</v>
-      </c>
-      <c r="F22" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="G22" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="H22" s="37" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="31"/>
-      <c r="B23" s="32" t="s">
-        <v>27</v>
-      </c>
-      <c r="C23" s="59"/>
-      <c r="D23" s="44" t="s">
-        <v>13</v>
-      </c>
-      <c r="E23" s="45">
-        <v>45757</v>
-      </c>
-      <c r="F23" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="G23" s="18"/>
-      <c r="H23" s="46"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A24" s="29"/>
-      <c r="B24" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="C24" s="58">
-        <v>12</v>
-      </c>
-      <c r="D24" s="41" t="s">
-        <v>12</v>
-      </c>
-      <c r="E24" s="42">
-        <v>45762</v>
-      </c>
-      <c r="F24" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="H24" s="43" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="31"/>
-      <c r="B25" s="32"/>
-      <c r="C25" s="59"/>
-      <c r="D25" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="E25" s="34">
-        <v>45764</v>
-      </c>
-      <c r="F25" s="32" t="s">
-        <v>31</v>
-      </c>
-      <c r="G25" s="32" t="s">
-        <v>29</v>
-      </c>
-      <c r="H25" s="36" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A26" s="29"/>
-      <c r="B26" s="20"/>
-      <c r="C26" s="58">
-        <v>13</v>
-      </c>
-      <c r="D26" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="E26" s="22">
-        <v>45769</v>
-      </c>
-      <c r="F26" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="G26" s="20"/>
-      <c r="H26" s="37"/>
-    </row>
-    <row r="27" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="38"/>
-      <c r="B27" s="32"/>
-      <c r="C27" s="59"/>
-      <c r="D27" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="E27" s="34">
-        <v>45771</v>
-      </c>
-      <c r="F27" s="32" t="s">
-        <v>37</v>
-      </c>
-      <c r="G27" s="35"/>
-      <c r="H27" s="39"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A28" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="B28" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="C28" s="58">
-        <v>14</v>
-      </c>
-      <c r="D28" s="41" t="s">
-        <v>12</v>
-      </c>
-      <c r="E28" s="42">
-        <v>45776</v>
-      </c>
-      <c r="F28" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="G28" s="16"/>
-      <c r="H28" s="43" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="38" t="s">
-        <v>10</v>
-      </c>
-      <c r="B29" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="C29" s="59"/>
-      <c r="D29" s="44" t="s">
-        <v>13</v>
-      </c>
-      <c r="E29" s="45">
-        <v>45778</v>
-      </c>
-      <c r="F29" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="G29" s="18"/>
-      <c r="H29" s="46"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A30" s="19"/>
-      <c r="B30" s="20"/>
-      <c r="C30" s="58"/>
-      <c r="D30" s="21"/>
-      <c r="E30" s="22"/>
-      <c r="F30" s="20"/>
-      <c r="G30" s="23"/>
-      <c r="H30" s="37"/>
-    </row>
-    <row r="31" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="31"/>
-      <c r="B31" s="35"/>
-      <c r="C31" s="59"/>
-      <c r="D31" s="40"/>
-      <c r="E31" s="35"/>
-      <c r="F31" s="35"/>
-      <c r="G31" s="35"/>
-      <c r="H31" s="39"/>
+      <c r="B31" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C31" s="33"/>
+      <c r="D31" s="59" t="s">
+        <v>12</v>
+      </c>
+      <c r="E31" s="28">
+        <v>46002</v>
+      </c>
+      <c r="F31" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="G31" s="47"/>
+      <c r="H31" s="48" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="33" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F33" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="C10:C11"/>
     <mergeCell ref="C26:C27"/>
     <mergeCell ref="C28:C29"/>
     <mergeCell ref="C30:C31"/>
@@ -1294,6 +1302,12 @@
     <mergeCell ref="C20:C21"/>
     <mergeCell ref="C22:C23"/>
     <mergeCell ref="C24:C25"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="C10:C11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/assets/sched.xlsx
+++ b/assets/sched.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10817"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abmosca/Documents/Smith/teaching/SDS-CS109/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{230F60B6-3B74-A840-83C6-4551F066970D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14D7C083-89C5-944B-817C-24D24AD8A3C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2200" yWindow="500" windowWidth="25220" windowHeight="15880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="53">
   <si>
     <t>Date</t>
   </si>
@@ -130,9 +130,6 @@
     <t xml:space="preserve">Choosing Visual Channels </t>
   </si>
   <si>
-    <t xml:space="preserve">Geographic Vis - SAL </t>
-  </si>
-  <si>
     <t xml:space="preserve">Mid-Semester Project Ideation (pt. 2) </t>
   </si>
   <si>
@@ -191,6 +188,22 @@
   </si>
   <si>
     <t xml:space="preserve">Flex Day = TBD </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">NO CLASS - </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Cromwell Day</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -362,7 +375,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -412,38 +425,23 @@
     <xf numFmtId="16" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="16" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="16" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="16" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="3" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -453,9 +451,18 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -674,8 +681,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E37E44A5-0A5F-414A-B4D4-809AE35C85CF}">
   <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -714,139 +721,138 @@
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="16"/>
       <c r="B2" s="17"/>
-      <c r="C2" s="31">
+      <c r="C2" s="51">
         <v>1</v>
       </c>
-      <c r="D2" s="34"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="38"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="33"/>
     </row>
     <row r="3" spans="1:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="19"/>
       <c r="B3" s="8"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="40">
+      <c r="C3" s="53"/>
+      <c r="D3" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="35">
         <v>45904</v>
       </c>
-      <c r="F3" s="50" t="s">
+      <c r="F3" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="49"/>
-      <c r="H3" s="41"/>
+      <c r="H3" s="36"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="20"/>
       <c r="B4" s="17"/>
-      <c r="C4" s="31">
+      <c r="C4" s="51">
         <v>2</v>
       </c>
-      <c r="D4" s="34" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="35">
+      <c r="D4" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="32">
         <v>45909</v>
       </c>
-      <c r="F4" s="36" t="s">
+      <c r="F4" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="37"/>
-      <c r="H4" s="38"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="33"/>
     </row>
     <row r="5" spans="1:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A5" s="19"/>
       <c r="B5" s="8"/>
-      <c r="C5" s="32"/>
-      <c r="D5" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="40">
+      <c r="C5" s="53"/>
+      <c r="D5" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="35">
         <v>45911</v>
       </c>
-      <c r="F5" s="50" t="s">
+      <c r="F5" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="G5" s="50" t="s">
+      <c r="G5" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="H5" s="41"/>
+      <c r="H5" s="36"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="20"/>
       <c r="B6" s="17"/>
-      <c r="C6" s="31">
+      <c r="C6" s="51">
         <v>3</v>
       </c>
-      <c r="D6" s="34" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="35">
+      <c r="D6" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="32">
         <v>45916</v>
       </c>
-      <c r="F6" s="36" t="s">
+      <c r="F6" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="G6" s="36"/>
-      <c r="H6" s="38"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="33"/>
     </row>
     <row r="7" spans="1:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="7"/>
-      <c r="C7" s="32"/>
-      <c r="D7" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="40">
+      <c r="C7" s="53"/>
+      <c r="D7" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="35">
         <v>45918</v>
       </c>
-      <c r="F7" s="50" t="s">
+      <c r="F7" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="G7" s="50" t="s">
+      <c r="G7" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="43" t="s">
+      <c r="H7" s="38" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" s="20"/>
       <c r="B8" s="18"/>
-      <c r="C8" s="31">
+      <c r="C8" s="51">
         <v>4</v>
       </c>
-      <c r="D8" s="34" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="35">
+      <c r="D8" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="32">
         <v>45923</v>
       </c>
-      <c r="F8" s="36" t="s">
-        <v>37</v>
-      </c>
-      <c r="G8" s="36"/>
-      <c r="H8" s="42"/>
+      <c r="F8" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="G8" s="17"/>
+      <c r="H8" s="37"/>
     </row>
     <row r="9" spans="1:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A9" s="19"/>
       <c r="B9" s="8"/>
-      <c r="C9" s="32"/>
-      <c r="D9" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" s="40">
+      <c r="C9" s="53"/>
+      <c r="D9" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="35">
         <v>45925</v>
       </c>
-      <c r="F9" s="50" t="s">
+      <c r="F9" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="G9" s="50" t="s">
+      <c r="G9" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="H9" s="43" t="s">
+      <c r="H9" s="38" t="s">
         <v>16</v>
       </c>
     </row>
@@ -857,7 +863,7 @@
       <c r="B10" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="31">
+      <c r="C10" s="51">
         <v>5</v>
       </c>
       <c r="D10" s="11" t="s">
@@ -867,28 +873,28 @@
         <v>45930</v>
       </c>
       <c r="F10" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="G10" s="51"/>
-      <c r="H10" s="52"/>
+        <v>50</v>
+      </c>
+      <c r="G10" s="42"/>
+      <c r="H10" s="43"/>
     </row>
     <row r="11" spans="1:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A11" s="7"/>
       <c r="B11" s="8"/>
-      <c r="C11" s="32"/>
-      <c r="D11" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="E11" s="40">
+      <c r="C11" s="53"/>
+      <c r="D11" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="35">
         <v>45932</v>
       </c>
-      <c r="F11" s="50" t="s">
-        <v>45</v>
-      </c>
-      <c r="G11" s="50" t="s">
+      <c r="F11" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="G11" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="H11" s="43" t="s">
+      <c r="H11" s="38" t="s">
         <v>17</v>
       </c>
     </row>
@@ -897,7 +903,7 @@
       <c r="B12" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="31">
+      <c r="C12" s="51">
         <v>6</v>
       </c>
       <c r="D12" s="25" t="s">
@@ -907,30 +913,29 @@
         <v>45937</v>
       </c>
       <c r="F12" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="G12" s="36" t="s">
-        <v>50</v>
-      </c>
-      <c r="H12" s="42"/>
+        <v>34</v>
+      </c>
+      <c r="G12" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="H12" s="37"/>
     </row>
     <row r="13" spans="1:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A13" s="7"/>
       <c r="B13" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="32"/>
+      <c r="C13" s="53"/>
       <c r="D13" s="30" t="s">
         <v>12</v>
       </c>
       <c r="E13" s="29">
         <v>45939</v>
       </c>
-      <c r="F13" s="58" t="s">
-        <v>33</v>
-      </c>
-      <c r="G13" s="49"/>
-      <c r="H13" s="43" t="s">
+      <c r="F13" s="49" t="s">
+        <v>32</v>
+      </c>
+      <c r="H13" s="38" t="s">
         <v>18</v>
       </c>
     </row>
@@ -941,7 +946,7 @@
       <c r="B14" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="31">
+      <c r="C14" s="51">
         <v>7</v>
       </c>
       <c r="D14" s="11" t="s">
@@ -951,35 +956,34 @@
         <v>45944</v>
       </c>
       <c r="F14" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="G14" s="51"/>
-      <c r="H14" s="52"/>
+        <v>42</v>
+      </c>
+      <c r="G14" s="42"/>
+      <c r="H14" s="43"/>
     </row>
     <row r="15" spans="1:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A15" s="7"/>
-      <c r="B15" s="50" t="s">
+      <c r="B15" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="32"/>
-      <c r="D15" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="E15" s="40">
+      <c r="C15" s="53"/>
+      <c r="D15" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" s="35">
         <v>45946</v>
       </c>
-      <c r="F15" s="50" t="s">
-        <v>49</v>
-      </c>
-      <c r="G15" s="49"/>
-      <c r="H15" s="41"/>
+      <c r="F15" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="H15" s="36"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16" s="16"/>
       <c r="B16" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="31">
+      <c r="C16" s="51">
         <v>8</v>
       </c>
       <c r="D16" s="25" t="s">
@@ -989,35 +993,34 @@
         <v>45951</v>
       </c>
       <c r="F16" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="G16" s="36"/>
-      <c r="H16" s="42"/>
+        <v>33</v>
+      </c>
+      <c r="G16" s="17"/>
+      <c r="H16" s="37"/>
     </row>
     <row r="17" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A17" s="19"/>
-      <c r="B17" s="50" t="s">
+      <c r="B17" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C17" s="32"/>
+      <c r="C17" s="53"/>
       <c r="D17" s="30" t="s">
         <v>12</v>
       </c>
       <c r="E17" s="29">
         <v>45953</v>
       </c>
-      <c r="F17" s="58" t="s">
-        <v>46</v>
-      </c>
-      <c r="G17" s="49"/>
-      <c r="H17" s="41"/>
+      <c r="F17" s="49" t="s">
+        <v>45</v>
+      </c>
+      <c r="H17" s="36"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A18" s="20"/>
       <c r="B18" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="31">
+      <c r="C18" s="51">
         <v>9</v>
       </c>
       <c r="D18" s="25" t="s">
@@ -1027,17 +1030,17 @@
         <v>45958</v>
       </c>
       <c r="F18" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="G18" s="36"/>
-      <c r="H18" s="42"/>
+        <v>46</v>
+      </c>
+      <c r="G18" s="17"/>
+      <c r="H18" s="37"/>
     </row>
     <row r="19" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A19" s="21"/>
       <c r="B19" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="C19" s="33"/>
+      <c r="C19" s="52"/>
       <c r="D19" s="27" t="s">
         <v>12</v>
       </c>
@@ -1045,45 +1048,49 @@
         <v>45960</v>
       </c>
       <c r="F19" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="G19" s="46"/>
-      <c r="H19" s="48"/>
+        <v>47</v>
+      </c>
+      <c r="G19" s="22"/>
+      <c r="H19" s="41"/>
       <c r="I19" s="7"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A20" s="20"/>
       <c r="B20" s="17"/>
-      <c r="C20" s="31">
+      <c r="C20" s="51">
         <v>10</v>
       </c>
-      <c r="D20" s="34" t="s">
-        <v>11</v>
-      </c>
-      <c r="E20" s="35">
+      <c r="D20" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" s="32">
         <v>45965</v>
       </c>
-      <c r="F20" s="36" t="s">
-        <v>38</v>
-      </c>
-      <c r="G20" s="37"/>
-      <c r="H20" s="42"/>
+      <c r="F20" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="G20" s="18"/>
+      <c r="H20" s="37"/>
       <c r="I20" s="8"/>
     </row>
     <row r="21" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="21"/>
-      <c r="B21" s="23"/>
-      <c r="C21" s="33"/>
+      <c r="A21" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" s="52"/>
       <c r="D21" s="44" t="s">
         <v>12</v>
       </c>
       <c r="E21" s="45">
         <v>45967</v>
       </c>
-      <c r="F21" s="46" t="s">
-        <v>25</v>
-      </c>
-      <c r="G21" s="46" t="s">
+      <c r="F21" s="47" t="s">
+        <v>52</v>
+      </c>
+      <c r="G21" s="47" t="s">
         <v>21</v>
       </c>
       <c r="H21" s="48" t="s">
@@ -1093,38 +1100,38 @@
     <row r="22" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A22" s="16"/>
       <c r="B22" s="17"/>
-      <c r="C22" s="31">
-        <v>11</v>
-      </c>
-      <c r="D22" s="34" t="s">
-        <v>11</v>
-      </c>
-      <c r="E22" s="35">
+      <c r="C22" s="51">
+        <v>11</v>
+      </c>
+      <c r="D22" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22" s="32">
         <v>45972</v>
       </c>
-      <c r="F22" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="G22" s="36"/>
-      <c r="H22" s="42"/>
+      <c r="F22" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="G22" s="17"/>
+      <c r="H22" s="37"/>
     </row>
     <row r="23" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A23" s="21"/>
       <c r="B23" s="22"/>
-      <c r="C23" s="33"/>
-      <c r="D23" s="44" t="s">
-        <v>12</v>
-      </c>
-      <c r="E23" s="45">
+      <c r="C23" s="52"/>
+      <c r="D23" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="E23" s="40">
         <v>45974</v>
       </c>
-      <c r="F23" s="46" t="s">
-        <v>39</v>
-      </c>
-      <c r="G23" s="46" t="s">
+      <c r="F23" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="G23" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="H23" s="48" t="s">
+      <c r="H23" s="41" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1133,7 +1140,7 @@
       <c r="B24" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="C24" s="31">
+      <c r="C24" s="51">
         <v>12</v>
       </c>
       <c r="D24" s="25" t="s">
@@ -1143,17 +1150,17 @@
         <v>45979</v>
       </c>
       <c r="F24" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="G24" s="36"/>
-      <c r="H24" s="42"/>
+        <v>39</v>
+      </c>
+      <c r="G24" s="17"/>
+      <c r="H24" s="37"/>
     </row>
     <row r="25" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A25" s="21"/>
       <c r="B25" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="C25" s="33"/>
+      <c r="C25" s="52"/>
       <c r="D25" s="27" t="s">
         <v>12</v>
       </c>
@@ -1163,32 +1170,32 @@
       <c r="F25" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="G25" s="46" t="s">
+      <c r="G25" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="H25" s="48" t="s">
+      <c r="H25" s="41" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A26" s="20"/>
       <c r="B26" s="17"/>
-      <c r="C26" s="31">
+      <c r="C26" s="51">
         <v>13</v>
       </c>
-      <c r="D26" s="34" t="s">
-        <v>11</v>
-      </c>
-      <c r="E26" s="35">
+      <c r="D26" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="E26" s="32">
         <v>45986</v>
       </c>
-      <c r="F26" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="G26" s="36" t="s">
+      <c r="F26" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="G26" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="H26" s="42" t="s">
+      <c r="H26" s="37" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1199,59 +1206,59 @@
       <c r="B27" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="C27" s="33"/>
-      <c r="D27" s="53" t="s">
-        <v>12</v>
-      </c>
-      <c r="E27" s="54">
+      <c r="C27" s="52"/>
+      <c r="D27" s="44" t="s">
+        <v>12</v>
+      </c>
+      <c r="E27" s="45">
         <v>45988</v>
       </c>
-      <c r="F27" s="55" t="s">
-        <v>44</v>
-      </c>
-      <c r="G27" s="56"/>
-      <c r="H27" s="57"/>
+      <c r="F27" s="46" t="s">
+        <v>43</v>
+      </c>
+      <c r="G27" s="47"/>
+      <c r="H27" s="48"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A28" s="16"/>
       <c r="B28" s="17"/>
-      <c r="C28" s="31">
+      <c r="C28" s="51">
         <v>14</v>
       </c>
-      <c r="D28" s="34" t="s">
-        <v>11</v>
-      </c>
-      <c r="E28" s="35">
+      <c r="D28" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="E28" s="32">
         <v>45993</v>
       </c>
-      <c r="F28" s="36" t="s">
-        <v>32</v>
-      </c>
-      <c r="G28" s="37"/>
-      <c r="H28" s="38"/>
+      <c r="F28" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="G28" s="18"/>
+      <c r="H28" s="33"/>
     </row>
     <row r="29" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A29" s="24"/>
       <c r="B29" s="22"/>
-      <c r="C29" s="33"/>
-      <c r="D29" s="44" t="s">
-        <v>12</v>
-      </c>
-      <c r="E29" s="45">
+      <c r="C29" s="52"/>
+      <c r="D29" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="E29" s="40">
         <v>45995</v>
       </c>
-      <c r="F29" s="46" t="s">
-        <v>52</v>
-      </c>
-      <c r="G29" s="46"/>
-      <c r="H29" s="48"/>
+      <c r="F29" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="G29" s="22"/>
+      <c r="H29" s="41"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A30" s="16"/>
       <c r="B30" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="C30" s="31">
+      <c r="C30" s="51">
         <v>15</v>
       </c>
       <c r="D30" s="25" t="s">
@@ -1261,10 +1268,10 @@
         <v>46000</v>
       </c>
       <c r="F30" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="G30" s="36"/>
-      <c r="H30" s="42"/>
+        <v>40</v>
+      </c>
+      <c r="G30" s="17"/>
+      <c r="H30" s="37"/>
     </row>
     <row r="31" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A31" s="24" t="s">
@@ -1273,18 +1280,18 @@
       <c r="B31" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="C31" s="33"/>
-      <c r="D31" s="59" t="s">
+      <c r="C31" s="52"/>
+      <c r="D31" s="50" t="s">
         <v>12</v>
       </c>
       <c r="E31" s="28">
         <v>46002</v>
       </c>
       <c r="F31" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="G31" s="47"/>
-      <c r="H31" s="48" t="s">
+        <v>41</v>
+      </c>
+      <c r="G31" s="23"/>
+      <c r="H31" s="41" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1293,6 +1300,12 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="C10:C11"/>
     <mergeCell ref="C26:C27"/>
     <mergeCell ref="C28:C29"/>
     <mergeCell ref="C30:C31"/>
@@ -1302,12 +1315,6 @@
     <mergeCell ref="C20:C21"/>
     <mergeCell ref="C22:C23"/>
     <mergeCell ref="C24:C25"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="C10:C11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/assets/sched.xlsx
+++ b/assets/sched.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abmosca/Documents/Smith/teaching/SDS-CS109/assets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amosca/Library/Mobile Documents/com~apple~CloudDocs/Documents/Smith/teaching/SDS-CS109/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14D7C083-89C5-944B-817C-24D24AD8A3C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88018297-7225-634E-91BC-C1E97C5C5742}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2200" yWindow="500" windowWidth="25220" windowHeight="15880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19260" yWindow="2460" windowWidth="25220" windowHeight="15880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sched" sheetId="2" r:id="rId1"/>
@@ -458,10 +458,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -681,8 +681,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E37E44A5-0A5F-414A-B4D4-809AE35C85CF}">
   <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -733,7 +733,7 @@
     <row r="3" spans="1:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="19"/>
       <c r="B3" s="8"/>
-      <c r="C3" s="53"/>
+      <c r="C3" s="52"/>
       <c r="D3" s="34" t="s">
         <v>12</v>
       </c>
@@ -766,7 +766,7 @@
     <row r="5" spans="1:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A5" s="19"/>
       <c r="B5" s="8"/>
-      <c r="C5" s="53"/>
+      <c r="C5" s="52"/>
       <c r="D5" s="34" t="s">
         <v>12</v>
       </c>
@@ -794,14 +794,14 @@
         <v>45916</v>
       </c>
       <c r="F6" s="17" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G6" s="17"/>
       <c r="H6" s="33"/>
     </row>
     <row r="7" spans="1:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="7"/>
-      <c r="C7" s="53"/>
+      <c r="C7" s="52"/>
       <c r="D7" s="34" t="s">
         <v>12</v>
       </c>
@@ -809,7 +809,7 @@
         <v>45918</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G7" s="8" t="s">
         <v>16</v>
@@ -839,7 +839,7 @@
     <row r="9" spans="1:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A9" s="19"/>
       <c r="B9" s="8"/>
-      <c r="C9" s="53"/>
+      <c r="C9" s="52"/>
       <c r="D9" s="34" t="s">
         <v>12</v>
       </c>
@@ -881,7 +881,7 @@
     <row r="11" spans="1:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A11" s="7"/>
       <c r="B11" s="8"/>
-      <c r="C11" s="53"/>
+      <c r="C11" s="52"/>
       <c r="D11" s="34" t="s">
         <v>12</v>
       </c>
@@ -925,7 +925,7 @@
       <c r="B13" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="53"/>
+      <c r="C13" s="52"/>
       <c r="D13" s="30" t="s">
         <v>12</v>
       </c>
@@ -966,7 +966,7 @@
       <c r="B15" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="53"/>
+      <c r="C15" s="52"/>
       <c r="D15" s="34" t="s">
         <v>12</v>
       </c>
@@ -1003,7 +1003,7 @@
       <c r="B17" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C17" s="53"/>
+      <c r="C17" s="52"/>
       <c r="D17" s="30" t="s">
         <v>12</v>
       </c>
@@ -1040,7 +1040,7 @@
       <c r="B19" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="C19" s="52"/>
+      <c r="C19" s="53"/>
       <c r="D19" s="27" t="s">
         <v>12</v>
       </c>
@@ -1080,7 +1080,7 @@
       <c r="B21" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="C21" s="52"/>
+      <c r="C21" s="53"/>
       <c r="D21" s="44" t="s">
         <v>12</v>
       </c>
@@ -1118,7 +1118,7 @@
     <row r="23" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A23" s="21"/>
       <c r="B23" s="22"/>
-      <c r="C23" s="52"/>
+      <c r="C23" s="53"/>
       <c r="D23" s="39" t="s">
         <v>12</v>
       </c>
@@ -1160,7 +1160,7 @@
       <c r="B25" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="C25" s="52"/>
+      <c r="C25" s="53"/>
       <c r="D25" s="27" t="s">
         <v>12</v>
       </c>
@@ -1206,7 +1206,7 @@
       <c r="B27" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="C27" s="52"/>
+      <c r="C27" s="53"/>
       <c r="D27" s="44" t="s">
         <v>12</v>
       </c>
@@ -1240,7 +1240,7 @@
     <row r="29" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A29" s="24"/>
       <c r="B29" s="22"/>
-      <c r="C29" s="52"/>
+      <c r="C29" s="53"/>
       <c r="D29" s="39" t="s">
         <v>12</v>
       </c>
@@ -1280,7 +1280,7 @@
       <c r="B31" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="C31" s="52"/>
+      <c r="C31" s="53"/>
       <c r="D31" s="50" t="s">
         <v>12</v>
       </c>
@@ -1300,12 +1300,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="C10:C11"/>
     <mergeCell ref="C26:C27"/>
     <mergeCell ref="C28:C29"/>
     <mergeCell ref="C30:C31"/>
@@ -1315,6 +1309,12 @@
     <mergeCell ref="C20:C21"/>
     <mergeCell ref="C22:C23"/>
     <mergeCell ref="C24:C25"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="C10:C11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/assets/sched.xlsx
+++ b/assets/sched.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10921"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amosca/Library/Mobile Documents/com~apple~CloudDocs/Documents/Smith/teaching/SDS-CS109/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88018297-7225-634E-91BC-C1E97C5C5742}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F879263-512B-5F49-B508-8C547D62FE8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19260" yWindow="2460" windowWidth="25220" windowHeight="15880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -458,10 +458,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -682,7 +682,7 @@
   <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -733,7 +733,7 @@
     <row r="3" spans="1:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="19"/>
       <c r="B3" s="8"/>
-      <c r="C3" s="52"/>
+      <c r="C3" s="53"/>
       <c r="D3" s="34" t="s">
         <v>12</v>
       </c>
@@ -766,7 +766,7 @@
     <row r="5" spans="1:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A5" s="19"/>
       <c r="B5" s="8"/>
-      <c r="C5" s="52"/>
+      <c r="C5" s="53"/>
       <c r="D5" s="34" t="s">
         <v>12</v>
       </c>
@@ -801,7 +801,7 @@
     </row>
     <row r="7" spans="1:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="7"/>
-      <c r="C7" s="52"/>
+      <c r="C7" s="53"/>
       <c r="D7" s="34" t="s">
         <v>12</v>
       </c>
@@ -839,7 +839,7 @@
     <row r="9" spans="1:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A9" s="19"/>
       <c r="B9" s="8"/>
-      <c r="C9" s="52"/>
+      <c r="C9" s="53"/>
       <c r="D9" s="34" t="s">
         <v>12</v>
       </c>
@@ -881,7 +881,7 @@
     <row r="11" spans="1:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A11" s="7"/>
       <c r="B11" s="8"/>
-      <c r="C11" s="52"/>
+      <c r="C11" s="53"/>
       <c r="D11" s="34" t="s">
         <v>12</v>
       </c>
@@ -925,7 +925,7 @@
       <c r="B13" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="52"/>
+      <c r="C13" s="53"/>
       <c r="D13" s="30" t="s">
         <v>12</v>
       </c>
@@ -966,14 +966,14 @@
       <c r="B15" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="52"/>
-      <c r="D15" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="E15" s="35">
+      <c r="C15" s="53"/>
+      <c r="D15" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" s="29">
         <v>45946</v>
       </c>
-      <c r="F15" s="8" t="s">
+      <c r="F15" s="49" t="s">
         <v>48</v>
       </c>
       <c r="H15" s="36"/>
@@ -1003,7 +1003,7 @@
       <c r="B17" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C17" s="52"/>
+      <c r="C17" s="53"/>
       <c r="D17" s="30" t="s">
         <v>12</v>
       </c>
@@ -1040,7 +1040,7 @@
       <c r="B19" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="C19" s="53"/>
+      <c r="C19" s="52"/>
       <c r="D19" s="27" t="s">
         <v>12</v>
       </c>
@@ -1080,7 +1080,7 @@
       <c r="B21" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="C21" s="53"/>
+      <c r="C21" s="52"/>
       <c r="D21" s="44" t="s">
         <v>12</v>
       </c>
@@ -1118,7 +1118,7 @@
     <row r="23" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A23" s="21"/>
       <c r="B23" s="22"/>
-      <c r="C23" s="53"/>
+      <c r="C23" s="52"/>
       <c r="D23" s="39" t="s">
         <v>12</v>
       </c>
@@ -1160,7 +1160,7 @@
       <c r="B25" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="C25" s="53"/>
+      <c r="C25" s="52"/>
       <c r="D25" s="27" t="s">
         <v>12</v>
       </c>
@@ -1206,7 +1206,7 @@
       <c r="B27" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="C27" s="53"/>
+      <c r="C27" s="52"/>
       <c r="D27" s="44" t="s">
         <v>12</v>
       </c>
@@ -1240,7 +1240,7 @@
     <row r="29" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A29" s="24"/>
       <c r="B29" s="22"/>
-      <c r="C29" s="53"/>
+      <c r="C29" s="52"/>
       <c r="D29" s="39" t="s">
         <v>12</v>
       </c>
@@ -1280,7 +1280,7 @@
       <c r="B31" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="C31" s="53"/>
+      <c r="C31" s="52"/>
       <c r="D31" s="50" t="s">
         <v>12</v>
       </c>
@@ -1300,6 +1300,12 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="C10:C11"/>
     <mergeCell ref="C26:C27"/>
     <mergeCell ref="C28:C29"/>
     <mergeCell ref="C30:C31"/>
@@ -1309,12 +1315,6 @@
     <mergeCell ref="C20:C21"/>
     <mergeCell ref="C22:C23"/>
     <mergeCell ref="C24:C25"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="C10:C11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/assets/sched.xlsx
+++ b/assets/sched.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10921"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11003"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amosca/Library/Mobile Documents/com~apple~CloudDocs/Documents/Smith/teaching/SDS-CS109/assets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abmosca/Documents/Smith/teaching/SDS-CS109/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F879263-512B-5F49-B508-8C547D62FE8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{868893DA-2DB4-684B-8F9A-B2F9C2F7D817}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19260" yWindow="2460" windowWidth="25220" windowHeight="15880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sched" sheetId="2" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="53">
   <si>
     <t>Date</t>
   </si>
@@ -169,15 +169,6 @@
     <t xml:space="preserve">Data Humanism </t>
   </si>
   <si>
-    <t>Mid-Semester Project Carving Day 1</t>
-  </si>
-  <si>
-    <t>Mid-Semester Project Carving Day 2</t>
-  </si>
-  <si>
-    <t>Mid-Semester Project Carving Day 3</t>
-  </si>
-  <si>
     <t>Mid-Semester Project Ideation (pt. 3)</t>
   </si>
   <si>
@@ -185,9 +176,6 @@
   </si>
   <si>
     <t>Flex for Mountain Day</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Flex Day = TBD </t>
   </si>
   <si>
     <r>
@@ -204,6 +192,18 @@
       </rPr>
       <t>Cromwell Day</t>
     </r>
+  </si>
+  <si>
+    <t>Mid-Semester Project Creation</t>
+  </si>
+  <si>
+    <t>Mid-Semester Project Flex-day</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NO CLASS </t>
+  </si>
+  <si>
+    <t>Flex Day</t>
   </si>
 </sst>
 </file>
@@ -375,7 +375,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -458,12 +458,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="16" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -681,8 +686,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E37E44A5-0A5F-414A-B4D4-809AE35C85CF}">
   <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -733,7 +738,7 @@
     <row r="3" spans="1:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="19"/>
       <c r="B3" s="8"/>
-      <c r="C3" s="53"/>
+      <c r="C3" s="52"/>
       <c r="D3" s="34" t="s">
         <v>12</v>
       </c>
@@ -766,7 +771,7 @@
     <row r="5" spans="1:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A5" s="19"/>
       <c r="B5" s="8"/>
-      <c r="C5" s="53"/>
+      <c r="C5" s="52"/>
       <c r="D5" s="34" t="s">
         <v>12</v>
       </c>
@@ -801,7 +806,7 @@
     </row>
     <row r="7" spans="1:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="7"/>
-      <c r="C7" s="53"/>
+      <c r="C7" s="52"/>
       <c r="D7" s="34" t="s">
         <v>12</v>
       </c>
@@ -839,7 +844,7 @@
     <row r="9" spans="1:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A9" s="19"/>
       <c r="B9" s="8"/>
-      <c r="C9" s="53"/>
+      <c r="C9" s="52"/>
       <c r="D9" s="34" t="s">
         <v>12</v>
       </c>
@@ -873,7 +878,7 @@
         <v>45930</v>
       </c>
       <c r="F10" s="13" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G10" s="42"/>
       <c r="H10" s="43"/>
@@ -881,7 +886,7 @@
     <row r="11" spans="1:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A11" s="7"/>
       <c r="B11" s="8"/>
-      <c r="C11" s="53"/>
+      <c r="C11" s="52"/>
       <c r="D11" s="34" t="s">
         <v>12</v>
       </c>
@@ -916,7 +921,7 @@
         <v>34</v>
       </c>
       <c r="G12" s="17" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="H12" s="37"/>
     </row>
@@ -925,7 +930,7 @@
       <c r="B13" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="53"/>
+      <c r="C13" s="52"/>
       <c r="D13" s="30" t="s">
         <v>12</v>
       </c>
@@ -966,7 +971,7 @@
       <c r="B15" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="53"/>
+      <c r="C15" s="52"/>
       <c r="D15" s="30" t="s">
         <v>12</v>
       </c>
@@ -974,7 +979,7 @@
         <v>45946</v>
       </c>
       <c r="F15" s="49" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="H15" s="36"/>
     </row>
@@ -1000,18 +1005,16 @@
     </row>
     <row r="17" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A17" s="19"/>
-      <c r="B17" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" s="53"/>
-      <c r="D17" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="E17" s="29">
+      <c r="B17" s="8"/>
+      <c r="C17" s="52"/>
+      <c r="D17" s="54" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" s="55">
         <v>45953</v>
       </c>
-      <c r="F17" s="49" t="s">
-        <v>45</v>
+      <c r="F17" s="56" t="s">
+        <v>37</v>
       </c>
       <c r="H17" s="36"/>
     </row>
@@ -1030,7 +1033,7 @@
         <v>45958</v>
       </c>
       <c r="F18" s="14" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G18" s="17"/>
       <c r="H18" s="37"/>
@@ -1040,7 +1043,7 @@
       <c r="B19" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="C19" s="52"/>
+      <c r="C19" s="53"/>
       <c r="D19" s="27" t="s">
         <v>12</v>
       </c>
@@ -1048,7 +1051,7 @@
         <v>45960</v>
       </c>
       <c r="F19" s="15" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="G19" s="22"/>
       <c r="H19" s="41"/>
@@ -1067,7 +1070,7 @@
         <v>45965</v>
       </c>
       <c r="F20" s="17" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="G20" s="18"/>
       <c r="H20" s="37"/>
@@ -1080,7 +1083,7 @@
       <c r="B21" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="C21" s="52"/>
+      <c r="C21" s="53"/>
       <c r="D21" s="44" t="s">
         <v>12</v>
       </c>
@@ -1088,7 +1091,7 @@
         <v>45967</v>
       </c>
       <c r="F21" s="47" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="G21" s="47" t="s">
         <v>21</v>
@@ -1110,28 +1113,32 @@
         <v>45972</v>
       </c>
       <c r="F22" s="17" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="G22" s="17"/>
       <c r="H22" s="37"/>
     </row>
     <row r="23" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="21"/>
-      <c r="B23" s="22"/>
-      <c r="C23" s="52"/>
-      <c r="D23" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="E23" s="40">
+      <c r="A23" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" s="53"/>
+      <c r="D23" s="44" t="s">
+        <v>12</v>
+      </c>
+      <c r="E23" s="45">
         <v>45974</v>
       </c>
-      <c r="F23" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="G23" s="22" t="s">
+      <c r="F23" s="46" t="s">
+        <v>51</v>
+      </c>
+      <c r="G23" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="H23" s="41" t="s">
+      <c r="H23" s="48" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1160,7 +1167,7 @@
       <c r="B25" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="C25" s="52"/>
+      <c r="C25" s="53"/>
       <c r="D25" s="27" t="s">
         <v>12</v>
       </c>
@@ -1206,7 +1213,7 @@
       <c r="B27" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="C27" s="52"/>
+      <c r="C27" s="53"/>
       <c r="D27" s="44" t="s">
         <v>12</v>
       </c>
@@ -1240,7 +1247,7 @@
     <row r="29" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A29" s="24"/>
       <c r="B29" s="22"/>
-      <c r="C29" s="52"/>
+      <c r="C29" s="53"/>
       <c r="D29" s="39" t="s">
         <v>12</v>
       </c>
@@ -1248,7 +1255,7 @@
         <v>45995</v>
       </c>
       <c r="F29" s="22" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G29" s="22"/>
       <c r="H29" s="41"/>
@@ -1280,7 +1287,7 @@
       <c r="B31" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="C31" s="52"/>
+      <c r="C31" s="53"/>
       <c r="D31" s="50" t="s">
         <v>12</v>
       </c>
@@ -1300,12 +1307,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="C10:C11"/>
     <mergeCell ref="C26:C27"/>
     <mergeCell ref="C28:C29"/>
     <mergeCell ref="C30:C31"/>
@@ -1315,6 +1316,12 @@
     <mergeCell ref="C20:C21"/>
     <mergeCell ref="C22:C23"/>
     <mergeCell ref="C24:C25"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="C10:C11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/assets/sched.xlsx
+++ b/assets/sched.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11003"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abmosca/Documents/Smith/teaching/SDS-CS109/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{868893DA-2DB4-684B-8F9A-B2F9C2F7D817}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51F020D5-7FEF-9B41-A44C-F563E6135830}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="52">
   <si>
     <t>Date</t>
   </si>
@@ -131,9 +131,6 @@
   </si>
   <si>
     <t xml:space="preserve">Mid-Semester Project Ideation (pt. 2) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mid-Semester Project Visual Encoding &amp; Data </t>
   </si>
   <si>
     <t>Mid-Semester Project Ideation (pt. 1)</t>
@@ -458,17 +455,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -686,8 +683,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E37E44A5-0A5F-414A-B4D4-809AE35C85CF}">
   <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -738,7 +735,7 @@
     <row r="3" spans="1:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="19"/>
       <c r="B3" s="8"/>
-      <c r="C3" s="52"/>
+      <c r="C3" s="53"/>
       <c r="D3" s="34" t="s">
         <v>12</v>
       </c>
@@ -771,7 +768,7 @@
     <row r="5" spans="1:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A5" s="19"/>
       <c r="B5" s="8"/>
-      <c r="C5" s="52"/>
+      <c r="C5" s="53"/>
       <c r="D5" s="34" t="s">
         <v>12</v>
       </c>
@@ -806,7 +803,7 @@
     </row>
     <row r="7" spans="1:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="7"/>
-      <c r="C7" s="52"/>
+      <c r="C7" s="53"/>
       <c r="D7" s="34" t="s">
         <v>12</v>
       </c>
@@ -836,7 +833,7 @@
         <v>45923</v>
       </c>
       <c r="F8" s="17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G8" s="17"/>
       <c r="H8" s="37"/>
@@ -844,7 +841,7 @@
     <row r="9" spans="1:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A9" s="19"/>
       <c r="B9" s="8"/>
-      <c r="C9" s="52"/>
+      <c r="C9" s="53"/>
       <c r="D9" s="34" t="s">
         <v>12</v>
       </c>
@@ -878,7 +875,7 @@
         <v>45930</v>
       </c>
       <c r="F10" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G10" s="42"/>
       <c r="H10" s="43"/>
@@ -886,7 +883,7 @@
     <row r="11" spans="1:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A11" s="7"/>
       <c r="B11" s="8"/>
-      <c r="C11" s="52"/>
+      <c r="C11" s="53"/>
       <c r="D11" s="34" t="s">
         <v>12</v>
       </c>
@@ -894,7 +891,7 @@
         <v>45932</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G11" s="8" t="s">
         <v>18</v>
@@ -918,10 +915,10 @@
         <v>45937</v>
       </c>
       <c r="F12" s="14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G12" s="17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H12" s="37"/>
     </row>
@@ -930,7 +927,7 @@
       <c r="B13" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="52"/>
+      <c r="C13" s="53"/>
       <c r="D13" s="30" t="s">
         <v>12</v>
       </c>
@@ -961,7 +958,7 @@
         <v>45944</v>
       </c>
       <c r="F14" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G14" s="42"/>
       <c r="H14" s="43"/>
@@ -971,7 +968,7 @@
       <c r="B15" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="52"/>
+      <c r="C15" s="53"/>
       <c r="D15" s="30" t="s">
         <v>12</v>
       </c>
@@ -979,26 +976,24 @@
         <v>45946</v>
       </c>
       <c r="F15" s="49" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H15" s="36"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16" s="16"/>
-      <c r="B16" s="17" t="s">
-        <v>24</v>
-      </c>
+      <c r="B16" s="17"/>
       <c r="C16" s="51">
         <v>8</v>
       </c>
-      <c r="D16" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="E16" s="26">
+      <c r="D16" s="54" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" s="55">
         <v>45951</v>
       </c>
-      <c r="F16" s="14" t="s">
-        <v>33</v>
+      <c r="F16" s="56" t="s">
+        <v>36</v>
       </c>
       <c r="G16" s="17"/>
       <c r="H16" s="37"/>
@@ -1006,15 +1001,15 @@
     <row r="17" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A17" s="19"/>
       <c r="B17" s="8"/>
-      <c r="C17" s="52"/>
-      <c r="D17" s="54" t="s">
-        <v>12</v>
-      </c>
-      <c r="E17" s="55">
+      <c r="C17" s="53"/>
+      <c r="D17" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" s="35">
         <v>45953</v>
       </c>
-      <c r="F17" s="56" t="s">
-        <v>37</v>
+      <c r="F17" s="8" t="s">
+        <v>34</v>
       </c>
       <c r="H17" s="36"/>
     </row>
@@ -1033,7 +1028,7 @@
         <v>45958</v>
       </c>
       <c r="F18" s="14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G18" s="17"/>
       <c r="H18" s="37"/>
@@ -1043,7 +1038,7 @@
       <c r="B19" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="C19" s="53"/>
+      <c r="C19" s="52"/>
       <c r="D19" s="27" t="s">
         <v>12</v>
       </c>
@@ -1051,7 +1046,7 @@
         <v>45960</v>
       </c>
       <c r="F19" s="15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G19" s="22"/>
       <c r="H19" s="41"/>
@@ -1083,7 +1078,7 @@
       <c r="B21" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="C21" s="53"/>
+      <c r="C21" s="52"/>
       <c r="D21" s="44" t="s">
         <v>12</v>
       </c>
@@ -1091,7 +1086,7 @@
         <v>45967</v>
       </c>
       <c r="F21" s="47" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G21" s="47" t="s">
         <v>21</v>
@@ -1113,7 +1108,7 @@
         <v>45972</v>
       </c>
       <c r="F22" s="17" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G22" s="17"/>
       <c r="H22" s="37"/>
@@ -1125,7 +1120,7 @@
       <c r="B23" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="C23" s="53"/>
+      <c r="C23" s="52"/>
       <c r="D23" s="44" t="s">
         <v>12</v>
       </c>
@@ -1133,7 +1128,7 @@
         <v>45974</v>
       </c>
       <c r="F23" s="46" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G23" s="47" t="s">
         <v>20</v>
@@ -1157,7 +1152,7 @@
         <v>45979</v>
       </c>
       <c r="F24" s="14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G24" s="17"/>
       <c r="H24" s="37"/>
@@ -1167,7 +1162,7 @@
       <c r="B25" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="C25" s="53"/>
+      <c r="C25" s="52"/>
       <c r="D25" s="27" t="s">
         <v>12</v>
       </c>
@@ -1197,7 +1192,7 @@
         <v>45986</v>
       </c>
       <c r="F26" s="17" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="G26" s="17" t="s">
         <v>26</v>
@@ -1213,7 +1208,7 @@
       <c r="B27" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="C27" s="53"/>
+      <c r="C27" s="52"/>
       <c r="D27" s="44" t="s">
         <v>12</v>
       </c>
@@ -1221,7 +1216,7 @@
         <v>45988</v>
       </c>
       <c r="F27" s="46" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G27" s="47"/>
       <c r="H27" s="48"/>
@@ -1239,7 +1234,7 @@
         <v>45993</v>
       </c>
       <c r="F28" s="17" t="s">
-        <v>28</v>
+        <v>51</v>
       </c>
       <c r="G28" s="18"/>
       <c r="H28" s="33"/>
@@ -1247,7 +1242,7 @@
     <row r="29" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A29" s="24"/>
       <c r="B29" s="22"/>
-      <c r="C29" s="53"/>
+      <c r="C29" s="52"/>
       <c r="D29" s="39" t="s">
         <v>12</v>
       </c>
@@ -1255,7 +1250,7 @@
         <v>45995</v>
       </c>
       <c r="F29" s="22" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G29" s="22"/>
       <c r="H29" s="41"/>
@@ -1275,7 +1270,7 @@
         <v>46000</v>
       </c>
       <c r="F30" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G30" s="17"/>
       <c r="H30" s="37"/>
@@ -1287,7 +1282,7 @@
       <c r="B31" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="C31" s="53"/>
+      <c r="C31" s="52"/>
       <c r="D31" s="50" t="s">
         <v>12</v>
       </c>
@@ -1295,7 +1290,7 @@
         <v>46002</v>
       </c>
       <c r="F31" s="15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G31" s="23"/>
       <c r="H31" s="41" t="s">
@@ -1307,6 +1302,12 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="C10:C11"/>
     <mergeCell ref="C26:C27"/>
     <mergeCell ref="C28:C29"/>
     <mergeCell ref="C30:C31"/>
@@ -1316,12 +1317,6 @@
     <mergeCell ref="C20:C21"/>
     <mergeCell ref="C22:C23"/>
     <mergeCell ref="C24:C25"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="C10:C11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/assets/sched.xlsx
+++ b/assets/sched.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10921"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abmosca/Documents/Smith/teaching/SDS-CS109/assets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amosca/Library/Mobile Documents/com~apple~CloudDocs/Documents/Smith/teaching/SDS-CSC109/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51F020D5-7FEF-9B41-A44C-F563E6135830}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD036657-B931-F843-AC03-749166EC3C3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -372,7 +372,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -455,17 +455,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -684,7 +679,7 @@
   <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -735,7 +730,7 @@
     <row r="3" spans="1:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="19"/>
       <c r="B3" s="8"/>
-      <c r="C3" s="53"/>
+      <c r="C3" s="52"/>
       <c r="D3" s="34" t="s">
         <v>12</v>
       </c>
@@ -768,7 +763,7 @@
     <row r="5" spans="1:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A5" s="19"/>
       <c r="B5" s="8"/>
-      <c r="C5" s="53"/>
+      <c r="C5" s="52"/>
       <c r="D5" s="34" t="s">
         <v>12</v>
       </c>
@@ -803,7 +798,7 @@
     </row>
     <row r="7" spans="1:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="7"/>
-      <c r="C7" s="53"/>
+      <c r="C7" s="52"/>
       <c r="D7" s="34" t="s">
         <v>12</v>
       </c>
@@ -841,7 +836,7 @@
     <row r="9" spans="1:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A9" s="19"/>
       <c r="B9" s="8"/>
-      <c r="C9" s="53"/>
+      <c r="C9" s="52"/>
       <c r="D9" s="34" t="s">
         <v>12</v>
       </c>
@@ -883,7 +878,7 @@
     <row r="11" spans="1:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A11" s="7"/>
       <c r="B11" s="8"/>
-      <c r="C11" s="53"/>
+      <c r="C11" s="52"/>
       <c r="D11" s="34" t="s">
         <v>12</v>
       </c>
@@ -927,7 +922,7 @@
       <c r="B13" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="53"/>
+      <c r="C13" s="52"/>
       <c r="D13" s="30" t="s">
         <v>12</v>
       </c>
@@ -968,7 +963,7 @@
       <c r="B15" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="53"/>
+      <c r="C15" s="52"/>
       <c r="D15" s="30" t="s">
         <v>12</v>
       </c>
@@ -986,13 +981,13 @@
       <c r="C16" s="51">
         <v>8</v>
       </c>
-      <c r="D16" s="54" t="s">
-        <v>11</v>
-      </c>
-      <c r="E16" s="55">
+      <c r="D16" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" s="32">
         <v>45951</v>
       </c>
-      <c r="F16" s="56" t="s">
+      <c r="F16" s="17" t="s">
         <v>36</v>
       </c>
       <c r="G16" s="17"/>
@@ -1001,7 +996,7 @@
     <row r="17" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A17" s="19"/>
       <c r="B17" s="8"/>
-      <c r="C17" s="53"/>
+      <c r="C17" s="52"/>
       <c r="D17" s="34" t="s">
         <v>12</v>
       </c>
@@ -1038,7 +1033,7 @@
       <c r="B19" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="C19" s="52"/>
+      <c r="C19" s="53"/>
       <c r="D19" s="27" t="s">
         <v>12</v>
       </c>
@@ -1048,7 +1043,9 @@
       <c r="F19" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="G19" s="22"/>
+      <c r="G19" s="22" t="s">
+        <v>21</v>
+      </c>
       <c r="H19" s="41"/>
       <c r="I19" s="7"/>
     </row>
@@ -1078,7 +1075,7 @@
       <c r="B21" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="C21" s="52"/>
+      <c r="C21" s="53"/>
       <c r="D21" s="44" t="s">
         <v>12</v>
       </c>
@@ -1088,9 +1085,7 @@
       <c r="F21" s="47" t="s">
         <v>47</v>
       </c>
-      <c r="G21" s="47" t="s">
-        <v>21</v>
-      </c>
+      <c r="G21" s="47"/>
       <c r="H21" s="48" t="s">
         <v>23</v>
       </c>
@@ -1120,7 +1115,7 @@
       <c r="B23" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="C23" s="52"/>
+      <c r="C23" s="53"/>
       <c r="D23" s="44" t="s">
         <v>12</v>
       </c>
@@ -1162,7 +1157,7 @@
       <c r="B25" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="C25" s="52"/>
+      <c r="C25" s="53"/>
       <c r="D25" s="27" t="s">
         <v>12</v>
       </c>
@@ -1208,7 +1203,7 @@
       <c r="B27" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="C27" s="52"/>
+      <c r="C27" s="53"/>
       <c r="D27" s="44" t="s">
         <v>12</v>
       </c>
@@ -1242,7 +1237,7 @@
     <row r="29" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A29" s="24"/>
       <c r="B29" s="22"/>
-      <c r="C29" s="52"/>
+      <c r="C29" s="53"/>
       <c r="D29" s="39" t="s">
         <v>12</v>
       </c>
@@ -1282,7 +1277,7 @@
       <c r="B31" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="C31" s="52"/>
+      <c r="C31" s="53"/>
       <c r="D31" s="50" t="s">
         <v>12</v>
       </c>
@@ -1302,12 +1297,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="C10:C11"/>
     <mergeCell ref="C26:C27"/>
     <mergeCell ref="C28:C29"/>
     <mergeCell ref="C30:C31"/>
@@ -1317,6 +1306,12 @@
     <mergeCell ref="C20:C21"/>
     <mergeCell ref="C22:C23"/>
     <mergeCell ref="C24:C25"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="C10:C11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/assets/sched.xlsx
+++ b/assets/sched.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10921"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11018"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amosca/Library/Mobile Documents/com~apple~CloudDocs/Documents/Smith/teaching/SDS-CSC109/assets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abmosca/Documents/Smith/teaching/SDS-CSC109/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD036657-B931-F843-AC03-749166EC3C3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B70F7C41-8B1B-AD4A-B425-8FE4AA961EDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="660" windowWidth="28800" windowHeight="15660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sched" sheetId="2" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="53">
   <si>
     <t>Date</t>
   </si>
@@ -115,9 +115,6 @@
     <t>fp04</t>
   </si>
   <si>
-    <t>FP Workshop - Prototype Testing &amp; Feedback</t>
-  </si>
-  <si>
     <t xml:space="preserve">Text as Data </t>
   </si>
   <si>
@@ -143,9 +140,6 @@
   </si>
   <si>
     <t>Interactive Visualization</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Advanced Tableau </t>
   </si>
   <si>
     <t>FP Workshop - Proposal Check-Ins</t>
@@ -197,10 +191,19 @@
     <t>Mid-Semester Project Flex-day</t>
   </si>
   <si>
-    <t xml:space="preserve">NO CLASS </t>
-  </si>
-  <si>
-    <t>Flex Day</t>
+    <t>FP Workshop - Peer Review</t>
+  </si>
+  <si>
+    <t>NO CLASS - Recommended: Peer review of proposals</t>
+  </si>
+  <si>
+    <t>FP Workshop - Advanced Tableau &amp; Peer Review</t>
+  </si>
+  <si>
+    <t>Exploring Mid-semester Project Data</t>
+  </si>
+  <si>
+    <t>FP Workshop - Peer Review &amp; Prototype Testing</t>
   </si>
 </sst>
 </file>
@@ -372,7 +375,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -434,10 +437,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="16" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -455,11 +454,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -678,15 +680,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E37E44A5-0A5F-414A-B4D4-809AE35C85CF}">
   <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="3" max="3" width="7.33203125" style="6" customWidth="1"/>
     <col min="4" max="4" width="4.1640625" style="10" customWidth="1"/>
-    <col min="6" max="6" width="40.83203125" customWidth="1"/>
+    <col min="6" max="6" width="42.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
@@ -718,7 +720,7 @@
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="16"/>
       <c r="B2" s="17"/>
-      <c r="C2" s="51">
+      <c r="C2" s="49">
         <v>1</v>
       </c>
       <c r="D2" s="31"/>
@@ -730,7 +732,7 @@
     <row r="3" spans="1:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="19"/>
       <c r="B3" s="8"/>
-      <c r="C3" s="52"/>
+      <c r="C3" s="51"/>
       <c r="D3" s="34" t="s">
         <v>12</v>
       </c>
@@ -745,7 +747,7 @@
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="20"/>
       <c r="B4" s="17"/>
-      <c r="C4" s="51">
+      <c r="C4" s="49">
         <v>2</v>
       </c>
       <c r="D4" s="31" t="s">
@@ -763,7 +765,7 @@
     <row r="5" spans="1:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A5" s="19"/>
       <c r="B5" s="8"/>
-      <c r="C5" s="52"/>
+      <c r="C5" s="51"/>
       <c r="D5" s="34" t="s">
         <v>12</v>
       </c>
@@ -771,7 +773,7 @@
         <v>45911</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G5" s="8" t="s">
         <v>15</v>
@@ -781,7 +783,7 @@
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="20"/>
       <c r="B6" s="17"/>
-      <c r="C6" s="51">
+      <c r="C6" s="49">
         <v>3</v>
       </c>
       <c r="D6" s="31" t="s">
@@ -791,14 +793,14 @@
         <v>45916</v>
       </c>
       <c r="F6" s="17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G6" s="17"/>
       <c r="H6" s="33"/>
     </row>
     <row r="7" spans="1:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="7"/>
-      <c r="C7" s="52"/>
+      <c r="C7" s="51"/>
       <c r="D7" s="34" t="s">
         <v>12</v>
       </c>
@@ -806,7 +808,7 @@
         <v>45918</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G7" s="8" t="s">
         <v>16</v>
@@ -818,7 +820,7 @@
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" s="20"/>
       <c r="B8" s="18"/>
-      <c r="C8" s="51">
+      <c r="C8" s="49">
         <v>4</v>
       </c>
       <c r="D8" s="31" t="s">
@@ -828,7 +830,7 @@
         <v>45923</v>
       </c>
       <c r="F8" s="17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G8" s="17"/>
       <c r="H8" s="37"/>
@@ -836,7 +838,7 @@
     <row r="9" spans="1:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A9" s="19"/>
       <c r="B9" s="8"/>
-      <c r="C9" s="52"/>
+      <c r="C9" s="51"/>
       <c r="D9" s="34" t="s">
         <v>12</v>
       </c>
@@ -860,7 +862,7 @@
       <c r="B10" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="51">
+      <c r="C10" s="49">
         <v>5</v>
       </c>
       <c r="D10" s="11" t="s">
@@ -870,15 +872,15 @@
         <v>45930</v>
       </c>
       <c r="F10" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="G10" s="42"/>
-      <c r="H10" s="43"/>
+        <v>44</v>
+      </c>
+      <c r="G10" s="40"/>
+      <c r="H10" s="41"/>
     </row>
     <row r="11" spans="1:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A11" s="7"/>
       <c r="B11" s="8"/>
-      <c r="C11" s="52"/>
+      <c r="C11" s="51"/>
       <c r="D11" s="34" t="s">
         <v>12</v>
       </c>
@@ -886,7 +888,7 @@
         <v>45932</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G11" s="8" t="s">
         <v>18</v>
@@ -900,7 +902,7 @@
       <c r="B12" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="51">
+      <c r="C12" s="49">
         <v>6</v>
       </c>
       <c r="D12" s="25" t="s">
@@ -910,10 +912,10 @@
         <v>45937</v>
       </c>
       <c r="F12" s="14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G12" s="17" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H12" s="37"/>
     </row>
@@ -922,15 +924,15 @@
       <c r="B13" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="52"/>
+      <c r="C13" s="51"/>
       <c r="D13" s="30" t="s">
         <v>12</v>
       </c>
       <c r="E13" s="29">
         <v>45939</v>
       </c>
-      <c r="F13" s="49" t="s">
-        <v>32</v>
+      <c r="F13" s="47" t="s">
+        <v>31</v>
       </c>
       <c r="H13" s="38" t="s">
         <v>18</v>
@@ -943,7 +945,7 @@
       <c r="B14" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="51">
+      <c r="C14" s="49">
         <v>7</v>
       </c>
       <c r="D14" s="11" t="s">
@@ -953,32 +955,32 @@
         <v>45944</v>
       </c>
       <c r="F14" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="G14" s="42"/>
-      <c r="H14" s="43"/>
+        <v>39</v>
+      </c>
+      <c r="G14" s="40"/>
+      <c r="H14" s="41"/>
     </row>
     <row r="15" spans="1:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A15" s="7"/>
       <c r="B15" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="52"/>
+      <c r="C15" s="51"/>
       <c r="D15" s="30" t="s">
         <v>12</v>
       </c>
       <c r="E15" s="29">
         <v>45946</v>
       </c>
-      <c r="F15" s="49" t="s">
-        <v>44</v>
+      <c r="F15" s="47" t="s">
+        <v>42</v>
       </c>
       <c r="H15" s="36"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16" s="16"/>
       <c r="B16" s="17"/>
-      <c r="C16" s="51">
+      <c r="C16" s="49">
         <v>8</v>
       </c>
       <c r="D16" s="31" t="s">
@@ -988,7 +990,7 @@
         <v>45951</v>
       </c>
       <c r="F16" s="17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G16" s="17"/>
       <c r="H16" s="37"/>
@@ -996,7 +998,7 @@
     <row r="17" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A17" s="19"/>
       <c r="B17" s="8"/>
-      <c r="C17" s="52"/>
+      <c r="C17" s="51"/>
       <c r="D17" s="34" t="s">
         <v>12</v>
       </c>
@@ -1004,7 +1006,7 @@
         <v>45953</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H17" s="36"/>
     </row>
@@ -1013,7 +1015,7 @@
       <c r="B18" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="51">
+      <c r="C18" s="49">
         <v>9</v>
       </c>
       <c r="D18" s="25" t="s">
@@ -1023,7 +1025,7 @@
         <v>45958</v>
       </c>
       <c r="F18" s="14" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G18" s="17"/>
       <c r="H18" s="37"/>
@@ -1033,7 +1035,7 @@
       <c r="B19" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="C19" s="53"/>
+      <c r="C19" s="50"/>
       <c r="D19" s="27" t="s">
         <v>12</v>
       </c>
@@ -1041,18 +1043,18 @@
         <v>45960</v>
       </c>
       <c r="F19" s="15" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G19" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="H19" s="41"/>
+      <c r="H19" s="39"/>
       <c r="I19" s="7"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A20" s="20"/>
       <c r="B20" s="17"/>
-      <c r="C20" s="51">
+      <c r="C20" s="49">
         <v>10</v>
       </c>
       <c r="D20" s="31" t="s">
@@ -1075,25 +1077,25 @@
       <c r="B21" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="C21" s="53"/>
-      <c r="D21" s="44" t="s">
-        <v>12</v>
-      </c>
-      <c r="E21" s="45">
+      <c r="C21" s="50"/>
+      <c r="D21" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="E21" s="43">
         <v>45967</v>
       </c>
-      <c r="F21" s="47" t="s">
-        <v>47</v>
-      </c>
-      <c r="G21" s="47"/>
-      <c r="H21" s="48" t="s">
+      <c r="F21" s="45" t="s">
+        <v>45</v>
+      </c>
+      <c r="G21" s="45"/>
+      <c r="H21" s="46" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A22" s="16"/>
       <c r="B22" s="17"/>
-      <c r="C22" s="51">
+      <c r="C22" s="49">
         <v>11</v>
       </c>
       <c r="D22" s="31" t="s">
@@ -1103,32 +1105,32 @@
         <v>45972</v>
       </c>
       <c r="F22" s="17" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="G22" s="17"/>
       <c r="H22" s="37"/>
     </row>
-    <row r="23" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A23" s="24" t="s">
         <v>8</v>
       </c>
       <c r="B23" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="C23" s="53"/>
-      <c r="D23" s="44" t="s">
-        <v>12</v>
-      </c>
-      <c r="E23" s="45">
+      <c r="C23" s="50"/>
+      <c r="D23" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="E23" s="43">
         <v>45974</v>
       </c>
-      <c r="F23" s="46" t="s">
-        <v>50</v>
-      </c>
-      <c r="G23" s="47" t="s">
+      <c r="F23" s="52" t="s">
+        <v>49</v>
+      </c>
+      <c r="G23" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="H23" s="48" t="s">
+      <c r="H23" s="46" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1137,7 +1139,7 @@
       <c r="B24" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="C24" s="51">
+      <c r="C24" s="49">
         <v>12</v>
       </c>
       <c r="D24" s="25" t="s">
@@ -1147,7 +1149,7 @@
         <v>45979</v>
       </c>
       <c r="F24" s="14" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G24" s="17"/>
       <c r="H24" s="37"/>
@@ -1157,7 +1159,7 @@
       <c r="B25" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="C25" s="53"/>
+      <c r="C25" s="50"/>
       <c r="D25" s="27" t="s">
         <v>12</v>
       </c>
@@ -1165,29 +1167,31 @@
         <v>45981</v>
       </c>
       <c r="F25" s="15" t="s">
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="G25" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="H25" s="41" t="s">
+      <c r="H25" s="39" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A26" s="20"/>
-      <c r="B26" s="17"/>
-      <c r="C26" s="51">
+      <c r="B26" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26" s="49">
         <v>13</v>
       </c>
-      <c r="D26" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="E26" s="32">
+      <c r="D26" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="E26" s="26">
         <v>45986</v>
       </c>
-      <c r="F26" s="17" t="s">
-        <v>28</v>
+      <c r="F26" s="14" t="s">
+        <v>50</v>
       </c>
       <c r="G26" s="17" t="s">
         <v>26</v>
@@ -1203,23 +1207,23 @@
       <c r="B27" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="C27" s="53"/>
-      <c r="D27" s="44" t="s">
-        <v>12</v>
-      </c>
-      <c r="E27" s="45">
+      <c r="C27" s="50"/>
+      <c r="D27" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="E27" s="43">
         <v>45988</v>
       </c>
-      <c r="F27" s="46" t="s">
-        <v>42</v>
-      </c>
-      <c r="G27" s="47"/>
-      <c r="H27" s="48"/>
+      <c r="F27" s="44" t="s">
+        <v>40</v>
+      </c>
+      <c r="G27" s="45"/>
+      <c r="H27" s="46"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A28" s="16"/>
       <c r="B28" s="17"/>
-      <c r="C28" s="51">
+      <c r="C28" s="49">
         <v>14</v>
       </c>
       <c r="D28" s="31" t="s">
@@ -1229,33 +1233,35 @@
         <v>45993</v>
       </c>
       <c r="F28" s="17" t="s">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="G28" s="18"/>
       <c r="H28" s="33"/>
     </row>
     <row r="29" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A29" s="24"/>
-      <c r="B29" s="22"/>
-      <c r="C29" s="53"/>
-      <c r="D29" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="E29" s="40">
+      <c r="B29" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C29" s="50"/>
+      <c r="D29" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="E29" s="28">
         <v>45995</v>
       </c>
-      <c r="F29" s="22" t="s">
-        <v>51</v>
+      <c r="F29" s="15" t="s">
+        <v>48</v>
       </c>
       <c r="G29" s="22"/>
-      <c r="H29" s="41"/>
+      <c r="H29" s="39"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A30" s="16"/>
       <c r="B30" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="C30" s="51">
+      <c r="C30" s="49">
         <v>15</v>
       </c>
       <c r="D30" s="25" t="s">
@@ -1265,7 +1271,7 @@
         <v>46000</v>
       </c>
       <c r="F30" s="14" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G30" s="17"/>
       <c r="H30" s="37"/>
@@ -1277,18 +1283,18 @@
       <c r="B31" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="C31" s="53"/>
-      <c r="D31" s="50" t="s">
+      <c r="C31" s="50"/>
+      <c r="D31" s="48" t="s">
         <v>12</v>
       </c>
       <c r="E31" s="28">
         <v>46002</v>
       </c>
       <c r="F31" s="15" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G31" s="23"/>
-      <c r="H31" s="41" t="s">
+      <c r="H31" s="39" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1297,6 +1303,12 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="C10:C11"/>
     <mergeCell ref="C26:C27"/>
     <mergeCell ref="C28:C29"/>
     <mergeCell ref="C30:C31"/>
@@ -1306,12 +1318,6 @@
     <mergeCell ref="C20:C21"/>
     <mergeCell ref="C22:C23"/>
     <mergeCell ref="C24:C25"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="C10:C11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/assets/sched.xlsx
+++ b/assets/sched.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10921"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amosca/Library/Mobile Documents/com~apple~CloudDocs/Documents/Smith/teaching/SDS-CSC109/assets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amosca/Documents/Smith/teaching/SDS-CSC109/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD036657-B931-F843-AC03-749166EC3C3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CBCFA3DE-109A-004C-B601-884BD2170059}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="52">
   <si>
     <t>Date</t>
   </si>
@@ -116,9 +116,6 @@
   </si>
   <si>
     <t>FP Workshop - Prototype Testing &amp; Feedback</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Text as Data </t>
   </si>
   <si>
     <t>Mental Models and Visual Mapping</t>
@@ -197,10 +194,13 @@
     <t>Mid-Semester Project Flex-day</t>
   </si>
   <si>
-    <t xml:space="preserve">NO CLASS </t>
-  </si>
-  <si>
-    <t>Flex Day</t>
+    <t>NO CLASS - Peer review proposals</t>
+  </si>
+  <si>
+    <t>FP Workshop - Peer Review</t>
+  </si>
+  <si>
+    <t>Text as Data</t>
   </si>
 </sst>
 </file>
@@ -372,7 +372,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -434,10 +434,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="16" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -455,10 +451,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -678,8 +674,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E37E44A5-0A5F-414A-B4D4-809AE35C85CF}">
   <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -718,7 +714,7 @@
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="16"/>
       <c r="B2" s="17"/>
-      <c r="C2" s="51">
+      <c r="C2" s="49">
         <v>1</v>
       </c>
       <c r="D2" s="31"/>
@@ -730,7 +726,7 @@
     <row r="3" spans="1:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="19"/>
       <c r="B3" s="8"/>
-      <c r="C3" s="52"/>
+      <c r="C3" s="51"/>
       <c r="D3" s="34" t="s">
         <v>12</v>
       </c>
@@ -745,7 +741,7 @@
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="20"/>
       <c r="B4" s="17"/>
-      <c r="C4" s="51">
+      <c r="C4" s="49">
         <v>2</v>
       </c>
       <c r="D4" s="31" t="s">
@@ -763,7 +759,7 @@
     <row r="5" spans="1:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A5" s="19"/>
       <c r="B5" s="8"/>
-      <c r="C5" s="52"/>
+      <c r="C5" s="51"/>
       <c r="D5" s="34" t="s">
         <v>12</v>
       </c>
@@ -771,7 +767,7 @@
         <v>45911</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G5" s="8" t="s">
         <v>15</v>
@@ -781,7 +777,7 @@
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="20"/>
       <c r="B6" s="17"/>
-      <c r="C6" s="51">
+      <c r="C6" s="49">
         <v>3</v>
       </c>
       <c r="D6" s="31" t="s">
@@ -791,14 +787,14 @@
         <v>45916</v>
       </c>
       <c r="F6" s="17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G6" s="17"/>
       <c r="H6" s="33"/>
     </row>
     <row r="7" spans="1:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="7"/>
-      <c r="C7" s="52"/>
+      <c r="C7" s="51"/>
       <c r="D7" s="34" t="s">
         <v>12</v>
       </c>
@@ -806,7 +802,7 @@
         <v>45918</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G7" s="8" t="s">
         <v>16</v>
@@ -818,7 +814,7 @@
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" s="20"/>
       <c r="B8" s="18"/>
-      <c r="C8" s="51">
+      <c r="C8" s="49">
         <v>4</v>
       </c>
       <c r="D8" s="31" t="s">
@@ -828,7 +824,7 @@
         <v>45923</v>
       </c>
       <c r="F8" s="17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G8" s="17"/>
       <c r="H8" s="37"/>
@@ -836,7 +832,7 @@
     <row r="9" spans="1:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A9" s="19"/>
       <c r="B9" s="8"/>
-      <c r="C9" s="52"/>
+      <c r="C9" s="51"/>
       <c r="D9" s="34" t="s">
         <v>12</v>
       </c>
@@ -860,7 +856,7 @@
       <c r="B10" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="51">
+      <c r="C10" s="49">
         <v>5</v>
       </c>
       <c r="D10" s="11" t="s">
@@ -870,15 +866,15 @@
         <v>45930</v>
       </c>
       <c r="F10" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="G10" s="42"/>
-      <c r="H10" s="43"/>
+        <v>45</v>
+      </c>
+      <c r="G10" s="40"/>
+      <c r="H10" s="41"/>
     </row>
     <row r="11" spans="1:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A11" s="7"/>
       <c r="B11" s="8"/>
-      <c r="C11" s="52"/>
+      <c r="C11" s="51"/>
       <c r="D11" s="34" t="s">
         <v>12</v>
       </c>
@@ -886,7 +882,7 @@
         <v>45932</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G11" s="8" t="s">
         <v>18</v>
@@ -900,7 +896,7 @@
       <c r="B12" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="51">
+      <c r="C12" s="49">
         <v>6</v>
       </c>
       <c r="D12" s="25" t="s">
@@ -910,10 +906,10 @@
         <v>45937</v>
       </c>
       <c r="F12" s="14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G12" s="17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H12" s="37"/>
     </row>
@@ -922,15 +918,15 @@
       <c r="B13" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="52"/>
+      <c r="C13" s="51"/>
       <c r="D13" s="30" t="s">
         <v>12</v>
       </c>
       <c r="E13" s="29">
         <v>45939</v>
       </c>
-      <c r="F13" s="49" t="s">
-        <v>32</v>
+      <c r="F13" s="47" t="s">
+        <v>31</v>
       </c>
       <c r="H13" s="38" t="s">
         <v>18</v>
@@ -943,7 +939,7 @@
       <c r="B14" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="51">
+      <c r="C14" s="49">
         <v>7</v>
       </c>
       <c r="D14" s="11" t="s">
@@ -953,32 +949,32 @@
         <v>45944</v>
       </c>
       <c r="F14" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="G14" s="42"/>
-      <c r="H14" s="43"/>
+        <v>40</v>
+      </c>
+      <c r="G14" s="40"/>
+      <c r="H14" s="41"/>
     </row>
     <row r="15" spans="1:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A15" s="7"/>
       <c r="B15" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="52"/>
+      <c r="C15" s="51"/>
       <c r="D15" s="30" t="s">
         <v>12</v>
       </c>
       <c r="E15" s="29">
         <v>45946</v>
       </c>
-      <c r="F15" s="49" t="s">
-        <v>44</v>
+      <c r="F15" s="47" t="s">
+        <v>43</v>
       </c>
       <c r="H15" s="36"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16" s="16"/>
       <c r="B16" s="17"/>
-      <c r="C16" s="51">
+      <c r="C16" s="49">
         <v>8</v>
       </c>
       <c r="D16" s="31" t="s">
@@ -988,7 +984,7 @@
         <v>45951</v>
       </c>
       <c r="F16" s="17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G16" s="17"/>
       <c r="H16" s="37"/>
@@ -996,7 +992,7 @@
     <row r="17" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A17" s="19"/>
       <c r="B17" s="8"/>
-      <c r="C17" s="52"/>
+      <c r="C17" s="51"/>
       <c r="D17" s="34" t="s">
         <v>12</v>
       </c>
@@ -1004,7 +1000,7 @@
         <v>45953</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="H17" s="36"/>
     </row>
@@ -1013,7 +1009,7 @@
       <c r="B18" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="51">
+      <c r="C18" s="49">
         <v>9</v>
       </c>
       <c r="D18" s="25" t="s">
@@ -1023,7 +1019,7 @@
         <v>45958</v>
       </c>
       <c r="F18" s="14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G18" s="17"/>
       <c r="H18" s="37"/>
@@ -1033,7 +1029,7 @@
       <c r="B19" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="C19" s="53"/>
+      <c r="C19" s="50"/>
       <c r="D19" s="27" t="s">
         <v>12</v>
       </c>
@@ -1041,18 +1037,18 @@
         <v>45960</v>
       </c>
       <c r="F19" s="15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G19" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="H19" s="41"/>
+      <c r="H19" s="39"/>
       <c r="I19" s="7"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A20" s="20"/>
       <c r="B20" s="17"/>
-      <c r="C20" s="51">
+      <c r="C20" s="49">
         <v>10</v>
       </c>
       <c r="D20" s="31" t="s">
@@ -1062,7 +1058,7 @@
         <v>45965</v>
       </c>
       <c r="F20" s="17" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="G20" s="18"/>
       <c r="H20" s="37"/>
@@ -1075,25 +1071,25 @@
       <c r="B21" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="C21" s="53"/>
-      <c r="D21" s="44" t="s">
-        <v>12</v>
-      </c>
-      <c r="E21" s="45">
+      <c r="C21" s="50"/>
+      <c r="D21" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="E21" s="43">
         <v>45967</v>
       </c>
-      <c r="F21" s="47" t="s">
-        <v>47</v>
-      </c>
-      <c r="G21" s="47"/>
-      <c r="H21" s="48" t="s">
+      <c r="F21" s="45" t="s">
+        <v>46</v>
+      </c>
+      <c r="G21" s="45"/>
+      <c r="H21" s="46" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A22" s="16"/>
       <c r="B22" s="17"/>
-      <c r="C22" s="51">
+      <c r="C22" s="49">
         <v>11</v>
       </c>
       <c r="D22" s="31" t="s">
@@ -1103,7 +1099,7 @@
         <v>45972</v>
       </c>
       <c r="F22" s="17" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G22" s="17"/>
       <c r="H22" s="37"/>
@@ -1115,20 +1111,20 @@
       <c r="B23" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="C23" s="53"/>
-      <c r="D23" s="44" t="s">
-        <v>12</v>
-      </c>
-      <c r="E23" s="45">
+      <c r="C23" s="50"/>
+      <c r="D23" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="E23" s="43">
         <v>45974</v>
       </c>
-      <c r="F23" s="46" t="s">
-        <v>50</v>
-      </c>
-      <c r="G23" s="47" t="s">
+      <c r="F23" s="44" t="s">
+        <v>49</v>
+      </c>
+      <c r="G23" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="H23" s="48" t="s">
+      <c r="H23" s="46" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1137,7 +1133,7 @@
       <c r="B24" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="C24" s="51">
+      <c r="C24" s="49">
         <v>12</v>
       </c>
       <c r="D24" s="25" t="s">
@@ -1147,7 +1143,7 @@
         <v>45979</v>
       </c>
       <c r="F24" s="14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G24" s="17"/>
       <c r="H24" s="37"/>
@@ -1157,7 +1153,7 @@
       <c r="B25" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="C25" s="53"/>
+      <c r="C25" s="50"/>
       <c r="D25" s="27" t="s">
         <v>12</v>
       </c>
@@ -1170,24 +1166,26 @@
       <c r="G25" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="H25" s="41" t="s">
+      <c r="H25" s="39" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A26" s="20"/>
-      <c r="B26" s="17"/>
-      <c r="C26" s="51">
+      <c r="B26" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26" s="49">
         <v>13</v>
       </c>
-      <c r="D26" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="E26" s="32">
+      <c r="D26" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="E26" s="26">
         <v>45986</v>
       </c>
-      <c r="F26" s="17" t="s">
-        <v>28</v>
+      <c r="F26" s="14" t="s">
+        <v>50</v>
       </c>
       <c r="G26" s="17" t="s">
         <v>26</v>
@@ -1203,23 +1201,23 @@
       <c r="B27" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="C27" s="53"/>
-      <c r="D27" s="44" t="s">
-        <v>12</v>
-      </c>
-      <c r="E27" s="45">
+      <c r="C27" s="50"/>
+      <c r="D27" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="E27" s="43">
         <v>45988</v>
       </c>
-      <c r="F27" s="46" t="s">
-        <v>42</v>
-      </c>
-      <c r="G27" s="47"/>
-      <c r="H27" s="48"/>
+      <c r="F27" s="44" t="s">
+        <v>41</v>
+      </c>
+      <c r="G27" s="45"/>
+      <c r="H27" s="46"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A28" s="16"/>
       <c r="B28" s="17"/>
-      <c r="C28" s="51">
+      <c r="C28" s="49">
         <v>14</v>
       </c>
       <c r="D28" s="31" t="s">
@@ -1236,26 +1234,28 @@
     </row>
     <row r="29" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A29" s="24"/>
-      <c r="B29" s="22"/>
-      <c r="C29" s="53"/>
-      <c r="D29" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="E29" s="40">
+      <c r="B29" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C29" s="50"/>
+      <c r="D29" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="E29" s="28">
         <v>45995</v>
       </c>
-      <c r="F29" s="22" t="s">
-        <v>51</v>
+      <c r="F29" s="15" t="s">
+        <v>50</v>
       </c>
       <c r="G29" s="22"/>
-      <c r="H29" s="41"/>
+      <c r="H29" s="39"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A30" s="16"/>
       <c r="B30" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="C30" s="51">
+      <c r="C30" s="49">
         <v>15</v>
       </c>
       <c r="D30" s="25" t="s">
@@ -1265,7 +1265,7 @@
         <v>46000</v>
       </c>
       <c r="F30" s="14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G30" s="17"/>
       <c r="H30" s="37"/>
@@ -1277,18 +1277,18 @@
       <c r="B31" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="C31" s="53"/>
-      <c r="D31" s="50" t="s">
+      <c r="C31" s="50"/>
+      <c r="D31" s="48" t="s">
         <v>12</v>
       </c>
       <c r="E31" s="28">
         <v>46002</v>
       </c>
       <c r="F31" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G31" s="23"/>
-      <c r="H31" s="41" t="s">
+      <c r="H31" s="39" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1297,6 +1297,12 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="C10:C11"/>
     <mergeCell ref="C26:C27"/>
     <mergeCell ref="C28:C29"/>
     <mergeCell ref="C30:C31"/>
@@ -1306,12 +1312,6 @@
     <mergeCell ref="C20:C21"/>
     <mergeCell ref="C22:C23"/>
     <mergeCell ref="C24:C25"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="C10:C11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
